--- a/NQQ_50.xlsx
+++ b/NQQ_50.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t xml:space="preserve">quarter</t>
   </si>
@@ -385,6 +385,9 @@
   <si>
     <t xml:space="preserve">2021Q3</t>
   </si>
+  <si>
+    <t xml:space="preserve">2021Q4</t>
+  </si>
 </sst>
 </file>
 
@@ -5656,16 +5659,16 @@
         <v>120</v>
       </c>
       <c r="B106" t="n">
-        <v>22439</v>
+        <v>22442</v>
       </c>
       <c r="C106" t="n">
-        <v>10159</v>
+        <v>10284</v>
       </c>
       <c r="D106" t="n">
-        <v>8850</v>
+        <v>8797</v>
       </c>
       <c r="E106" t="n">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="F106" t="n">
         <v>475</v>
@@ -5677,26 +5680,26 @@
         <v>316</v>
       </c>
       <c r="I106" t="n">
-        <v>3213</v>
+        <v>3240</v>
       </c>
       <c r="J106" t="n">
         <v>2335</v>
       </c>
       <c r="K106"/>
       <c r="L106" t="n">
-        <v>1408</v>
+        <v>1329</v>
       </c>
       <c r="M106" t="n">
         <v>6311</v>
       </c>
       <c r="N106" t="n">
-        <v>1524</v>
+        <v>1719</v>
       </c>
       <c r="O106" t="n">
-        <v>41448</v>
+        <v>41523</v>
       </c>
       <c r="P106" t="n">
-        <v>42972</v>
+        <v>43242</v>
       </c>
     </row>
     <row r="107">
@@ -5704,19 +5707,19 @@
         <v>121</v>
       </c>
       <c r="B107" t="n">
-        <v>25828</v>
+        <v>25790</v>
       </c>
       <c r="C107" t="n">
-        <v>10328</v>
+        <v>10500</v>
       </c>
       <c r="D107" t="n">
-        <v>8905</v>
+        <v>8877</v>
       </c>
       <c r="E107" t="n">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="F107" t="n">
-        <v>662</v>
+        <v>686</v>
       </c>
       <c r="G107" t="n">
         <v>3034</v>
@@ -5725,26 +5728,26 @@
         <v>335</v>
       </c>
       <c r="I107" t="n">
-        <v>2311</v>
+        <v>2332</v>
       </c>
       <c r="J107" t="n">
         <v>2965</v>
       </c>
       <c r="K107"/>
       <c r="L107" t="n">
-        <v>1479</v>
+        <v>1411</v>
       </c>
       <c r="M107" t="n">
         <v>6369</v>
       </c>
       <c r="N107" t="n">
-        <v>1163</v>
+        <v>906</v>
       </c>
       <c r="O107" t="n">
-        <v>45062</v>
+        <v>45167</v>
       </c>
       <c r="P107" t="n">
-        <v>46225</v>
+        <v>46074</v>
       </c>
     </row>
     <row r="108">
@@ -5752,25 +5755,25 @@
         <v>122</v>
       </c>
       <c r="B108" t="n">
-        <v>27546</v>
+        <v>27612</v>
       </c>
       <c r="C108" t="n">
-        <v>10564</v>
+        <v>10494</v>
       </c>
       <c r="D108" t="n">
-        <v>10587</v>
+        <v>10859</v>
       </c>
       <c r="E108" t="n">
-        <v>1039</v>
+        <v>1027</v>
       </c>
       <c r="F108" t="n">
         <v>694</v>
       </c>
       <c r="G108" t="n">
-        <v>4246</v>
+        <v>4325</v>
       </c>
       <c r="H108" t="n">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="I108"/>
       <c r="J108"/>
@@ -5778,13 +5781,53 @@
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="O108" t="n">
-        <v>48697</v>
+        <v>48965</v>
       </c>
       <c r="P108" t="n">
-        <v>50352</v>
+        <v>50621</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" t="n">
+        <v>29353</v>
+      </c>
+      <c r="C109" t="n">
+        <v>10660</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12624</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1271</v>
+      </c>
+      <c r="F109" t="n">
+        <v>795</v>
+      </c>
+      <c r="G109" t="n">
+        <v>5382</v>
+      </c>
+      <c r="H109" t="n">
+        <v>351</v>
+      </c>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>-785</v>
+      </c>
+      <c r="O109" t="n">
+        <v>52638</v>
+      </c>
+      <c r="P109" t="n">
+        <v>51853</v>
       </c>
     </row>
   </sheetData>
@@ -5886,7 +5929,7 @@
         <v>19425</v>
       </c>
       <c r="P2" t="n">
-        <v>19791</v>
+        <v>19790</v>
       </c>
     </row>
     <row r="3">
@@ -5900,7 +5943,7 @@
         <v>4298</v>
       </c>
       <c r="D3" t="n">
-        <v>4415</v>
+        <v>4414</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -5976,7 +6019,7 @@
         <v>4088</v>
       </c>
       <c r="D5" t="n">
-        <v>4912</v>
+        <v>4913</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -5990,17 +6033,17 @@
         <v>3387</v>
       </c>
       <c r="L5" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
         <v>43</v>
       </c>
       <c r="O5" t="n">
-        <v>20237</v>
+        <v>20238</v>
       </c>
       <c r="P5" t="n">
-        <v>20279</v>
+        <v>20280</v>
       </c>
     </row>
     <row r="6">
@@ -6021,11 +6064,11 @@
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6" t="n">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="J6"/>
       <c r="K6" t="n">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="L6" t="n">
         <v>438</v>
@@ -6052,7 +6095,7 @@
         <v>4413</v>
       </c>
       <c r="D7" t="n">
-        <v>5469</v>
+        <v>5468</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
@@ -6066,7 +6109,7 @@
         <v>3960</v>
       </c>
       <c r="L7" t="n">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="M7"/>
       <c r="N7" t="n">
@@ -6076,7 +6119,7 @@
         <v>21405</v>
       </c>
       <c r="P7" t="n">
-        <v>21834</v>
+        <v>21833</v>
       </c>
     </row>
     <row r="8">
@@ -6114,7 +6157,7 @@
         <v>21669</v>
       </c>
       <c r="P8" t="n">
-        <v>21580</v>
+        <v>21579</v>
       </c>
     </row>
     <row r="9">
@@ -6128,7 +6171,7 @@
         <v>4203</v>
       </c>
       <c r="D9" t="n">
-        <v>5621</v>
+        <v>5622</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -6142,17 +6185,17 @@
         <v>3985</v>
       </c>
       <c r="L9" t="n">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
         <v>-226</v>
       </c>
       <c r="O9" t="n">
-        <v>21816</v>
+        <v>21818</v>
       </c>
       <c r="P9" t="n">
-        <v>21590</v>
+        <v>21591</v>
       </c>
     </row>
     <row r="10">
@@ -6166,7 +6209,7 @@
         <v>4499</v>
       </c>
       <c r="D10" t="n">
-        <v>5910</v>
+        <v>5909</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -6187,10 +6230,10 @@
         <v>555</v>
       </c>
       <c r="O10" t="n">
-        <v>22486</v>
+        <v>22485</v>
       </c>
       <c r="P10" t="n">
-        <v>23041</v>
+        <v>23040</v>
       </c>
     </row>
     <row r="11">
@@ -6204,7 +6247,7 @@
         <v>4706</v>
       </c>
       <c r="D11" t="n">
-        <v>6272</v>
+        <v>6271</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -6215,10 +6258,10 @@
       </c>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>4468</v>
+        <v>4469</v>
       </c>
       <c r="L11" t="n">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="M11"/>
       <c r="N11" t="n">
@@ -6242,7 +6285,7 @@
         <v>4666</v>
       </c>
       <c r="D12" t="n">
-        <v>6144</v>
+        <v>6143</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -6280,7 +6323,7 @@
         <v>4761</v>
       </c>
       <c r="D13" t="n">
-        <v>7018</v>
+        <v>7020</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -6294,17 +6337,17 @@
         <v>4707</v>
       </c>
       <c r="L13" t="n">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
         <v>-124</v>
       </c>
       <c r="O13" t="n">
-        <v>24880</v>
+        <v>24881</v>
       </c>
       <c r="P13" t="n">
-        <v>24756</v>
+        <v>24757</v>
       </c>
     </row>
     <row r="14">
@@ -6356,31 +6399,31 @@
         <v>4862</v>
       </c>
       <c r="D15" t="n">
-        <v>6868</v>
+        <v>6867</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="n">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="J15"/>
       <c r="K15" t="n">
         <v>4735</v>
       </c>
       <c r="L15" t="n">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
         <v>597</v>
       </c>
       <c r="O15" t="n">
-        <v>25251</v>
+        <v>25250</v>
       </c>
       <c r="P15" t="n">
-        <v>25848</v>
+        <v>25847</v>
       </c>
     </row>
     <row r="16">
@@ -6408,7 +6451,7 @@
         <v>5098</v>
       </c>
       <c r="L16" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -6432,31 +6475,31 @@
         <v>5096</v>
       </c>
       <c r="D17" t="n">
-        <v>7605</v>
+        <v>7607</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="n">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="n">
         <v>5302</v>
       </c>
       <c r="L17" t="n">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
         <v>-177</v>
       </c>
       <c r="O17" t="n">
-        <v>26608</v>
+        <v>26610</v>
       </c>
       <c r="P17" t="n">
-        <v>26431</v>
+        <v>26433</v>
       </c>
     </row>
     <row r="18">
@@ -6477,7 +6520,7 @@
       <c r="G18"/>
       <c r="H18"/>
       <c r="I18" t="n">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="J18"/>
       <c r="K18" t="n">
@@ -6491,7 +6534,7 @@
         <v>356</v>
       </c>
       <c r="O18" t="n">
-        <v>27074</v>
+        <v>27073</v>
       </c>
       <c r="P18" t="n">
         <v>27430</v>
@@ -6522,17 +6565,17 @@
         <v>5373</v>
       </c>
       <c r="L19" t="n">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
         <v>182</v>
       </c>
       <c r="O19" t="n">
-        <v>27407</v>
+        <v>27406</v>
       </c>
       <c r="P19" t="n">
-        <v>27589</v>
+        <v>27588</v>
       </c>
     </row>
     <row r="20">
@@ -6546,7 +6589,7 @@
         <v>5299</v>
       </c>
       <c r="D20" t="n">
-        <v>8455</v>
+        <v>8454</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -6560,7 +6603,7 @@
         <v>5587</v>
       </c>
       <c r="L20" t="n">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
@@ -6570,7 +6613,7 @@
         <v>29071</v>
       </c>
       <c r="P20" t="n">
-        <v>28830</v>
+        <v>28829</v>
       </c>
     </row>
     <row r="21">
@@ -6584,31 +6627,31 @@
         <v>5304</v>
       </c>
       <c r="D21" t="n">
-        <v>8237</v>
+        <v>8239</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="n">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="n">
         <v>5612</v>
       </c>
       <c r="L21" t="n">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="n">
         <v>187</v>
       </c>
       <c r="O21" t="n">
-        <v>28837</v>
+        <v>28839</v>
       </c>
       <c r="P21" t="n">
-        <v>29024</v>
+        <v>29025</v>
       </c>
     </row>
     <row r="22">
@@ -6622,7 +6665,7 @@
         <v>5376</v>
       </c>
       <c r="D22" t="n">
-        <v>8427</v>
+        <v>8426</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6643,7 +6686,7 @@
         <v>176</v>
       </c>
       <c r="O22" t="n">
-        <v>29861</v>
+        <v>29860</v>
       </c>
       <c r="P22" t="n">
         <v>30037</v>
@@ -6660,7 +6703,7 @@
         <v>5535</v>
       </c>
       <c r="D23" t="n">
-        <v>8496</v>
+        <v>8495</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -6674,17 +6717,17 @@
         <v>6033</v>
       </c>
       <c r="L23" t="n">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M23"/>
       <c r="N23" t="n">
         <v>476</v>
       </c>
       <c r="O23" t="n">
-        <v>30471</v>
+        <v>30470</v>
       </c>
       <c r="P23" t="n">
-        <v>30947</v>
+        <v>30946</v>
       </c>
     </row>
     <row r="24">
@@ -6736,7 +6779,7 @@
         <v>5982</v>
       </c>
       <c r="D25" t="n">
-        <v>8283</v>
+        <v>8285</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -6750,17 +6793,17 @@
         <v>5798</v>
       </c>
       <c r="L25" t="n">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
         <v>337</v>
       </c>
       <c r="O25" t="n">
-        <v>30964</v>
+        <v>30966</v>
       </c>
       <c r="P25" t="n">
-        <v>31301</v>
+        <v>31302</v>
       </c>
     </row>
     <row r="26">
@@ -6774,14 +6817,14 @@
         <v>5911</v>
       </c>
       <c r="D26" t="n">
-        <v>8871</v>
+        <v>8870</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="n">
-        <v>1959</v>
+        <v>1958</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="n">
@@ -6812,7 +6855,7 @@
         <v>6071</v>
       </c>
       <c r="D27" t="n">
-        <v>8905</v>
+        <v>8904</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -6823,20 +6866,20 @@
       </c>
       <c r="J27"/>
       <c r="K27" t="n">
-        <v>6188</v>
+        <v>6189</v>
       </c>
       <c r="L27" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="M27"/>
       <c r="N27" t="n">
         <v>-152</v>
       </c>
       <c r="O27" t="n">
-        <v>32321</v>
+        <v>32320</v>
       </c>
       <c r="P27" t="n">
-        <v>32169</v>
+        <v>32168</v>
       </c>
     </row>
     <row r="28">
@@ -6850,21 +6893,21 @@
         <v>6226</v>
       </c>
       <c r="D28" t="n">
-        <v>8252</v>
+        <v>8251</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="n">
-        <v>6131</v>
+        <v>6130</v>
       </c>
       <c r="L28" t="n">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
@@ -6874,7 +6917,7 @@
         <v>31811</v>
       </c>
       <c r="P28" t="n">
-        <v>31919</v>
+        <v>31918</v>
       </c>
     </row>
     <row r="29">
@@ -6888,7 +6931,7 @@
         <v>6548</v>
       </c>
       <c r="D29" t="n">
-        <v>8410</v>
+        <v>8411</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -6902,17 +6945,17 @@
         <v>6258</v>
       </c>
       <c r="L29" t="n">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
         <v>31</v>
       </c>
       <c r="O29" t="n">
-        <v>32650</v>
+        <v>32651</v>
       </c>
       <c r="P29" t="n">
-        <v>32681</v>
+        <v>32682</v>
       </c>
     </row>
     <row r="30">
@@ -6926,7 +6969,7 @@
         <v>6501</v>
       </c>
       <c r="D30" t="n">
-        <v>8754</v>
+        <v>8753</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -6940,17 +6983,17 @@
         <v>6207</v>
       </c>
       <c r="L30" t="n">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
         <v>-42</v>
       </c>
       <c r="O30" t="n">
-        <v>33116</v>
+        <v>33115</v>
       </c>
       <c r="P30" t="n">
-        <v>33074</v>
+        <v>33073</v>
       </c>
     </row>
     <row r="31">
@@ -6975,10 +7018,10 @@
       </c>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>6202</v>
+        <v>6203</v>
       </c>
       <c r="L31" t="n">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
@@ -7009,14 +7052,14 @@
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="n">
         <v>6504</v>
       </c>
       <c r="L32" t="n">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
@@ -7026,7 +7069,7 @@
         <v>33981</v>
       </c>
       <c r="P32" t="n">
-        <v>33755</v>
+        <v>33754</v>
       </c>
     </row>
     <row r="33">
@@ -7040,7 +7083,7 @@
         <v>6596</v>
       </c>
       <c r="D33" t="n">
-        <v>8735</v>
+        <v>8736</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -7054,17 +7097,17 @@
         <v>6554</v>
       </c>
       <c r="L33" t="n">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
         <v>367</v>
       </c>
       <c r="O33" t="n">
-        <v>33679</v>
+        <v>33680</v>
       </c>
       <c r="P33" t="n">
-        <v>34047</v>
+        <v>34048</v>
       </c>
     </row>
     <row r="34">
@@ -7089,7 +7132,7 @@
       </c>
       <c r="J34"/>
       <c r="K34" t="n">
-        <v>6519</v>
+        <v>6520</v>
       </c>
       <c r="L34" t="n">
         <v>667</v>
@@ -7099,10 +7142,10 @@
         <v>265</v>
       </c>
       <c r="O34" t="n">
-        <v>33997</v>
+        <v>33996</v>
       </c>
       <c r="P34" t="n">
-        <v>34262</v>
+        <v>34261</v>
       </c>
     </row>
     <row r="35">
@@ -7116,21 +7159,21 @@
         <v>6696</v>
       </c>
       <c r="D35" t="n">
-        <v>8896</v>
+        <v>8895</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35" t="n">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="J35"/>
       <c r="K35" t="n">
         <v>6525</v>
       </c>
       <c r="L35" t="n">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
@@ -7192,7 +7235,7 @@
         <v>6764</v>
       </c>
       <c r="D37" t="n">
-        <v>10536</v>
+        <v>10538</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -7206,17 +7249,17 @@
         <v>7272</v>
       </c>
       <c r="L37" t="n">
-        <v>1224</v>
+        <v>1226</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
         <v>379</v>
       </c>
       <c r="O37" t="n">
-        <v>36296</v>
+        <v>36298</v>
       </c>
       <c r="P37" t="n">
-        <v>36675</v>
+        <v>36677</v>
       </c>
     </row>
     <row r="38">
@@ -7230,7 +7273,7 @@
         <v>6343</v>
       </c>
       <c r="D38" t="n">
-        <v>9651</v>
+        <v>9650</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -7251,10 +7294,10 @@
         <v>33</v>
       </c>
       <c r="O38" t="n">
-        <v>35323</v>
+        <v>35322</v>
       </c>
       <c r="P38" t="n">
-        <v>35356</v>
+        <v>35355</v>
       </c>
     </row>
     <row r="39">
@@ -7268,7 +7311,7 @@
         <v>6880</v>
       </c>
       <c r="D39" t="n">
-        <v>10244</v>
+        <v>10243</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -7282,14 +7325,14 @@
         <v>7623</v>
       </c>
       <c r="L39" t="n">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="M39"/>
       <c r="N39" t="n">
         <v>352</v>
       </c>
       <c r="O39" t="n">
-        <v>36567</v>
+        <v>36566</v>
       </c>
       <c r="P39" t="n">
         <v>36919</v>
@@ -7306,7 +7349,7 @@
         <v>6963</v>
       </c>
       <c r="D40" t="n">
-        <v>10451</v>
+        <v>10450</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -7320,17 +7363,17 @@
         <v>7501</v>
       </c>
       <c r="L40" t="n">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="n">
         <v>-191</v>
       </c>
       <c r="O40" t="n">
-        <v>37032</v>
+        <v>37031</v>
       </c>
       <c r="P40" t="n">
-        <v>36841</v>
+        <v>36840</v>
       </c>
     </row>
     <row r="41">
@@ -7344,7 +7387,7 @@
         <v>7057</v>
       </c>
       <c r="D41" t="n">
-        <v>10572</v>
+        <v>10573</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -7358,17 +7401,17 @@
         <v>7835</v>
       </c>
       <c r="L41" t="n">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="M41"/>
       <c r="N41" t="n">
         <v>189</v>
       </c>
       <c r="O41" t="n">
-        <v>37441</v>
+        <v>37442</v>
       </c>
       <c r="P41" t="n">
-        <v>37630</v>
+        <v>37631</v>
       </c>
     </row>
     <row r="42">
@@ -7382,7 +7425,7 @@
         <v>6985</v>
       </c>
       <c r="D42" t="n">
-        <v>11226</v>
+        <v>11224</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -7403,10 +7446,10 @@
         <v>399</v>
       </c>
       <c r="O42" t="n">
-        <v>38355</v>
+        <v>38353</v>
       </c>
       <c r="P42" t="n">
-        <v>38754</v>
+        <v>38753</v>
       </c>
     </row>
     <row r="43">
@@ -7431,10 +7474,10 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>8467</v>
+        <v>8468</v>
       </c>
       <c r="L43" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="M43"/>
       <c r="N43" t="n">
@@ -7465,14 +7508,14 @@
       <c r="G44"/>
       <c r="H44"/>
       <c r="I44" t="n">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
         <v>8766</v>
       </c>
       <c r="L44" t="n">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="M44"/>
       <c r="N44" t="n">
@@ -7496,7 +7539,7 @@
         <v>7160</v>
       </c>
       <c r="D45" t="n">
-        <v>12267</v>
+        <v>12268</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -7510,17 +7553,17 @@
         <v>8759</v>
       </c>
       <c r="L45" t="n">
-        <v>1059</v>
+        <v>1061</v>
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
         <v>501</v>
       </c>
       <c r="O45" t="n">
-        <v>40948</v>
+        <v>40949</v>
       </c>
       <c r="P45" t="n">
-        <v>41449</v>
+        <v>41450</v>
       </c>
     </row>
     <row r="46">
@@ -7534,14 +7577,14 @@
         <v>7223</v>
       </c>
       <c r="D46" t="n">
-        <v>12337</v>
+        <v>12336</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="n">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
@@ -7572,7 +7615,7 @@
         <v>7312</v>
       </c>
       <c r="D47" t="n">
-        <v>11852</v>
+        <v>11851</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -7586,17 +7629,17 @@
         <v>8918</v>
       </c>
       <c r="L47" t="n">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="M47"/>
       <c r="N47" t="n">
         <v>1126</v>
       </c>
       <c r="O47" t="n">
-        <v>41353</v>
+        <v>41352</v>
       </c>
       <c r="P47" t="n">
-        <v>42479</v>
+        <v>42478</v>
       </c>
     </row>
     <row r="48">
@@ -7610,31 +7653,31 @@
         <v>7407</v>
       </c>
       <c r="D48" t="n">
-        <v>12552</v>
+        <v>12555</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
         <v>9153</v>
       </c>
       <c r="L48" t="n">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="n">
         <v>-461</v>
       </c>
       <c r="O48" t="n">
-        <v>42322</v>
+        <v>42324</v>
       </c>
       <c r="P48" t="n">
-        <v>41861</v>
+        <v>41863</v>
       </c>
     </row>
     <row r="49">
@@ -7648,31 +7691,31 @@
         <v>7530</v>
       </c>
       <c r="D49" t="n">
-        <v>12757</v>
+        <v>12756</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49" t="n">
-        <v>2519</v>
+        <v>2516</v>
       </c>
       <c r="J49"/>
       <c r="K49" t="n">
         <v>9123</v>
       </c>
       <c r="L49" t="n">
-        <v>1115</v>
+        <v>1117</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
         <v>302</v>
       </c>
       <c r="O49" t="n">
-        <v>43086</v>
+        <v>43085</v>
       </c>
       <c r="P49" t="n">
-        <v>43388</v>
+        <v>43387</v>
       </c>
     </row>
     <row r="50">
@@ -7680,7 +7723,7 @@
         <v>64</v>
       </c>
       <c r="B50" t="n">
-        <v>23424</v>
+        <v>23425</v>
       </c>
       <c r="C50" t="n">
         <v>7750</v>
@@ -7693,11 +7736,11 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="n">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="n">
-        <v>9426</v>
+        <v>9427</v>
       </c>
       <c r="L50" t="n">
         <v>771</v>
@@ -7724,7 +7767,7 @@
         <v>7782</v>
       </c>
       <c r="D51" t="n">
-        <v>12531</v>
+        <v>12530</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
@@ -7738,17 +7781,17 @@
         <v>9047</v>
       </c>
       <c r="L51" t="n">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
         <v>384</v>
       </c>
       <c r="O51" t="n">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="P51" t="n">
-        <v>44309</v>
+        <v>44307</v>
       </c>
     </row>
     <row r="52">
@@ -7762,31 +7805,31 @@
         <v>7867</v>
       </c>
       <c r="D52" t="n">
-        <v>11887</v>
+        <v>11892</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52" t="n">
-        <v>2172</v>
+        <v>2177</v>
       </c>
       <c r="J52"/>
       <c r="K52" t="n">
         <v>8782</v>
       </c>
       <c r="L52" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
         <v>-505</v>
       </c>
       <c r="O52" t="n">
-        <v>43618</v>
+        <v>43623</v>
       </c>
       <c r="P52" t="n">
-        <v>43113</v>
+        <v>43118</v>
       </c>
     </row>
     <row r="53">
@@ -7800,31 +7843,31 @@
         <v>7855</v>
       </c>
       <c r="D53" t="n">
-        <v>12327</v>
+        <v>12323</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="n">
-        <v>2440</v>
+        <v>2434</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="n">
         <v>8720</v>
       </c>
       <c r="L53" t="n">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
         <v>1034</v>
       </c>
       <c r="O53" t="n">
-        <v>44269</v>
+        <v>44266</v>
       </c>
       <c r="P53" t="n">
-        <v>45302</v>
+        <v>45299</v>
       </c>
     </row>
     <row r="54">
@@ -7838,18 +7881,18 @@
         <v>7800</v>
       </c>
       <c r="D54" t="n">
-        <v>13098</v>
+        <v>13097</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="n">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="n">
-        <v>9205</v>
+        <v>9204</v>
       </c>
       <c r="L54" t="n">
         <v>992</v>
@@ -7859,10 +7902,10 @@
         <v>-354</v>
       </c>
       <c r="O54" t="n">
-        <v>45328</v>
+        <v>45327</v>
       </c>
       <c r="P54" t="n">
-        <v>44974</v>
+        <v>44973</v>
       </c>
     </row>
     <row r="55">
@@ -7870,13 +7913,13 @@
         <v>69</v>
       </c>
       <c r="B55" t="n">
-        <v>23839</v>
+        <v>23838</v>
       </c>
       <c r="C55" t="n">
         <v>7846</v>
       </c>
       <c r="D55" t="n">
-        <v>11429</v>
+        <v>11428</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
@@ -7887,20 +7930,20 @@
       </c>
       <c r="J55"/>
       <c r="K55" t="n">
-        <v>8533</v>
+        <v>8534</v>
       </c>
       <c r="L55" t="n">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
         <v>485</v>
       </c>
       <c r="O55" t="n">
-        <v>43114</v>
+        <v>43113</v>
       </c>
       <c r="P55" t="n">
-        <v>43600</v>
+        <v>43598</v>
       </c>
     </row>
     <row r="56">
@@ -7914,14 +7957,14 @@
         <v>7805</v>
       </c>
       <c r="D56" t="n">
-        <v>11444</v>
+        <v>11452</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56" t="n">
-        <v>2474</v>
+        <v>2482</v>
       </c>
       <c r="J56"/>
       <c r="K56" t="n">
@@ -7935,10 +7978,10 @@
         <v>48</v>
       </c>
       <c r="O56" t="n">
-        <v>43197</v>
+        <v>43205</v>
       </c>
       <c r="P56" t="n">
-        <v>43244</v>
+        <v>43252</v>
       </c>
     </row>
     <row r="57">
@@ -7946,37 +7989,37 @@
         <v>71</v>
       </c>
       <c r="B57" t="n">
-        <v>23831</v>
+        <v>23832</v>
       </c>
       <c r="C57" t="n">
         <v>7837</v>
       </c>
       <c r="D57" t="n">
-        <v>9704</v>
+        <v>9702</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="n">
-        <v>1713</v>
+        <v>1709</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="n">
         <v>6972</v>
       </c>
       <c r="L57" t="n">
-        <v>1019</v>
+        <v>1021</v>
       </c>
       <c r="M57"/>
       <c r="N57" t="n">
         <v>-374</v>
       </c>
       <c r="O57" t="n">
-        <v>41372</v>
+        <v>41371</v>
       </c>
       <c r="P57" t="n">
-        <v>40998</v>
+        <v>40997</v>
       </c>
     </row>
     <row r="58">
@@ -7984,7 +8027,7 @@
         <v>72</v>
       </c>
       <c r="B58" t="n">
-        <v>23151</v>
+        <v>23152</v>
       </c>
       <c r="C58" t="n">
         <v>7989</v>
@@ -8022,13 +8065,13 @@
         <v>73</v>
       </c>
       <c r="B59" t="n">
-        <v>23013</v>
+        <v>23011</v>
       </c>
       <c r="C59" t="n">
         <v>7392</v>
       </c>
       <c r="D59" t="n">
-        <v>8655</v>
+        <v>8654</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -8039,20 +8082,20 @@
       </c>
       <c r="J59"/>
       <c r="K59" t="n">
-        <v>5944</v>
+        <v>5943</v>
       </c>
       <c r="L59" t="n">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="M59"/>
       <c r="N59" t="n">
         <v>47</v>
       </c>
       <c r="O59" t="n">
-        <v>39060</v>
+        <v>39058</v>
       </c>
       <c r="P59" t="n">
-        <v>39108</v>
+        <v>39105</v>
       </c>
     </row>
     <row r="60">
@@ -8060,20 +8103,20 @@
         <v>74</v>
       </c>
       <c r="B60" t="n">
-        <v>22886</v>
+        <v>22885</v>
       </c>
       <c r="C60" t="n">
         <v>7374</v>
       </c>
       <c r="D60" t="n">
-        <v>8061</v>
+        <v>8067</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="n">
-        <v>1824</v>
+        <v>1830</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="n">
@@ -8087,10 +8130,10 @@
         <v>-289</v>
       </c>
       <c r="O60" t="n">
-        <v>38321</v>
+        <v>38326</v>
       </c>
       <c r="P60" t="n">
-        <v>38032</v>
+        <v>38037</v>
       </c>
     </row>
     <row r="61">
@@ -8098,37 +8141,37 @@
         <v>75</v>
       </c>
       <c r="B61" t="n">
-        <v>22916</v>
+        <v>22920</v>
       </c>
       <c r="C61" t="n">
         <v>7354</v>
       </c>
       <c r="D61" t="n">
-        <v>7285</v>
+        <v>7282</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="n">
-        <v>1573</v>
+        <v>1569</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="n">
         <v>4786</v>
       </c>
       <c r="L61" t="n">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
         <v>-293</v>
       </c>
       <c r="O61" t="n">
-        <v>37555</v>
+        <v>37556</v>
       </c>
       <c r="P61" t="n">
-        <v>37261</v>
+        <v>37262</v>
       </c>
     </row>
     <row r="62">
@@ -8136,7 +8179,7 @@
         <v>76</v>
       </c>
       <c r="B62" t="n">
-        <v>23028</v>
+        <v>23027</v>
       </c>
       <c r="C62" t="n">
         <v>7195</v>
@@ -8163,10 +8206,10 @@
         <v>-500</v>
       </c>
       <c r="O62" t="n">
-        <v>36714</v>
+        <v>36713</v>
       </c>
       <c r="P62" t="n">
-        <v>36215</v>
+        <v>36213</v>
       </c>
     </row>
     <row r="63">
@@ -8174,37 +8217,37 @@
         <v>77</v>
       </c>
       <c r="B63" t="n">
-        <v>23166</v>
+        <v>23164</v>
       </c>
       <c r="C63" t="n">
         <v>6951</v>
       </c>
       <c r="D63" t="n">
-        <v>7011</v>
+        <v>7010</v>
       </c>
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="n">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="J63"/>
       <c r="K63" t="n">
-        <v>4151</v>
+        <v>4150</v>
       </c>
       <c r="L63" t="n">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="M63"/>
       <c r="N63" t="n">
         <v>-104</v>
       </c>
       <c r="O63" t="n">
-        <v>37129</v>
+        <v>37126</v>
       </c>
       <c r="P63" t="n">
-        <v>37025</v>
+        <v>37022</v>
       </c>
     </row>
     <row r="64">
@@ -8212,37 +8255,37 @@
         <v>78</v>
       </c>
       <c r="B64" t="n">
-        <v>23329</v>
+        <v>23327</v>
       </c>
       <c r="C64" t="n">
         <v>6866</v>
       </c>
       <c r="D64" t="n">
-        <v>6426</v>
+        <v>6430</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="n">
-        <v>1392</v>
+        <v>1396</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="n">
         <v>3985</v>
       </c>
       <c r="L64" t="n">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M64"/>
       <c r="N64" t="n">
         <v>195</v>
       </c>
       <c r="O64" t="n">
-        <v>36621</v>
+        <v>36623</v>
       </c>
       <c r="P64" t="n">
-        <v>36815</v>
+        <v>36817</v>
       </c>
     </row>
     <row r="65">
@@ -8250,37 +8293,37 @@
         <v>79</v>
       </c>
       <c r="B65" t="n">
-        <v>23095</v>
+        <v>23102</v>
       </c>
       <c r="C65" t="n">
         <v>7092</v>
       </c>
       <c r="D65" t="n">
-        <v>6032</v>
+        <v>6031</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>1280</v>
+        <v>1276</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="n">
         <v>3627</v>
       </c>
       <c r="L65" t="n">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="M65"/>
       <c r="N65" t="n">
         <v>30</v>
       </c>
       <c r="O65" t="n">
-        <v>36219</v>
+        <v>36224</v>
       </c>
       <c r="P65" t="n">
-        <v>36249</v>
+        <v>36254</v>
       </c>
     </row>
     <row r="66">
@@ -8288,13 +8331,13 @@
         <v>80</v>
       </c>
       <c r="B66" t="n">
-        <v>23055</v>
+        <v>23053</v>
       </c>
       <c r="C66" t="n">
         <v>7369</v>
       </c>
       <c r="D66" t="n">
-        <v>5669</v>
+        <v>5668</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
@@ -8315,10 +8358,10 @@
         <v>232</v>
       </c>
       <c r="O66" t="n">
-        <v>36094</v>
+        <v>36090</v>
       </c>
       <c r="P66" t="n">
-        <v>36325</v>
+        <v>36322</v>
       </c>
     </row>
     <row r="67">
@@ -8326,37 +8369,37 @@
         <v>81</v>
       </c>
       <c r="B67" t="n">
-        <v>22969</v>
+        <v>22967</v>
       </c>
       <c r="C67" t="n">
         <v>7525</v>
       </c>
       <c r="D67" t="n">
-        <v>5659</v>
+        <v>5658</v>
       </c>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="n">
         <v>3489</v>
       </c>
       <c r="L67" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M67"/>
       <c r="N67" t="n">
         <v>15</v>
       </c>
       <c r="O67" t="n">
-        <v>36153</v>
+        <v>36150</v>
       </c>
       <c r="P67" t="n">
-        <v>36167</v>
+        <v>36165</v>
       </c>
     </row>
     <row r="68">
@@ -8364,20 +8407,20 @@
         <v>82</v>
       </c>
       <c r="B68" t="n">
-        <v>22607</v>
+        <v>22604</v>
       </c>
       <c r="C68" t="n">
         <v>7421</v>
       </c>
       <c r="D68" t="n">
-        <v>5096</v>
+        <v>5102</v>
       </c>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="n">
@@ -8391,10 +8434,10 @@
         <v>719</v>
       </c>
       <c r="O68" t="n">
-        <v>35124</v>
+        <v>35127</v>
       </c>
       <c r="P68" t="n">
-        <v>35843</v>
+        <v>35847</v>
       </c>
     </row>
     <row r="69">
@@ -8402,37 +8445,37 @@
         <v>83</v>
       </c>
       <c r="B69" t="n">
-        <v>22782</v>
+        <v>22791</v>
       </c>
       <c r="C69" t="n">
         <v>7141</v>
       </c>
       <c r="D69" t="n">
-        <v>5577</v>
+        <v>5572</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="n">
-        <v>1274</v>
+        <v>1267</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="n">
         <v>3243</v>
       </c>
       <c r="L69" t="n">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
         <v>-417</v>
       </c>
       <c r="O69" t="n">
-        <v>35500</v>
+        <v>35504</v>
       </c>
       <c r="P69" t="n">
-        <v>35083</v>
+        <v>35087</v>
       </c>
     </row>
     <row r="70">
@@ -8440,24 +8483,24 @@
         <v>84</v>
       </c>
       <c r="B70" t="n">
-        <v>22563</v>
+        <v>22559</v>
       </c>
       <c r="C70" t="n">
-        <v>7053</v>
+        <v>7052</v>
       </c>
       <c r="D70" t="n">
-        <v>6166</v>
+        <v>6164</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="n">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="n">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="L70" t="n">
         <v>947</v>
@@ -8467,10 +8510,10 @@
         <v>320</v>
       </c>
       <c r="O70" t="n">
-        <v>35782</v>
+        <v>35776</v>
       </c>
       <c r="P70" t="n">
-        <v>36101</v>
+        <v>36095</v>
       </c>
     </row>
     <row r="71">
@@ -8478,10 +8521,10 @@
         <v>85</v>
       </c>
       <c r="B71" t="n">
-        <v>22685</v>
+        <v>22682</v>
       </c>
       <c r="C71" t="n">
-        <v>6967</v>
+        <v>6968</v>
       </c>
       <c r="D71" t="n">
         <v>5591</v>
@@ -8491,24 +8534,24 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="n">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="n">
         <v>3250</v>
       </c>
       <c r="L71" t="n">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="n">
         <v>-49</v>
       </c>
       <c r="O71" t="n">
-        <v>35243</v>
+        <v>35241</v>
       </c>
       <c r="P71" t="n">
-        <v>35194</v>
+        <v>35192</v>
       </c>
     </row>
     <row r="72">
@@ -8516,37 +8559,37 @@
         <v>86</v>
       </c>
       <c r="B72" t="n">
-        <v>23017</v>
+        <v>23016</v>
       </c>
       <c r="C72" t="n">
         <v>6918</v>
       </c>
       <c r="D72" t="n">
-        <v>5860</v>
+        <v>5864</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="n">
-        <v>1577</v>
+        <v>1581</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="n">
         <v>3321</v>
       </c>
       <c r="L72" t="n">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="n">
         <v>562</v>
       </c>
       <c r="O72" t="n">
-        <v>35795</v>
+        <v>35798</v>
       </c>
       <c r="P72" t="n">
-        <v>36357</v>
+        <v>36359</v>
       </c>
     </row>
     <row r="73">
@@ -8554,37 +8597,37 @@
         <v>87</v>
       </c>
       <c r="B73" t="n">
-        <v>22937</v>
+        <v>22944</v>
       </c>
       <c r="C73" t="n">
         <v>6809</v>
       </c>
       <c r="D73" t="n">
-        <v>6008</v>
+        <v>6007</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="n">
-        <v>1438</v>
+        <v>1436</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="n">
         <v>3586</v>
       </c>
       <c r="L73" t="n">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="M73"/>
       <c r="N73" t="n">
         <v>-53</v>
       </c>
       <c r="O73" t="n">
-        <v>35755</v>
+        <v>35759</v>
       </c>
       <c r="P73" t="n">
-        <v>35701</v>
+        <v>35706</v>
       </c>
     </row>
     <row r="74">
@@ -8592,24 +8635,24 @@
         <v>88</v>
       </c>
       <c r="B74" t="n">
-        <v>22695</v>
+        <v>22692</v>
       </c>
       <c r="C74" t="n">
         <v>6678</v>
       </c>
       <c r="D74" t="n">
-        <v>6310</v>
+        <v>6308</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="n">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="n">
-        <v>3501</v>
+        <v>3500</v>
       </c>
       <c r="L74" t="n">
         <v>1015</v>
@@ -8619,10 +8662,10 @@
         <v>326</v>
       </c>
       <c r="O74" t="n">
-        <v>35684</v>
+        <v>35678</v>
       </c>
       <c r="P74" t="n">
-        <v>36009</v>
+        <v>36003</v>
       </c>
     </row>
     <row r="75">
@@ -8630,10 +8673,10 @@
         <v>89</v>
       </c>
       <c r="B75" t="n">
-        <v>22731</v>
+        <v>22729</v>
       </c>
       <c r="C75" t="n">
-        <v>6720</v>
+        <v>6721</v>
       </c>
       <c r="D75" t="n">
         <v>6423</v>
@@ -8643,21 +8686,21 @@
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="n">
         <v>3658</v>
       </c>
       <c r="L75" t="n">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="n">
         <v>293</v>
       </c>
       <c r="O75" t="n">
-        <v>35874</v>
+        <v>35873</v>
       </c>
       <c r="P75" t="n">
         <v>36167</v>
@@ -8674,31 +8717,31 @@
         <v>7067</v>
       </c>
       <c r="D76" t="n">
-        <v>7265</v>
+        <v>7268</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>2202</v>
+        <v>2205</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="n">
-        <v>3891</v>
+        <v>3892</v>
       </c>
       <c r="L76" t="n">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="n">
         <v>339</v>
       </c>
       <c r="O76" t="n">
-        <v>37290</v>
+        <v>37293</v>
       </c>
       <c r="P76" t="n">
-        <v>37629</v>
+        <v>37632</v>
       </c>
     </row>
     <row r="77">
@@ -8706,37 +8749,37 @@
         <v>91</v>
       </c>
       <c r="B77" t="n">
-        <v>23032</v>
+        <v>23037</v>
       </c>
       <c r="C77" t="n">
-        <v>7120</v>
+        <v>7119</v>
       </c>
       <c r="D77" t="n">
-        <v>7564</v>
+        <v>7563</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="n">
-        <v>2339</v>
+        <v>2336</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="n">
-        <v>4090</v>
+        <v>4089</v>
       </c>
       <c r="L77" t="n">
-        <v>1135</v>
+        <v>1137</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="n">
         <v>-712</v>
       </c>
       <c r="O77" t="n">
-        <v>37716</v>
+        <v>37718</v>
       </c>
       <c r="P77" t="n">
-        <v>37005</v>
+        <v>37007</v>
       </c>
     </row>
     <row r="78">
@@ -8744,20 +8787,20 @@
         <v>92</v>
       </c>
       <c r="B78" t="n">
-        <v>23073</v>
+        <v>23070</v>
       </c>
       <c r="C78" t="n">
         <v>7177</v>
       </c>
       <c r="D78" t="n">
-        <v>7325</v>
+        <v>7322</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="n">
-        <v>1957</v>
+        <v>1954</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="n">
@@ -8771,10 +8814,10 @@
         <v>943</v>
       </c>
       <c r="O78" t="n">
-        <v>37575</v>
+        <v>37569</v>
       </c>
       <c r="P78" t="n">
-        <v>38518</v>
+        <v>38511</v>
       </c>
     </row>
     <row r="79">
@@ -8782,10 +8825,10 @@
         <v>93</v>
       </c>
       <c r="B79" t="n">
-        <v>23380</v>
+        <v>23378</v>
       </c>
       <c r="C79" t="n">
-        <v>7373</v>
+        <v>7375</v>
       </c>
       <c r="D79" t="n">
         <v>7494</v>
@@ -8795,14 +8838,14 @@
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="n">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="n">
         <v>4239</v>
       </c>
       <c r="L79" t="n">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="n">
@@ -8820,24 +8863,24 @@
         <v>94</v>
       </c>
       <c r="B80" t="n">
-        <v>23521</v>
+        <v>23522</v>
       </c>
       <c r="C80" t="n">
         <v>7162</v>
       </c>
       <c r="D80" t="n">
-        <v>7853</v>
+        <v>7857</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="n">
-        <v>2347</v>
+        <v>2349</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="n">
-        <v>4249</v>
+        <v>4251</v>
       </c>
       <c r="L80" t="n">
         <v>1257</v>
@@ -8847,10 +8890,10 @@
         <v>436</v>
       </c>
       <c r="O80" t="n">
-        <v>38536</v>
+        <v>38541</v>
       </c>
       <c r="P80" t="n">
-        <v>38972</v>
+        <v>38977</v>
       </c>
     </row>
     <row r="81">
@@ -8858,37 +8901,37 @@
         <v>95</v>
       </c>
       <c r="B81" t="n">
-        <v>23796</v>
+        <v>23798</v>
       </c>
       <c r="C81" t="n">
-        <v>7057</v>
+        <v>7056</v>
       </c>
       <c r="D81" t="n">
-        <v>8019</v>
+        <v>8017</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81" t="n">
-        <v>2663</v>
+        <v>2660</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="n">
-        <v>4157</v>
+        <v>4155</v>
       </c>
       <c r="L81" t="n">
-        <v>1199</v>
+        <v>1201</v>
       </c>
       <c r="M81"/>
       <c r="N81" t="n">
         <v>1051</v>
       </c>
       <c r="O81" t="n">
-        <v>38871</v>
+        <v>38870</v>
       </c>
       <c r="P81" t="n">
-        <v>39922</v>
+        <v>39921</v>
       </c>
     </row>
     <row r="82">
@@ -8896,37 +8939,37 @@
         <v>96</v>
       </c>
       <c r="B82" t="n">
-        <v>23768</v>
+        <v>23767</v>
       </c>
       <c r="C82" t="n">
-        <v>7340</v>
+        <v>7339</v>
       </c>
       <c r="D82" t="n">
-        <v>8782</v>
+        <v>8777</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="n">
-        <v>2735</v>
+        <v>2731</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="n">
-        <v>4405</v>
+        <v>4404</v>
       </c>
       <c r="L82" t="n">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="n">
         <v>510</v>
       </c>
       <c r="O82" t="n">
-        <v>39890</v>
+        <v>39883</v>
       </c>
       <c r="P82" t="n">
-        <v>40400</v>
+        <v>40393</v>
       </c>
     </row>
     <row r="83">
@@ -8934,37 +8977,37 @@
         <v>97</v>
       </c>
       <c r="B83" t="n">
-        <v>23991</v>
+        <v>23989</v>
       </c>
       <c r="C83" t="n">
-        <v>7334</v>
+        <v>7335</v>
       </c>
       <c r="D83" t="n">
-        <v>8677</v>
+        <v>8680</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>2536</v>
+        <v>2541</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="n">
         <v>4491</v>
       </c>
       <c r="L83" t="n">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="n">
         <v>747</v>
       </c>
       <c r="O83" t="n">
-        <v>40002</v>
+        <v>40005</v>
       </c>
       <c r="P83" t="n">
-        <v>40749</v>
+        <v>40751</v>
       </c>
     </row>
     <row r="84">
@@ -8972,37 +9015,37 @@
         <v>98</v>
       </c>
       <c r="B84" t="n">
-        <v>24246</v>
+        <v>24249</v>
       </c>
       <c r="C84" t="n">
         <v>7325</v>
       </c>
       <c r="D84" t="n">
-        <v>8717</v>
+        <v>8721</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>2871</v>
+        <v>2872</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="n">
-        <v>4426</v>
+        <v>4430</v>
       </c>
       <c r="L84" t="n">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="M84"/>
       <c r="N84" t="n">
         <v>1964</v>
       </c>
       <c r="O84" t="n">
-        <v>40288</v>
+        <v>40295</v>
       </c>
       <c r="P84" t="n">
-        <v>42251</v>
+        <v>42259</v>
       </c>
     </row>
     <row r="85">
@@ -9010,37 +9053,37 @@
         <v>99</v>
       </c>
       <c r="B85" t="n">
-        <v>24397</v>
+        <v>24396</v>
       </c>
       <c r="C85" t="n">
-        <v>7460</v>
+        <v>7459</v>
       </c>
       <c r="D85" t="n">
-        <v>7968</v>
+        <v>7966</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>1880</v>
+        <v>1877</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="n">
-        <v>4661</v>
+        <v>4658</v>
       </c>
       <c r="L85" t="n">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="M85"/>
       <c r="N85" t="n">
         <v>581</v>
       </c>
       <c r="O85" t="n">
-        <v>39824</v>
+        <v>39821</v>
       </c>
       <c r="P85" t="n">
-        <v>40405</v>
+        <v>40402</v>
       </c>
     </row>
     <row r="86">
@@ -9051,21 +9094,21 @@
         <v>25375</v>
       </c>
       <c r="C86" t="n">
-        <v>7587</v>
+        <v>7586</v>
       </c>
       <c r="D86" t="n">
-        <v>8754</v>
+        <v>8744</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>3235</v>
+        <v>3228</v>
       </c>
       <c r="J86"/>
       <c r="K86" t="n">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="L86" t="n">
         <v>1151</v>
@@ -9075,10 +9118,10 @@
         <v>693</v>
       </c>
       <c r="O86" t="n">
-        <v>41716</v>
+        <v>41705</v>
       </c>
       <c r="P86" t="n">
-        <v>42409</v>
+        <v>42398</v>
       </c>
     </row>
     <row r="87">
@@ -9086,37 +9129,37 @@
         <v>101</v>
       </c>
       <c r="B87" t="n">
-        <v>25114</v>
+        <v>25113</v>
       </c>
       <c r="C87" t="n">
-        <v>7612</v>
+        <v>7613</v>
       </c>
       <c r="D87" t="n">
-        <v>9037</v>
+        <v>9040</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="n">
-        <v>2858</v>
+        <v>2866</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>4944</v>
+        <v>4941</v>
       </c>
       <c r="L87" t="n">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="n">
         <v>413</v>
       </c>
       <c r="O87" t="n">
-        <v>41763</v>
+        <v>41766</v>
       </c>
       <c r="P87" t="n">
-        <v>42176</v>
+        <v>42179</v>
       </c>
     </row>
     <row r="88">
@@ -9124,37 +9167,37 @@
         <v>102</v>
       </c>
       <c r="B88" t="n">
-        <v>25123</v>
+        <v>25128</v>
       </c>
       <c r="C88" t="n">
-        <v>7703</v>
+        <v>7706</v>
       </c>
       <c r="D88" t="n">
-        <v>9680</v>
+        <v>9694</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88" t="n">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="n">
-        <v>5196</v>
+        <v>5208</v>
       </c>
       <c r="L88" t="n">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="n">
         <v>474</v>
       </c>
       <c r="O88" t="n">
-        <v>42506</v>
+        <v>42528</v>
       </c>
       <c r="P88" t="n">
-        <v>42979</v>
+        <v>43001</v>
       </c>
     </row>
     <row r="89">
@@ -9162,37 +9205,37 @@
         <v>103</v>
       </c>
       <c r="B89" t="n">
-        <v>25512</v>
+        <v>25507</v>
       </c>
       <c r="C89" t="n">
-        <v>7866</v>
+        <v>7864</v>
       </c>
       <c r="D89" t="n">
-        <v>9479</v>
+        <v>9466</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89" t="n">
-        <v>3056</v>
+        <v>3047</v>
       </c>
       <c r="J89"/>
       <c r="K89" t="n">
-        <v>5177</v>
+        <v>5170</v>
       </c>
       <c r="L89" t="n">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="M89"/>
       <c r="N89" t="n">
         <v>2605</v>
       </c>
       <c r="O89" t="n">
-        <v>42857</v>
+        <v>42838</v>
       </c>
       <c r="P89" t="n">
-        <v>45463</v>
+        <v>45443</v>
       </c>
     </row>
     <row r="90">
@@ -9203,34 +9246,34 @@
         <v>25753</v>
       </c>
       <c r="C90" t="n">
-        <v>7859</v>
+        <v>7856</v>
       </c>
       <c r="D90" t="n">
-        <v>9457</v>
+        <v>9448</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="n">
-        <v>2401</v>
+        <v>2398</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="n">
-        <v>5253</v>
+        <v>5247</v>
       </c>
       <c r="L90" t="n">
-        <v>1804</v>
+        <v>1803</v>
       </c>
       <c r="M90"/>
       <c r="N90" t="n">
         <v>-527</v>
       </c>
       <c r="O90" t="n">
-        <v>43069</v>
+        <v>43056</v>
       </c>
       <c r="P90" t="n">
-        <v>42542</v>
+        <v>42529</v>
       </c>
     </row>
     <row r="91">
@@ -9238,10 +9281,10 @@
         <v>105</v>
       </c>
       <c r="B91" t="n">
-        <v>25608</v>
+        <v>25611</v>
       </c>
       <c r="C91" t="n">
-        <v>7899</v>
+        <v>7898</v>
       </c>
       <c r="D91" t="n">
         <v>9945</v>
@@ -9251,24 +9294,24 @@
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91" t="n">
-        <v>2945</v>
+        <v>2956</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="n">
-        <v>5286</v>
+        <v>5277</v>
       </c>
       <c r="L91" t="n">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="M91"/>
       <c r="N91" t="n">
         <v>1622</v>
       </c>
       <c r="O91" t="n">
-        <v>43452</v>
+        <v>43453</v>
       </c>
       <c r="P91" t="n">
-        <v>45074</v>
+        <v>45075</v>
       </c>
     </row>
     <row r="92">
@@ -9276,37 +9319,37 @@
         <v>106</v>
       </c>
       <c r="B92" t="n">
-        <v>25911</v>
+        <v>25917</v>
       </c>
       <c r="C92" t="n">
-        <v>8027</v>
+        <v>8036</v>
       </c>
       <c r="D92" t="n">
-        <v>9624</v>
+        <v>9661</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="n">
-        <v>2415</v>
+        <v>2418</v>
       </c>
       <c r="J92"/>
       <c r="K92" t="n">
-        <v>5466</v>
+        <v>5501</v>
       </c>
       <c r="L92" t="n">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="M92"/>
       <c r="N92" t="n">
         <v>2557</v>
       </c>
       <c r="O92" t="n">
-        <v>43562</v>
+        <v>43614</v>
       </c>
       <c r="P92" t="n">
-        <v>46119</v>
+        <v>46171</v>
       </c>
     </row>
     <row r="93">
@@ -9314,37 +9357,37 @@
         <v>107</v>
       </c>
       <c r="B93" t="n">
-        <v>26038</v>
+        <v>26030</v>
       </c>
       <c r="C93" t="n">
-        <v>8163</v>
+        <v>8160</v>
       </c>
       <c r="D93" t="n">
-        <v>10216</v>
+        <v>10176</v>
       </c>
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93" t="n">
-        <v>2574</v>
+        <v>2554</v>
       </c>
       <c r="J93"/>
       <c r="K93" t="n">
-        <v>5963</v>
+        <v>5939</v>
       </c>
       <c r="L93" t="n">
-        <v>1679</v>
+        <v>1683</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
         <v>40</v>
       </c>
       <c r="O93" t="n">
-        <v>44417</v>
+        <v>44366</v>
       </c>
       <c r="P93" t="n">
-        <v>44457</v>
+        <v>44406</v>
       </c>
     </row>
     <row r="94">
@@ -9352,37 +9395,37 @@
         <v>108</v>
       </c>
       <c r="B94" t="n">
-        <v>26690</v>
+        <v>26679</v>
       </c>
       <c r="C94" t="n">
-        <v>8153</v>
+        <v>8145</v>
       </c>
       <c r="D94" t="n">
-        <v>10539</v>
+        <v>10522</v>
       </c>
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94" t="n">
-        <v>3116</v>
+        <v>3114</v>
       </c>
       <c r="J94"/>
       <c r="K94" t="n">
-        <v>5891</v>
+        <v>5876</v>
       </c>
       <c r="L94" t="n">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="M94"/>
       <c r="N94" t="n">
         <v>2053</v>
       </c>
       <c r="O94" t="n">
-        <v>45382</v>
+        <v>45346</v>
       </c>
       <c r="P94" t="n">
-        <v>47435</v>
+        <v>47399</v>
       </c>
     </row>
     <row r="95">
@@ -9390,13 +9433,13 @@
         <v>109</v>
       </c>
       <c r="B95" t="n">
-        <v>26989</v>
+        <v>27013</v>
       </c>
       <c r="C95" t="n">
-        <v>8389</v>
+        <v>8382</v>
       </c>
       <c r="D95" t="n">
-        <v>10644</v>
+        <v>10646</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
@@ -9405,7 +9448,7 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" t="n">
-        <v>6189</v>
+        <v>6169</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -9413,10 +9456,10 @@
         <v>109</v>
       </c>
       <c r="O95" t="n">
-        <v>46023</v>
+        <v>46040</v>
       </c>
       <c r="P95" t="n">
-        <v>46132</v>
+        <v>46150</v>
       </c>
     </row>
     <row r="96">
@@ -9424,37 +9467,37 @@
         <v>110</v>
       </c>
       <c r="B96" t="n">
-        <v>26895</v>
+        <v>26901</v>
       </c>
       <c r="C96" t="n">
-        <v>8545</v>
+        <v>8573</v>
       </c>
       <c r="D96" t="n">
-        <v>10169</v>
+        <v>10271</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="n">
-        <v>2333</v>
+        <v>2357</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="n">
-        <v>6112</v>
+        <v>6190</v>
       </c>
       <c r="L96" t="n">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="M96"/>
       <c r="N96" t="n">
         <v>40</v>
       </c>
       <c r="O96" t="n">
-        <v>45610</v>
+        <v>45745</v>
       </c>
       <c r="P96" t="n">
-        <v>45650</v>
+        <v>45784</v>
       </c>
     </row>
     <row r="97">
@@ -9462,13 +9505,13 @@
         <v>111</v>
       </c>
       <c r="B97" t="n">
-        <v>26770</v>
+        <v>26752</v>
       </c>
       <c r="C97" t="n">
-        <v>8425</v>
+        <v>8415</v>
       </c>
       <c r="D97" t="n">
-        <v>10211</v>
+        <v>10102</v>
       </c>
       <c r="E97"/>
       <c r="F97"/>
@@ -9477,7 +9520,7 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" t="n">
-        <v>6130</v>
+        <v>6082</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -9485,10 +9528,10 @@
         <v>-1295</v>
       </c>
       <c r="O97" t="n">
-        <v>45406</v>
+        <v>45268</v>
       </c>
       <c r="P97" t="n">
-        <v>44111</v>
+        <v>43973</v>
       </c>
     </row>
     <row r="98">
@@ -9496,37 +9539,37 @@
         <v>112</v>
       </c>
       <c r="B98" t="n">
-        <v>27875</v>
+        <v>27839</v>
       </c>
       <c r="C98" t="n">
-        <v>8902</v>
+        <v>8891</v>
       </c>
       <c r="D98" t="n">
-        <v>9609</v>
+        <v>9601</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="n">
-        <v>2352</v>
+        <v>2374</v>
       </c>
       <c r="J98"/>
       <c r="K98" t="n">
-        <v>6144</v>
+        <v>6114</v>
       </c>
       <c r="L98" t="n">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="M98"/>
       <c r="N98" t="n">
         <v>3031</v>
       </c>
       <c r="O98" t="n">
-        <v>46386</v>
+        <v>46331</v>
       </c>
       <c r="P98" t="n">
-        <v>49417</v>
+        <v>49363</v>
       </c>
     </row>
     <row r="99">
@@ -9534,13 +9577,13 @@
         <v>113</v>
       </c>
       <c r="B99" t="n">
-        <v>28016</v>
+        <v>28087</v>
       </c>
       <c r="C99" t="n">
-        <v>8948</v>
+        <v>8927</v>
       </c>
       <c r="D99" t="n">
-        <v>9388</v>
+        <v>9385</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
@@ -9549,7 +9592,7 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" t="n">
-        <v>6321</v>
+        <v>6308</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -9557,10 +9600,10 @@
         <v>-361</v>
       </c>
       <c r="O99" t="n">
-        <v>46353</v>
+        <v>46399</v>
       </c>
       <c r="P99" t="n">
-        <v>45991</v>
+        <v>46037</v>
       </c>
     </row>
     <row r="100">
@@ -9568,13 +9611,13 @@
         <v>114</v>
       </c>
       <c r="B100" t="n">
-        <v>27597</v>
+        <v>27605</v>
       </c>
       <c r="C100" t="n">
-        <v>9079</v>
+        <v>9133</v>
       </c>
       <c r="D100" t="n">
-        <v>10154</v>
+        <v>10318</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
@@ -9583,7 +9626,7 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="n">
-        <v>6663</v>
+        <v>6795</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -9591,10 +9634,10 @@
         <v>1311</v>
       </c>
       <c r="O100" t="n">
-        <v>46830</v>
+        <v>47056</v>
       </c>
       <c r="P100" t="n">
-        <v>48142</v>
+        <v>48368</v>
       </c>
     </row>
     <row r="101">
@@ -9602,13 +9645,13 @@
         <v>115</v>
       </c>
       <c r="B101" t="n">
-        <v>27437</v>
+        <v>27399</v>
       </c>
       <c r="C101" t="n">
-        <v>8964</v>
+        <v>8947</v>
       </c>
       <c r="D101" t="n">
-        <v>9748</v>
+        <v>9549</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
@@ -9617,7 +9660,7 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101" t="n">
-        <v>6541</v>
+        <v>6455</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -9625,10 +9668,10 @@
         <v>-56</v>
       </c>
       <c r="O101" t="n">
-        <v>46149</v>
+        <v>45895</v>
       </c>
       <c r="P101" t="n">
-        <v>46093</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="102">
@@ -9636,13 +9679,13 @@
         <v>116</v>
       </c>
       <c r="B102" t="n">
-        <v>26524</v>
+        <v>26451</v>
       </c>
       <c r="C102" t="n">
-        <v>9071</v>
+        <v>9055</v>
       </c>
       <c r="D102" t="n">
-        <v>9832</v>
+        <v>9833</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -9651,7 +9694,7 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102" t="n">
-        <v>6521</v>
+        <v>6479</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -9659,10 +9702,10 @@
         <v>2207</v>
       </c>
       <c r="O102" t="n">
-        <v>45427</v>
+        <v>45339</v>
       </c>
       <c r="P102" t="n">
-        <v>47634</v>
+        <v>47546</v>
       </c>
     </row>
     <row r="103">
@@ -9670,13 +9713,13 @@
         <v>117</v>
       </c>
       <c r="B103" t="n">
-        <v>22577</v>
+        <v>22688</v>
       </c>
       <c r="C103" t="n">
-        <v>10178</v>
+        <v>10142</v>
       </c>
       <c r="D103" t="n">
-        <v>7840</v>
+        <v>7863</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
@@ -9685,7 +9728,7 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="n">
-        <v>4612</v>
+        <v>4610</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -9693,10 +9736,10 @@
         <v>1872</v>
       </c>
       <c r="O103" t="n">
-        <v>40595</v>
+        <v>40693</v>
       </c>
       <c r="P103" t="n">
-        <v>42467</v>
+        <v>42564</v>
       </c>
     </row>
     <row r="104">
@@ -9704,37 +9747,37 @@
         <v>118</v>
       </c>
       <c r="B104" t="n">
-        <v>25305</v>
+        <v>25324</v>
       </c>
       <c r="C104" t="n">
-        <v>10084</v>
+        <v>10167</v>
       </c>
       <c r="D104" t="n">
-        <v>10001</v>
+        <v>10232</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="n">
-        <v>2344</v>
+        <v>2415</v>
       </c>
       <c r="J104"/>
       <c r="K104" t="n">
-        <v>6166</v>
+        <v>6328</v>
       </c>
       <c r="L104" t="n">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="M104"/>
       <c r="N104" t="n">
         <v>569</v>
       </c>
       <c r="O104" t="n">
-        <v>45390</v>
+        <v>45723</v>
       </c>
       <c r="P104" t="n">
-        <v>45959</v>
+        <v>46292</v>
       </c>
     </row>
     <row r="105">
@@ -9742,13 +9785,13 @@
         <v>119</v>
       </c>
       <c r="B105" t="n">
-        <v>24960</v>
+        <v>24895</v>
       </c>
       <c r="C105" t="n">
-        <v>10468</v>
+        <v>10441</v>
       </c>
       <c r="D105" t="n">
-        <v>9774</v>
+        <v>9474</v>
       </c>
       <c r="E105"/>
       <c r="F105"/>
@@ -9757,7 +9800,7 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105" t="n">
-        <v>6886</v>
+        <v>6741</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
@@ -9765,10 +9808,10 @@
         <v>281</v>
       </c>
       <c r="O105" t="n">
-        <v>45202</v>
+        <v>44811</v>
       </c>
       <c r="P105" t="n">
-        <v>45483</v>
+        <v>45091</v>
       </c>
     </row>
     <row r="106">
@@ -9776,37 +9819,37 @@
         <v>120</v>
       </c>
       <c r="B106" t="n">
-        <v>23564</v>
+        <v>23481</v>
       </c>
       <c r="C106" t="n">
-        <v>10304</v>
+        <v>10409</v>
       </c>
       <c r="D106" t="n">
-        <v>9116</v>
+        <v>9091</v>
       </c>
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="n">
-        <v>2900</v>
+        <v>3001</v>
       </c>
       <c r="J106"/>
       <c r="K106" t="n">
-        <v>4792</v>
+        <v>4746</v>
       </c>
       <c r="L106" t="n">
-        <v>1424</v>
+        <v>1344</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
-        <v>1524</v>
+        <v>1719</v>
       </c>
       <c r="O106" t="n">
-        <v>42984</v>
+        <v>42981</v>
       </c>
       <c r="P106" t="n">
-        <v>44507</v>
+        <v>44700</v>
       </c>
     </row>
     <row r="107">
@@ -9814,37 +9857,37 @@
         <v>121</v>
       </c>
       <c r="B107" t="n">
-        <v>26979</v>
+        <v>27119</v>
       </c>
       <c r="C107" t="n">
-        <v>10360</v>
+        <v>10483</v>
       </c>
       <c r="D107" t="n">
-        <v>9678</v>
+        <v>9696</v>
       </c>
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="n">
-        <v>2478</v>
+        <v>2544</v>
       </c>
       <c r="J107"/>
       <c r="K107" t="n">
-        <v>5706</v>
+        <v>5727</v>
       </c>
       <c r="L107" t="n">
-        <v>1495</v>
+        <v>1424</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="n">
-        <v>1163</v>
+        <v>906</v>
       </c>
       <c r="O107" t="n">
-        <v>47017</v>
+        <v>47297</v>
       </c>
       <c r="P107" t="n">
-        <v>48180</v>
+        <v>48203</v>
       </c>
     </row>
     <row r="108">
@@ -9852,13 +9895,13 @@
         <v>122</v>
       </c>
       <c r="B108" t="n">
-        <v>27104</v>
+        <v>27212</v>
       </c>
       <c r="C108" t="n">
-        <v>10443</v>
+        <v>10474</v>
       </c>
       <c r="D108" t="n">
-        <v>10128</v>
+        <v>10715</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
@@ -9867,18 +9910,52 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="n">
-        <v>5821</v>
+        <v>6080</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="O108" t="n">
-        <v>47675</v>
+        <v>48401</v>
       </c>
       <c r="P108" t="n">
-        <v>49330</v>
+        <v>50057</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" t="n">
+        <v>27134</v>
+      </c>
+      <c r="C109" t="n">
+        <v>10566</v>
+      </c>
+      <c r="D109" t="n">
+        <v>11353</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>6639</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>-785</v>
+      </c>
+      <c r="O109" t="n">
+        <v>49054</v>
+      </c>
+      <c r="P109" t="n">
+        <v>48269</v>
       </c>
     </row>
   </sheetData>
@@ -14836,16 +14913,16 @@
         <v>120</v>
       </c>
       <c r="B106" t="n">
-        <v>22941</v>
+        <v>22946</v>
       </c>
       <c r="C106" t="n">
-        <v>10218</v>
+        <v>10341</v>
       </c>
       <c r="D106" t="n">
-        <v>9096</v>
+        <v>9127</v>
       </c>
       <c r="E106" t="n">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="F106" t="n">
         <v>507</v>
@@ -14857,26 +14934,26 @@
         <v>327</v>
       </c>
       <c r="I106" t="n">
-        <v>3049</v>
+        <v>3072</v>
       </c>
       <c r="J106" t="n">
         <v>2371</v>
       </c>
       <c r="K106"/>
       <c r="L106" t="n">
-        <v>1513</v>
+        <v>1521</v>
       </c>
       <c r="M106" t="n">
         <v>6518</v>
       </c>
       <c r="N106" t="n">
-        <v>1460</v>
+        <v>1661</v>
       </c>
       <c r="O106" t="n">
-        <v>42255</v>
+        <v>42414</v>
       </c>
       <c r="P106" t="n">
-        <v>43715</v>
+        <v>44074</v>
       </c>
     </row>
     <row r="107">
@@ -14884,19 +14961,19 @@
         <v>121</v>
       </c>
       <c r="B107" t="n">
-        <v>26714</v>
+        <v>26687</v>
       </c>
       <c r="C107" t="n">
-        <v>10321</v>
+        <v>10672</v>
       </c>
       <c r="D107" t="n">
-        <v>9273</v>
+        <v>9342</v>
       </c>
       <c r="E107" t="n">
-        <v>1209</v>
+        <v>1217</v>
       </c>
       <c r="F107" t="n">
-        <v>733</v>
+        <v>759</v>
       </c>
       <c r="G107" t="n">
         <v>3358</v>
@@ -14905,26 +14982,26 @@
         <v>355</v>
       </c>
       <c r="I107" t="n">
-        <v>2141</v>
+        <v>2159</v>
       </c>
       <c r="J107" t="n">
         <v>3029</v>
       </c>
       <c r="K107"/>
       <c r="L107" t="n">
-        <v>1477</v>
+        <v>1494</v>
       </c>
       <c r="M107" t="n">
         <v>6929</v>
       </c>
       <c r="N107" t="n">
-        <v>1236</v>
+        <v>973</v>
       </c>
       <c r="O107" t="n">
-        <v>46308</v>
+        <v>46701</v>
       </c>
       <c r="P107" t="n">
-        <v>47544</v>
+        <v>47673</v>
       </c>
     </row>
     <row r="108">
@@ -14932,25 +15009,25 @@
         <v>122</v>
       </c>
       <c r="B108" t="n">
-        <v>28856</v>
+        <v>28853</v>
       </c>
       <c r="C108" t="n">
-        <v>10977</v>
+        <v>11115</v>
       </c>
       <c r="D108" t="n">
-        <v>11341</v>
+        <v>11679</v>
       </c>
       <c r="E108" t="n">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F108" t="n">
         <v>792</v>
       </c>
       <c r="G108" t="n">
-        <v>4847</v>
+        <v>4937</v>
       </c>
       <c r="H108" t="n">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I108"/>
       <c r="J108"/>
@@ -14958,13 +15035,53 @@
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>1439</v>
+        <v>1453</v>
       </c>
       <c r="O108" t="n">
-        <v>51174</v>
+        <v>51647</v>
       </c>
       <c r="P108" t="n">
-        <v>52613</v>
+        <v>53100</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" t="n">
+        <v>31045</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11282</v>
+      </c>
+      <c r="D109" t="n">
+        <v>13891</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1561</v>
+      </c>
+      <c r="F109" t="n">
+        <v>923</v>
+      </c>
+      <c r="G109" t="n">
+        <v>6247</v>
+      </c>
+      <c r="H109" t="n">
+        <v>407</v>
+      </c>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109"/>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>-960</v>
+      </c>
+      <c r="O109" t="n">
+        <v>56218</v>
+      </c>
+      <c r="P109" t="n">
+        <v>55258</v>
       </c>
     </row>
   </sheetData>
@@ -15053,20 +15170,20 @@
       </c>
       <c r="J2"/>
       <c r="K2" t="n">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="L2" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
         <v>235</v>
       </c>
       <c r="O2" t="n">
-        <v>11569</v>
+        <v>11568</v>
       </c>
       <c r="P2" t="n">
-        <v>11804</v>
+        <v>11803</v>
       </c>
     </row>
     <row r="3">
@@ -15080,7 +15197,7 @@
         <v>2237</v>
       </c>
       <c r="D3" t="n">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -15104,7 +15221,7 @@
         <v>11686</v>
       </c>
       <c r="P3" t="n">
-        <v>11737</v>
+        <v>11736</v>
       </c>
     </row>
     <row r="4">
@@ -15129,7 +15246,7 @@
       </c>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="L4" t="n">
         <v>216</v>
@@ -15167,10 +15284,10 @@
       </c>
       <c r="J5"/>
       <c r="K5" t="n">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="L5" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="n">
@@ -15194,7 +15311,7 @@
         <v>2357</v>
       </c>
       <c r="D6" t="n">
-        <v>2723</v>
+        <v>2722</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -15205,17 +15322,17 @@
       </c>
       <c r="J6"/>
       <c r="K6" t="n">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="L6" t="n">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
         <v>174</v>
       </c>
       <c r="O6" t="n">
-        <v>12856</v>
+        <v>12855</v>
       </c>
       <c r="P6" t="n">
         <v>13029</v>
@@ -15243,7 +15360,7 @@
       </c>
       <c r="J7"/>
       <c r="K7" t="n">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="L7" t="n">
         <v>218</v>
@@ -15281,10 +15398,10 @@
       </c>
       <c r="J8"/>
       <c r="K8" t="n">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="L8" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
@@ -15308,7 +15425,7 @@
         <v>2318</v>
       </c>
       <c r="D9" t="n">
-        <v>3060</v>
+        <v>3061</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -15319,10 +15436,10 @@
       </c>
       <c r="J9"/>
       <c r="K9" t="n">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="L9" t="n">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -15332,7 +15449,7 @@
         <v>13758</v>
       </c>
       <c r="P9" t="n">
-        <v>13879</v>
+        <v>13880</v>
       </c>
     </row>
     <row r="10">
@@ -15346,7 +15463,7 @@
         <v>2489</v>
       </c>
       <c r="D10" t="n">
-        <v>3190</v>
+        <v>3186</v>
       </c>
       <c r="E10"/>
       <c r="F10"/>
@@ -15357,20 +15474,20 @@
       </c>
       <c r="J10"/>
       <c r="K10" t="n">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="L10" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
         <v>252</v>
       </c>
       <c r="O10" t="n">
-        <v>14135</v>
+        <v>14131</v>
       </c>
       <c r="P10" t="n">
-        <v>14387</v>
+        <v>14383</v>
       </c>
     </row>
     <row r="11">
@@ -15384,7 +15501,7 @@
         <v>2660</v>
       </c>
       <c r="D11" t="n">
-        <v>3481</v>
+        <v>3484</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -15395,7 +15512,7 @@
       </c>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>2048</v>
+        <v>2052</v>
       </c>
       <c r="L11" t="n">
         <v>276</v>
@@ -15405,10 +15522,10 @@
         <v>193</v>
       </c>
       <c r="O11" t="n">
-        <v>14825</v>
+        <v>14828</v>
       </c>
       <c r="P11" t="n">
-        <v>15018</v>
+        <v>15022</v>
       </c>
     </row>
     <row r="12">
@@ -15422,7 +15539,7 @@
         <v>2634</v>
       </c>
       <c r="D12" t="n">
-        <v>3403</v>
+        <v>3404</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -15433,7 +15550,7 @@
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="L12" t="n">
         <v>275</v>
@@ -15446,7 +15563,7 @@
         <v>14981</v>
       </c>
       <c r="P12" t="n">
-        <v>15192</v>
+        <v>15193</v>
       </c>
     </row>
     <row r="13">
@@ -15460,7 +15577,7 @@
         <v>2724</v>
       </c>
       <c r="D13" t="n">
-        <v>4215</v>
+        <v>4216</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -15471,17 +15588,17 @@
       </c>
       <c r="J13"/>
       <c r="K13" t="n">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="L13" t="n">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
         <v>229</v>
       </c>
       <c r="O13" t="n">
-        <v>16332</v>
+        <v>16333</v>
       </c>
       <c r="P13" t="n">
         <v>16562</v>
@@ -15498,7 +15615,7 @@
         <v>2762</v>
       </c>
       <c r="D14" t="n">
-        <v>4075</v>
+        <v>4073</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -15509,20 +15626,20 @@
       </c>
       <c r="J14"/>
       <c r="K14" t="n">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="L14" t="n">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
         <v>237</v>
       </c>
       <c r="O14" t="n">
-        <v>16412</v>
+        <v>16411</v>
       </c>
       <c r="P14" t="n">
-        <v>16649</v>
+        <v>16647</v>
       </c>
     </row>
     <row r="15">
@@ -15536,7 +15653,7 @@
         <v>2837</v>
       </c>
       <c r="D15" t="n">
-        <v>4323</v>
+        <v>4324</v>
       </c>
       <c r="E15"/>
       <c r="F15"/>
@@ -15547,17 +15664,17 @@
       </c>
       <c r="J15"/>
       <c r="K15" t="n">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="L15" t="n">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
         <v>248</v>
       </c>
       <c r="O15" t="n">
-        <v>17051</v>
+        <v>17052</v>
       </c>
       <c r="P15" t="n">
         <v>17299</v>
@@ -15588,17 +15705,17 @@
         <v>2747</v>
       </c>
       <c r="L16" t="n">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
         <v>588</v>
       </c>
       <c r="O16" t="n">
-        <v>17525</v>
+        <v>17526</v>
       </c>
       <c r="P16" t="n">
-        <v>18113</v>
+        <v>18114</v>
       </c>
     </row>
     <row r="17">
@@ -15623,20 +15740,20 @@
       </c>
       <c r="J17"/>
       <c r="K17" t="n">
-        <v>2943</v>
+        <v>2941</v>
       </c>
       <c r="L17" t="n">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
         <v>188</v>
       </c>
       <c r="O17" t="n">
-        <v>18316</v>
+        <v>18317</v>
       </c>
       <c r="P17" t="n">
-        <v>18504</v>
+        <v>18505</v>
       </c>
     </row>
     <row r="18">
@@ -15650,7 +15767,7 @@
         <v>3101</v>
       </c>
       <c r="D18" t="n">
-        <v>4839</v>
+        <v>4836</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -15664,17 +15781,17 @@
         <v>3110</v>
       </c>
       <c r="L18" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
         <v>240</v>
       </c>
       <c r="O18" t="n">
-        <v>18751</v>
+        <v>18748</v>
       </c>
       <c r="P18" t="n">
-        <v>18991</v>
+        <v>18989</v>
       </c>
     </row>
     <row r="19">
@@ -15688,7 +15805,7 @@
         <v>3172</v>
       </c>
       <c r="D19" t="n">
-        <v>5248</v>
+        <v>5249</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -15699,20 +15816,20 @@
       </c>
       <c r="J19"/>
       <c r="K19" t="n">
-        <v>3155</v>
+        <v>3156</v>
       </c>
       <c r="L19" t="n">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
         <v>-148</v>
       </c>
       <c r="O19" t="n">
-        <v>19219</v>
+        <v>19221</v>
       </c>
       <c r="P19" t="n">
-        <v>19071</v>
+        <v>19073</v>
       </c>
     </row>
     <row r="20">
@@ -15740,7 +15857,7 @@
         <v>3459</v>
       </c>
       <c r="L20" t="n">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
@@ -15750,7 +15867,7 @@
         <v>20954</v>
       </c>
       <c r="P20" t="n">
-        <v>21023</v>
+        <v>21024</v>
       </c>
     </row>
     <row r="21">
@@ -15764,7 +15881,7 @@
         <v>3354</v>
       </c>
       <c r="D21" t="n">
-        <v>5863</v>
+        <v>5864</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -15775,20 +15892,20 @@
       </c>
       <c r="J21"/>
       <c r="K21" t="n">
-        <v>3563</v>
+        <v>3561</v>
       </c>
       <c r="L21" t="n">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="n">
         <v>226</v>
       </c>
       <c r="O21" t="n">
-        <v>20955</v>
+        <v>20956</v>
       </c>
       <c r="P21" t="n">
-        <v>21181</v>
+        <v>21182</v>
       </c>
     </row>
     <row r="22">
@@ -15802,7 +15919,7 @@
         <v>3433</v>
       </c>
       <c r="D22" t="n">
-        <v>6085</v>
+        <v>6082</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -15813,20 +15930,20 @@
       </c>
       <c r="J22"/>
       <c r="K22" t="n">
-        <v>3717</v>
+        <v>3718</v>
       </c>
       <c r="L22" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
         <v>97</v>
       </c>
       <c r="O22" t="n">
-        <v>22043</v>
+        <v>22040</v>
       </c>
       <c r="P22" t="n">
-        <v>22139</v>
+        <v>22137</v>
       </c>
     </row>
     <row r="23">
@@ -15840,7 +15957,7 @@
         <v>3590</v>
       </c>
       <c r="D23" t="n">
-        <v>6291</v>
+        <v>6293</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
@@ -15851,7 +15968,7 @@
       </c>
       <c r="J23"/>
       <c r="K23" t="n">
-        <v>3994</v>
+        <v>3997</v>
       </c>
       <c r="L23" t="n">
         <v>381</v>
@@ -15861,10 +15978,10 @@
         <v>24</v>
       </c>
       <c r="O23" t="n">
-        <v>22779</v>
+        <v>22782</v>
       </c>
       <c r="P23" t="n">
-        <v>22803</v>
+        <v>22806</v>
       </c>
     </row>
     <row r="24">
@@ -15878,7 +15995,7 @@
         <v>3697</v>
       </c>
       <c r="D24" t="n">
-        <v>6339</v>
+        <v>6338</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
@@ -15889,20 +16006,20 @@
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>4039</v>
+        <v>4037</v>
       </c>
       <c r="L24" t="n">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M24"/>
       <c r="N24" t="n">
         <v>325</v>
       </c>
       <c r="O24" t="n">
-        <v>23255</v>
+        <v>23253</v>
       </c>
       <c r="P24" t="n">
-        <v>23579</v>
+        <v>23578</v>
       </c>
     </row>
     <row r="25">
@@ -15916,7 +16033,7 @@
         <v>3995</v>
       </c>
       <c r="D25" t="n">
-        <v>6468</v>
+        <v>6470</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -15927,20 +16044,20 @@
       </c>
       <c r="J25"/>
       <c r="K25" t="n">
-        <v>4141</v>
+        <v>4140</v>
       </c>
       <c r="L25" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="O25" t="n">
-        <v>23987</v>
+        <v>23988</v>
       </c>
       <c r="P25" t="n">
-        <v>24359</v>
+        <v>24361</v>
       </c>
     </row>
     <row r="26">
@@ -15954,7 +16071,7 @@
         <v>4040</v>
       </c>
       <c r="D26" t="n">
-        <v>7044</v>
+        <v>7039</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -15965,20 +16082,20 @@
       </c>
       <c r="J26"/>
       <c r="K26" t="n">
-        <v>4374</v>
+        <v>4375</v>
       </c>
       <c r="L26" t="n">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
         <v>299</v>
       </c>
       <c r="O26" t="n">
-        <v>24864</v>
+        <v>24860</v>
       </c>
       <c r="P26" t="n">
-        <v>25163</v>
+        <v>25158</v>
       </c>
     </row>
     <row r="27">
@@ -15992,7 +16109,7 @@
         <v>4215</v>
       </c>
       <c r="D27" t="n">
-        <v>7105</v>
+        <v>7109</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -16003,7 +16120,7 @@
       </c>
       <c r="J27"/>
       <c r="K27" t="n">
-        <v>4624</v>
+        <v>4628</v>
       </c>
       <c r="L27" t="n">
         <v>643</v>
@@ -16013,10 +16130,10 @@
         <v>-366</v>
       </c>
       <c r="O27" t="n">
-        <v>25448</v>
+        <v>25452</v>
       </c>
       <c r="P27" t="n">
-        <v>25082</v>
+        <v>25086</v>
       </c>
     </row>
     <row r="28">
@@ -16030,7 +16147,7 @@
         <v>4372</v>
       </c>
       <c r="D28" t="n">
-        <v>6535</v>
+        <v>6533</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -16041,7 +16158,7 @@
       </c>
       <c r="J28"/>
       <c r="K28" t="n">
-        <v>4513</v>
+        <v>4510</v>
       </c>
       <c r="L28" t="n">
         <v>446</v>
@@ -16051,10 +16168,10 @@
         <v>462</v>
       </c>
       <c r="O28" t="n">
-        <v>25275</v>
+        <v>25272</v>
       </c>
       <c r="P28" t="n">
-        <v>25737</v>
+        <v>25734</v>
       </c>
     </row>
     <row r="29">
@@ -16065,10 +16182,10 @@
         <v>14829</v>
       </c>
       <c r="C29" t="n">
-        <v>4668</v>
+        <v>4667</v>
       </c>
       <c r="D29" t="n">
-        <v>6632</v>
+        <v>6634</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -16079,20 +16196,20 @@
       </c>
       <c r="J29"/>
       <c r="K29" t="n">
-        <v>4622</v>
+        <v>4621</v>
       </c>
       <c r="L29" t="n">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
         <v>-21</v>
       </c>
       <c r="O29" t="n">
-        <v>26128</v>
+        <v>26130</v>
       </c>
       <c r="P29" t="n">
-        <v>26108</v>
+        <v>26110</v>
       </c>
     </row>
     <row r="30">
@@ -16106,7 +16223,7 @@
         <v>4764</v>
       </c>
       <c r="D30" t="n">
-        <v>7169</v>
+        <v>7159</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -16117,20 +16234,20 @@
       </c>
       <c r="J30"/>
       <c r="K30" t="n">
-        <v>4773</v>
+        <v>4767</v>
       </c>
       <c r="L30" t="n">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
         <v>-106</v>
       </c>
       <c r="O30" t="n">
-        <v>27037</v>
+        <v>27027</v>
       </c>
       <c r="P30" t="n">
-        <v>26931</v>
+        <v>26920</v>
       </c>
     </row>
     <row r="31">
@@ -16144,7 +16261,7 @@
         <v>4880</v>
       </c>
       <c r="D31" t="n">
-        <v>7028</v>
+        <v>7040</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -16155,20 +16272,20 @@
       </c>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>4860</v>
+        <v>4871</v>
       </c>
       <c r="L31" t="n">
         <v>374</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O31" t="n">
-        <v>27281</v>
+        <v>27293</v>
       </c>
       <c r="P31" t="n">
-        <v>27566</v>
+        <v>27578</v>
       </c>
     </row>
     <row r="32">
@@ -16182,7 +16299,7 @@
         <v>4954</v>
       </c>
       <c r="D32" t="n">
-        <v>7531</v>
+        <v>7526</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
@@ -16193,20 +16310,20 @@
       </c>
       <c r="J32"/>
       <c r="K32" t="n">
-        <v>5200</v>
+        <v>5194</v>
       </c>
       <c r="L32" t="n">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
         <v>328</v>
       </c>
       <c r="O32" t="n">
-        <v>28364</v>
+        <v>28359</v>
       </c>
       <c r="P32" t="n">
-        <v>28692</v>
+        <v>28687</v>
       </c>
     </row>
     <row r="33">
@@ -16220,7 +16337,7 @@
         <v>5036</v>
       </c>
       <c r="D33" t="n">
-        <v>7251</v>
+        <v>7254</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -16234,17 +16351,17 @@
         <v>5260</v>
       </c>
       <c r="L33" t="n">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
         <v>134</v>
       </c>
       <c r="O33" t="n">
-        <v>28380</v>
+        <v>28383</v>
       </c>
       <c r="P33" t="n">
-        <v>28514</v>
+        <v>28518</v>
       </c>
     </row>
     <row r="34">
@@ -16255,10 +16372,10 @@
         <v>16450</v>
       </c>
       <c r="C34" t="n">
-        <v>5242</v>
+        <v>5243</v>
       </c>
       <c r="D34" t="n">
-        <v>7329</v>
+        <v>7328</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -16269,20 +16386,20 @@
       </c>
       <c r="J34"/>
       <c r="K34" t="n">
-        <v>5418</v>
+        <v>5422</v>
       </c>
       <c r="L34" t="n">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
         <v>269</v>
       </c>
       <c r="O34" t="n">
-        <v>29021</v>
+        <v>29020</v>
       </c>
       <c r="P34" t="n">
-        <v>29290</v>
+        <v>29289</v>
       </c>
     </row>
     <row r="35">
@@ -16296,7 +16413,7 @@
         <v>5247</v>
       </c>
       <c r="D35" t="n">
-        <v>7736</v>
+        <v>7739</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -16307,20 +16424,20 @@
       </c>
       <c r="J35"/>
       <c r="K35" t="n">
-        <v>5582</v>
+        <v>5585</v>
       </c>
       <c r="L35" t="n">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
         <v>421</v>
       </c>
       <c r="O35" t="n">
-        <v>29644</v>
+        <v>29647</v>
       </c>
       <c r="P35" t="n">
-        <v>30065</v>
+        <v>30068</v>
       </c>
     </row>
     <row r="36">
@@ -16334,7 +16451,7 @@
         <v>5376</v>
       </c>
       <c r="D36" t="n">
-        <v>8245</v>
+        <v>8237</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
@@ -16345,7 +16462,7 @@
       </c>
       <c r="J36"/>
       <c r="K36" t="n">
-        <v>6061</v>
+        <v>6052</v>
       </c>
       <c r="L36" t="n">
         <v>339</v>
@@ -16355,10 +16472,10 @@
         <v>37</v>
       </c>
       <c r="O36" t="n">
-        <v>30319</v>
+        <v>30311</v>
       </c>
       <c r="P36" t="n">
-        <v>30356</v>
+        <v>30348</v>
       </c>
     </row>
     <row r="37">
@@ -16372,7 +16489,7 @@
         <v>5443</v>
       </c>
       <c r="D37" t="n">
-        <v>9329</v>
+        <v>9337</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -16383,20 +16500,20 @@
       </c>
       <c r="J37"/>
       <c r="K37" t="n">
-        <v>6492</v>
+        <v>6494</v>
       </c>
       <c r="L37" t="n">
-        <v>862</v>
+        <v>868</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
         <v>495</v>
       </c>
       <c r="O37" t="n">
-        <v>31750</v>
+        <v>31757</v>
       </c>
       <c r="P37" t="n">
-        <v>32245</v>
+        <v>32252</v>
       </c>
     </row>
     <row r="38">
@@ -16410,7 +16527,7 @@
         <v>5196</v>
       </c>
       <c r="D38" t="n">
-        <v>8692</v>
+        <v>8693</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -16421,20 +16538,20 @@
       </c>
       <c r="J38"/>
       <c r="K38" t="n">
-        <v>6580</v>
+        <v>6586</v>
       </c>
       <c r="L38" t="n">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M38"/>
       <c r="N38" t="n">
         <v>51</v>
       </c>
       <c r="O38" t="n">
-        <v>31291</v>
+        <v>31292</v>
       </c>
       <c r="P38" t="n">
-        <v>31342</v>
+        <v>31343</v>
       </c>
     </row>
     <row r="39">
@@ -16448,7 +16565,7 @@
         <v>5757</v>
       </c>
       <c r="D39" t="n">
-        <v>9451</v>
+        <v>9453</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -16459,7 +16576,7 @@
       </c>
       <c r="J39"/>
       <c r="K39" t="n">
-        <v>7092</v>
+        <v>7093</v>
       </c>
       <c r="L39" t="n">
         <v>544</v>
@@ -16469,10 +16586,10 @@
         <v>194</v>
       </c>
       <c r="O39" t="n">
-        <v>32753</v>
+        <v>32755</v>
       </c>
       <c r="P39" t="n">
-        <v>32948</v>
+        <v>32949</v>
       </c>
     </row>
     <row r="40">
@@ -16483,10 +16600,10 @@
         <v>17730</v>
       </c>
       <c r="C40" t="n">
-        <v>5918</v>
+        <v>5917</v>
       </c>
       <c r="D40" t="n">
-        <v>9717</v>
+        <v>9709</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -16497,20 +16614,20 @@
       </c>
       <c r="J40"/>
       <c r="K40" t="n">
-        <v>7052</v>
+        <v>7043</v>
       </c>
       <c r="L40" t="n">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="n">
         <v>-19</v>
       </c>
       <c r="O40" t="n">
-        <v>33365</v>
+        <v>33356</v>
       </c>
       <c r="P40" t="n">
-        <v>33345</v>
+        <v>33337</v>
       </c>
     </row>
     <row r="41">
@@ -16521,10 +16638,10 @@
         <v>18025</v>
       </c>
       <c r="C41" t="n">
-        <v>6041</v>
+        <v>6040</v>
       </c>
       <c r="D41" t="n">
-        <v>10011</v>
+        <v>10018</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -16535,20 +16652,20 @@
       </c>
       <c r="J41"/>
       <c r="K41" t="n">
-        <v>7565</v>
+        <v>7567</v>
       </c>
       <c r="L41" t="n">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="M41"/>
       <c r="N41" t="n">
         <v>204</v>
       </c>
       <c r="O41" t="n">
-        <v>34077</v>
+        <v>34083</v>
       </c>
       <c r="P41" t="n">
-        <v>34281</v>
+        <v>34287</v>
       </c>
     </row>
     <row r="42">
@@ -16562,7 +16679,7 @@
         <v>5959</v>
       </c>
       <c r="D42" t="n">
-        <v>10559</v>
+        <v>10545</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
@@ -16573,20 +16690,20 @@
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
-        <v>7785</v>
+        <v>7778</v>
       </c>
       <c r="L42" t="n">
-        <v>807</v>
+        <v>799</v>
       </c>
       <c r="M42"/>
       <c r="N42" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O42" t="n">
-        <v>34902</v>
+        <v>34887</v>
       </c>
       <c r="P42" t="n">
-        <v>35213</v>
+        <v>35199</v>
       </c>
     </row>
     <row r="43">
@@ -16600,18 +16717,18 @@
         <v>6057</v>
       </c>
       <c r="D43" t="n">
-        <v>11365</v>
+        <v>11380</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>8266</v>
+        <v>8281</v>
       </c>
       <c r="L43" t="n">
         <v>777</v>
@@ -16621,10 +16738,10 @@
         <v>110</v>
       </c>
       <c r="O43" t="n">
-        <v>36390</v>
+        <v>36406</v>
       </c>
       <c r="P43" t="n">
-        <v>36500</v>
+        <v>36515</v>
       </c>
     </row>
     <row r="44">
@@ -16638,7 +16755,7 @@
         <v>6253</v>
       </c>
       <c r="D44" t="n">
-        <v>11240</v>
+        <v>11231</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -16649,20 +16766,20 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>8585</v>
+        <v>8575</v>
       </c>
       <c r="L44" t="n">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="M44"/>
       <c r="N44" t="n">
-        <v>-362</v>
+        <v>-363</v>
       </c>
       <c r="O44" t="n">
-        <v>37200</v>
+        <v>37191</v>
       </c>
       <c r="P44" t="n">
-        <v>36837</v>
+        <v>36828</v>
       </c>
     </row>
     <row r="45">
@@ -16676,7 +16793,7 @@
         <v>6346</v>
       </c>
       <c r="D45" t="n">
-        <v>11956</v>
+        <v>11965</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -16687,20 +16804,20 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>8875</v>
+        <v>8879</v>
       </c>
       <c r="L45" t="n">
-        <v>791</v>
+        <v>797</v>
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="O45" t="n">
-        <v>38245</v>
+        <v>38254</v>
       </c>
       <c r="P45" t="n">
-        <v>38996</v>
+        <v>39006</v>
       </c>
     </row>
     <row r="46">
@@ -16714,7 +16831,7 @@
         <v>6480</v>
       </c>
       <c r="D46" t="n">
-        <v>12281</v>
+        <v>12283</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -16725,20 +16842,20 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>9265</v>
+        <v>9274</v>
       </c>
       <c r="L46" t="n">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="M46"/>
       <c r="N46" t="n">
         <v>593</v>
       </c>
       <c r="O46" t="n">
-        <v>38920</v>
+        <v>38922</v>
       </c>
       <c r="P46" t="n">
-        <v>39513</v>
+        <v>39515</v>
       </c>
     </row>
     <row r="47">
@@ -16752,7 +16869,7 @@
         <v>6675</v>
       </c>
       <c r="D47" t="n">
-        <v>12039</v>
+        <v>12035</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -16763,7 +16880,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>9382</v>
+        <v>9378</v>
       </c>
       <c r="L47" t="n">
         <v>759</v>
@@ -16773,10 +16890,10 @@
         <v>980</v>
       </c>
       <c r="O47" t="n">
-        <v>39646</v>
+        <v>39643</v>
       </c>
       <c r="P47" t="n">
-        <v>40627</v>
+        <v>40623</v>
       </c>
     </row>
     <row r="48">
@@ -16790,7 +16907,7 @@
         <v>6824</v>
       </c>
       <c r="D48" t="n">
-        <v>12859</v>
+        <v>12853</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
@@ -16801,20 +16918,20 @@
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>9793</v>
+        <v>9786</v>
       </c>
       <c r="L48" t="n">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="n">
         <v>-342</v>
       </c>
       <c r="O48" t="n">
-        <v>40953</v>
+        <v>40947</v>
       </c>
       <c r="P48" t="n">
-        <v>40611</v>
+        <v>40604</v>
       </c>
     </row>
     <row r="49">
@@ -16828,7 +16945,7 @@
         <v>6978</v>
       </c>
       <c r="D49" t="n">
-        <v>12931</v>
+        <v>12939</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -16839,20 +16956,20 @@
       </c>
       <c r="J49"/>
       <c r="K49" t="n">
-        <v>9676</v>
+        <v>9679</v>
       </c>
       <c r="L49" t="n">
-        <v>852</v>
+        <v>858</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O49" t="n">
-        <v>41595</v>
+        <v>41604</v>
       </c>
       <c r="P49" t="n">
-        <v>41998</v>
+        <v>42008</v>
       </c>
     </row>
     <row r="50">
@@ -16866,7 +16983,7 @@
         <v>7272</v>
       </c>
       <c r="D50" t="n">
-        <v>13473</v>
+        <v>13477</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
@@ -16877,20 +16994,20 @@
       </c>
       <c r="J50"/>
       <c r="K50" t="n">
-        <v>9953</v>
+        <v>9962</v>
       </c>
       <c r="L50" t="n">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>-13</v>
+        <v>-14</v>
       </c>
       <c r="O50" t="n">
-        <v>43278</v>
+        <v>43282</v>
       </c>
       <c r="P50" t="n">
-        <v>43265</v>
+        <v>43268</v>
       </c>
     </row>
     <row r="51">
@@ -16904,7 +17021,7 @@
         <v>7405</v>
       </c>
       <c r="D51" t="n">
-        <v>12573</v>
+        <v>12568</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
@@ -16915,7 +17032,7 @@
       </c>
       <c r="J51"/>
       <c r="K51" t="n">
-        <v>9408</v>
+        <v>9403</v>
       </c>
       <c r="L51" t="n">
         <v>581</v>
@@ -16925,10 +17042,10 @@
         <v>182</v>
       </c>
       <c r="O51" t="n">
-        <v>42983</v>
+        <v>42978</v>
       </c>
       <c r="P51" t="n">
-        <v>43164</v>
+        <v>43160</v>
       </c>
     </row>
     <row r="52">
@@ -16942,7 +17059,7 @@
         <v>7523</v>
       </c>
       <c r="D52" t="n">
-        <v>11611</v>
+        <v>11609</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -16953,20 +17070,20 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="n">
-        <v>8800</v>
+        <v>8797</v>
       </c>
       <c r="L52" t="n">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>-395</v>
+        <v>-396</v>
       </c>
       <c r="O52" t="n">
-        <v>42483</v>
+        <v>42482</v>
       </c>
       <c r="P52" t="n">
-        <v>42088</v>
+        <v>42085</v>
       </c>
     </row>
     <row r="53">
@@ -16980,7 +17097,7 @@
         <v>7565</v>
       </c>
       <c r="D53" t="n">
-        <v>11732</v>
+        <v>11740</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
@@ -16991,20 +17108,20 @@
       </c>
       <c r="J53"/>
       <c r="K53" t="n">
-        <v>8502</v>
+        <v>8503</v>
       </c>
       <c r="L53" t="n">
-        <v>948</v>
+        <v>955</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="O53" t="n">
-        <v>42890</v>
+        <v>42898</v>
       </c>
       <c r="P53" t="n">
-        <v>44158</v>
+        <v>44168</v>
       </c>
     </row>
     <row r="54">
@@ -17012,37 +17129,37 @@
         <v>68</v>
       </c>
       <c r="B54" t="n">
-        <v>23982</v>
+        <v>23981</v>
       </c>
       <c r="C54" t="n">
         <v>7665</v>
       </c>
       <c r="D54" t="n">
-        <v>12144</v>
+        <v>12127</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="n">
-        <v>2688</v>
+        <v>2689</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="n">
-        <v>8624</v>
+        <v>8616</v>
       </c>
       <c r="L54" t="n">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="M54"/>
       <c r="N54" t="n">
-        <v>-443</v>
+        <v>-445</v>
       </c>
       <c r="O54" t="n">
-        <v>43790</v>
+        <v>43773</v>
       </c>
       <c r="P54" t="n">
-        <v>43346</v>
+        <v>43328</v>
       </c>
     </row>
     <row r="55">
@@ -17056,7 +17173,7 @@
         <v>7825</v>
       </c>
       <c r="D55" t="n">
-        <v>10314</v>
+        <v>10323</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
@@ -17067,20 +17184,20 @@
       </c>
       <c r="J55"/>
       <c r="K55" t="n">
-        <v>7713</v>
+        <v>7722</v>
       </c>
       <c r="L55" t="n">
         <v>878</v>
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O55" t="n">
-        <v>41697</v>
+        <v>41706</v>
       </c>
       <c r="P55" t="n">
-        <v>42038</v>
+        <v>42048</v>
       </c>
     </row>
     <row r="56">
@@ -17094,7 +17211,7 @@
         <v>7772</v>
       </c>
       <c r="D56" t="n">
-        <v>10228</v>
+        <v>10229</v>
       </c>
       <c r="E56"/>
       <c r="F56"/>
@@ -17105,20 +17222,20 @@
       </c>
       <c r="J56"/>
       <c r="K56" t="n">
-        <v>7065</v>
+        <v>7064</v>
       </c>
       <c r="L56" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="M56"/>
       <c r="N56" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="O56" t="n">
-        <v>41569</v>
+        <v>41570</v>
       </c>
       <c r="P56" t="n">
-        <v>41588</v>
+        <v>41587</v>
       </c>
     </row>
     <row r="57">
@@ -17132,7 +17249,7 @@
         <v>7899</v>
       </c>
       <c r="D57" t="n">
-        <v>8235</v>
+        <v>8240</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
@@ -17143,20 +17260,20 @@
       </c>
       <c r="J57"/>
       <c r="K57" t="n">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="L57" t="n">
-        <v>832</v>
+        <v>838</v>
       </c>
       <c r="M57"/>
       <c r="N57" t="n">
-        <v>-241</v>
+        <v>-240</v>
       </c>
       <c r="O57" t="n">
-        <v>39423</v>
+        <v>39429</v>
       </c>
       <c r="P57" t="n">
-        <v>39181</v>
+        <v>39189</v>
       </c>
     </row>
     <row r="58">
@@ -17170,31 +17287,31 @@
         <v>7858</v>
       </c>
       <c r="D58" t="n">
-        <v>7468</v>
+        <v>7464</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58" t="n">
-        <v>1512</v>
+        <v>1513</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="n">
-        <v>5223</v>
+        <v>5225</v>
       </c>
       <c r="L58" t="n">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="M58"/>
       <c r="N58" t="n">
-        <v>-616</v>
+        <v>-614</v>
       </c>
       <c r="O58" t="n">
-        <v>36856</v>
+        <v>36852</v>
       </c>
       <c r="P58" t="n">
-        <v>36240</v>
+        <v>36238</v>
       </c>
     </row>
     <row r="59">
@@ -17208,7 +17325,7 @@
         <v>7359</v>
       </c>
       <c r="D59" t="n">
-        <v>6988</v>
+        <v>6987</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -17219,20 +17336,20 @@
       </c>
       <c r="J59"/>
       <c r="K59" t="n">
-        <v>4533</v>
+        <v>4532</v>
       </c>
       <c r="L59" t="n">
         <v>813</v>
       </c>
       <c r="M59"/>
       <c r="N59" t="n">
-        <v>-166</v>
+        <v>-167</v>
       </c>
       <c r="O59" t="n">
-        <v>35492</v>
+        <v>35491</v>
       </c>
       <c r="P59" t="n">
-        <v>35326</v>
+        <v>35324</v>
       </c>
     </row>
     <row r="60">
@@ -17246,31 +17363,31 @@
         <v>7318</v>
       </c>
       <c r="D60" t="n">
-        <v>6401</v>
+        <v>6402</v>
       </c>
       <c r="E60"/>
       <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
       <c r="I60" t="n">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="J60"/>
       <c r="K60" t="n">
         <v>3943</v>
       </c>
       <c r="L60" t="n">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="M60"/>
       <c r="N60" t="n">
-        <v>-448</v>
+        <v>-452</v>
       </c>
       <c r="O60" t="n">
         <v>34528</v>
       </c>
       <c r="P60" t="n">
-        <v>34079</v>
+        <v>34076</v>
       </c>
     </row>
     <row r="61">
@@ -17284,7 +17401,7 @@
         <v>7402</v>
       </c>
       <c r="D61" t="n">
-        <v>5657</v>
+        <v>5662</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -17298,17 +17415,17 @@
         <v>3441</v>
       </c>
       <c r="L61" t="n">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
-        <v>-237</v>
+        <v>-236</v>
       </c>
       <c r="O61" t="n">
-        <v>33749</v>
+        <v>33754</v>
       </c>
       <c r="P61" t="n">
-        <v>33512</v>
+        <v>33518</v>
       </c>
     </row>
     <row r="62">
@@ -17322,28 +17439,28 @@
         <v>6806</v>
       </c>
       <c r="D62" t="n">
-        <v>5193</v>
+        <v>5188</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="n">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="n">
-        <v>3090</v>
+        <v>3091</v>
       </c>
       <c r="L62" t="n">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="M62"/>
       <c r="N62" t="n">
-        <v>-827</v>
+        <v>-822</v>
       </c>
       <c r="O62" t="n">
-        <v>32823</v>
+        <v>32818</v>
       </c>
       <c r="P62" t="n">
         <v>31996</v>
@@ -17371,20 +17488,20 @@
       </c>
       <c r="J63"/>
       <c r="K63" t="n">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="L63" t="n">
         <v>941</v>
       </c>
       <c r="M63"/>
       <c r="N63" t="n">
-        <v>-366</v>
+        <v>-369</v>
       </c>
       <c r="O63" t="n">
         <v>33134</v>
       </c>
       <c r="P63" t="n">
-        <v>32768</v>
+        <v>32765</v>
       </c>
     </row>
     <row r="64">
@@ -17398,31 +17515,31 @@
         <v>6545</v>
       </c>
       <c r="D64" t="n">
-        <v>4902</v>
+        <v>4903</v>
       </c>
       <c r="E64"/>
       <c r="F64"/>
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="n">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="n">
         <v>2691</v>
       </c>
       <c r="L64" t="n">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="M64"/>
       <c r="N64" t="n">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="O64" t="n">
-        <v>32423</v>
+        <v>32424</v>
       </c>
       <c r="P64" t="n">
-        <v>32680</v>
+        <v>32677</v>
       </c>
     </row>
     <row r="65">
@@ -17436,7 +17553,7 @@
         <v>6836</v>
       </c>
       <c r="D65" t="n">
-        <v>4785</v>
+        <v>4791</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
@@ -17447,20 +17564,20 @@
       </c>
       <c r="J65"/>
       <c r="K65" t="n">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="L65" t="n">
-        <v>910</v>
+        <v>916</v>
       </c>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="O65" t="n">
-        <v>32482</v>
+        <v>32487</v>
       </c>
       <c r="P65" t="n">
-        <v>32895</v>
+        <v>32901</v>
       </c>
     </row>
     <row r="66">
@@ -17474,31 +17591,31 @@
         <v>7056</v>
       </c>
       <c r="D66" t="n">
-        <v>4434</v>
+        <v>4429</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="n">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="n">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="L66" t="n">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="O66" t="n">
-        <v>32407</v>
+        <v>32402</v>
       </c>
       <c r="P66" t="n">
-        <v>32646</v>
+        <v>32647</v>
       </c>
     </row>
     <row r="67">
@@ -17526,17 +17643,17 @@
         <v>2406</v>
       </c>
       <c r="L67" t="n">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>-71</v>
+        <v>-72</v>
       </c>
       <c r="O67" t="n">
-        <v>32600</v>
+        <v>32601</v>
       </c>
       <c r="P67" t="n">
-        <v>32529</v>
+        <v>32528</v>
       </c>
     </row>
     <row r="68">
@@ -17544,7 +17661,7 @@
         <v>82</v>
       </c>
       <c r="B68" t="n">
-        <v>20679</v>
+        <v>20680</v>
       </c>
       <c r="C68" t="n">
         <v>7168</v>
@@ -17557,24 +17674,24 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="n">
         <v>2301</v>
       </c>
       <c r="L68" t="n">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="n">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="O68" t="n">
         <v>31737</v>
       </c>
       <c r="P68" t="n">
-        <v>32671</v>
+        <v>32666</v>
       </c>
     </row>
     <row r="69">
@@ -17582,37 +17699,37 @@
         <v>83</v>
       </c>
       <c r="B69" t="n">
-        <v>20807</v>
+        <v>20806</v>
       </c>
       <c r="C69" t="n">
         <v>6916</v>
       </c>
       <c r="D69" t="n">
-        <v>4278</v>
+        <v>4283</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="n">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="n">
         <v>2153</v>
       </c>
       <c r="L69" t="n">
-        <v>855</v>
+        <v>861</v>
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>-230</v>
+        <v>-228</v>
       </c>
       <c r="O69" t="n">
-        <v>32000</v>
+        <v>32005</v>
       </c>
       <c r="P69" t="n">
-        <v>31770</v>
+        <v>31776</v>
       </c>
     </row>
     <row r="70">
@@ -17626,31 +17743,31 @@
         <v>6856</v>
       </c>
       <c r="D70" t="n">
-        <v>5020</v>
+        <v>5013</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="n">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="n">
         <v>2276</v>
       </c>
       <c r="L70" t="n">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="O70" t="n">
-        <v>32612</v>
+        <v>32605</v>
       </c>
       <c r="P70" t="n">
-        <v>32894</v>
+        <v>32889</v>
       </c>
     </row>
     <row r="71">
@@ -17664,31 +17781,31 @@
         <v>6801</v>
       </c>
       <c r="D71" t="n">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="n">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="n">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="L71" t="n">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>-153</v>
+        <v>-150</v>
       </c>
       <c r="O71" t="n">
-        <v>32119</v>
+        <v>32121</v>
       </c>
       <c r="P71" t="n">
-        <v>31966</v>
+        <v>31971</v>
       </c>
     </row>
     <row r="72">
@@ -17696,37 +17813,37 @@
         <v>86</v>
       </c>
       <c r="B72" t="n">
-        <v>21254</v>
+        <v>21255</v>
       </c>
       <c r="C72" t="n">
         <v>6796</v>
       </c>
       <c r="D72" t="n">
-        <v>4759</v>
+        <v>4762</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="n">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="n">
         <v>2357</v>
       </c>
       <c r="L72" t="n">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="O72" t="n">
-        <v>32809</v>
+        <v>32813</v>
       </c>
       <c r="P72" t="n">
-        <v>33472</v>
+        <v>33469</v>
       </c>
     </row>
     <row r="73">
@@ -17734,7 +17851,7 @@
         <v>87</v>
       </c>
       <c r="B73" t="n">
-        <v>21112</v>
+        <v>21110</v>
       </c>
       <c r="C73" t="n">
         <v>6672</v>
@@ -17747,24 +17864,24 @@
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="n">
-        <v>1451</v>
+        <v>1446</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="n">
-        <v>2473</v>
+        <v>2472</v>
       </c>
       <c r="L73" t="n">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="O73" t="n">
-        <v>32518</v>
+        <v>32517</v>
       </c>
       <c r="P73" t="n">
-        <v>32927</v>
+        <v>32929</v>
       </c>
     </row>
     <row r="74">
@@ -17772,37 +17889,37 @@
         <v>88</v>
       </c>
       <c r="B74" t="n">
-        <v>21136</v>
+        <v>21135</v>
       </c>
       <c r="C74" t="n">
         <v>6314</v>
       </c>
       <c r="D74" t="n">
-        <v>5101</v>
+        <v>5093</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="n">
-        <v>1822</v>
+        <v>1824</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="n">
-        <v>2410</v>
+        <v>2408</v>
       </c>
       <c r="L74" t="n">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="O74" t="n">
-        <v>32550</v>
+        <v>32542</v>
       </c>
       <c r="P74" t="n">
-        <v>32665</v>
+        <v>32654</v>
       </c>
     </row>
     <row r="75">
@@ -17810,37 +17927,37 @@
         <v>89</v>
       </c>
       <c r="B75" t="n">
-        <v>21124</v>
+        <v>21126</v>
       </c>
       <c r="C75" t="n">
-        <v>6546</v>
+        <v>6545</v>
       </c>
       <c r="D75" t="n">
-        <v>5169</v>
+        <v>5174</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="n">
-        <v>2572</v>
+        <v>2574</v>
       </c>
       <c r="L75" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="O75" t="n">
-        <v>32839</v>
+        <v>32845</v>
       </c>
       <c r="P75" t="n">
-        <v>33121</v>
+        <v>33138</v>
       </c>
     </row>
     <row r="76">
@@ -17848,37 +17965,37 @@
         <v>90</v>
       </c>
       <c r="B76" t="n">
-        <v>21397</v>
+        <v>21399</v>
       </c>
       <c r="C76" t="n">
         <v>6671</v>
       </c>
       <c r="D76" t="n">
-        <v>5945</v>
+        <v>5951</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="n">
-        <v>2761</v>
+        <v>2762</v>
       </c>
       <c r="L76" t="n">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="n">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="O76" t="n">
-        <v>34013</v>
+        <v>34022</v>
       </c>
       <c r="P76" t="n">
-        <v>34309</v>
+        <v>34301</v>
       </c>
     </row>
     <row r="77">
@@ -17886,37 +18003,37 @@
         <v>91</v>
       </c>
       <c r="B77" t="n">
-        <v>21454</v>
+        <v>21451</v>
       </c>
       <c r="C77" t="n">
         <v>6651</v>
       </c>
       <c r="D77" t="n">
-        <v>6231</v>
+        <v>6227</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="n">
-        <v>2314</v>
+        <v>2304</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="n">
-        <v>2966</v>
+        <v>2965</v>
       </c>
       <c r="L77" t="n">
-        <v>951</v>
+        <v>958</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="n">
-        <v>-351</v>
+        <v>-337</v>
       </c>
       <c r="O77" t="n">
-        <v>34336</v>
+        <v>34329</v>
       </c>
       <c r="P77" t="n">
-        <v>33985</v>
+        <v>33992</v>
       </c>
     </row>
     <row r="78">
@@ -17924,13 +18041,13 @@
         <v>92</v>
       </c>
       <c r="B78" t="n">
-        <v>21551</v>
+        <v>21549</v>
       </c>
       <c r="C78" t="n">
         <v>6722</v>
       </c>
       <c r="D78" t="n">
-        <v>6082</v>
+        <v>6071</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
@@ -17941,20 +18058,20 @@
       </c>
       <c r="J78"/>
       <c r="K78" t="n">
-        <v>3022</v>
+        <v>3021</v>
       </c>
       <c r="L78" t="n">
-        <v>1074</v>
+        <v>1064</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="n">
-        <v>868</v>
+        <v>856</v>
       </c>
       <c r="O78" t="n">
-        <v>34354</v>
+        <v>34342</v>
       </c>
       <c r="P78" t="n">
-        <v>35222</v>
+        <v>35198</v>
       </c>
     </row>
     <row r="79">
@@ -17962,37 +18079,37 @@
         <v>93</v>
       </c>
       <c r="B79" t="n">
-        <v>21918</v>
+        <v>21921</v>
       </c>
       <c r="C79" t="n">
         <v>6919</v>
       </c>
       <c r="D79" t="n">
-        <v>6276</v>
+        <v>6284</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="n">
-        <v>2044</v>
+        <v>2052</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="n">
-        <v>3161</v>
+        <v>3160</v>
       </c>
       <c r="L79" t="n">
         <v>1072</v>
       </c>
       <c r="M79"/>
       <c r="N79" t="n">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="O79" t="n">
-        <v>35113</v>
+        <v>35124</v>
       </c>
       <c r="P79" t="n">
-        <v>35150</v>
+        <v>35177</v>
       </c>
     </row>
     <row r="80">
@@ -18000,37 +18117,37 @@
         <v>94</v>
       </c>
       <c r="B80" t="n">
-        <v>22102</v>
+        <v>22106</v>
       </c>
       <c r="C80" t="n">
-        <v>6859</v>
+        <v>6860</v>
       </c>
       <c r="D80" t="n">
-        <v>6582</v>
+        <v>6590</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="n">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="n">
-        <v>3146</v>
+        <v>3149</v>
       </c>
       <c r="L80" t="n">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="M80"/>
       <c r="N80" t="n">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="O80" t="n">
-        <v>35543</v>
+        <v>35556</v>
       </c>
       <c r="P80" t="n">
-        <v>35826</v>
+        <v>35817</v>
       </c>
     </row>
     <row r="81">
@@ -18038,37 +18155,37 @@
         <v>95</v>
       </c>
       <c r="B81" t="n">
-        <v>22395</v>
+        <v>22389</v>
       </c>
       <c r="C81" t="n">
         <v>6831</v>
       </c>
       <c r="D81" t="n">
-        <v>6921</v>
+        <v>6912</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81" t="n">
-        <v>2714</v>
+        <v>2699</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="n">
-        <v>3196</v>
+        <v>3194</v>
       </c>
       <c r="L81" t="n">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="M81"/>
       <c r="N81" t="n">
-        <v>1942</v>
+        <v>1968</v>
       </c>
       <c r="O81" t="n">
-        <v>36148</v>
+        <v>36132</v>
       </c>
       <c r="P81" t="n">
-        <v>38090</v>
+        <v>38100</v>
       </c>
     </row>
     <row r="82">
@@ -18076,37 +18193,37 @@
         <v>96</v>
       </c>
       <c r="B82" t="n">
-        <v>22390</v>
+        <v>22388</v>
       </c>
       <c r="C82" t="n">
         <v>6947</v>
       </c>
       <c r="D82" t="n">
-        <v>7665</v>
+        <v>7648</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="n">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="n">
-        <v>3396</v>
+        <v>3394</v>
       </c>
       <c r="L82" t="n">
-        <v>1447</v>
+        <v>1433</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="n">
-        <v>288</v>
+        <v>264</v>
       </c>
       <c r="O82" t="n">
-        <v>37002</v>
+        <v>36983</v>
       </c>
       <c r="P82" t="n">
-        <v>37289</v>
+        <v>37247</v>
       </c>
     </row>
     <row r="83">
@@ -18114,37 +18231,37 @@
         <v>97</v>
       </c>
       <c r="B83" t="n">
-        <v>22689</v>
+        <v>22695</v>
       </c>
       <c r="C83" t="n">
-        <v>6947</v>
+        <v>6946</v>
       </c>
       <c r="D83" t="n">
-        <v>7579</v>
+        <v>7593</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>2676</v>
+        <v>2691</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="n">
-        <v>3472</v>
+        <v>3471</v>
       </c>
       <c r="L83" t="n">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="n">
-        <v>861</v>
+        <v>884</v>
       </c>
       <c r="O83" t="n">
-        <v>37215</v>
+        <v>37234</v>
       </c>
       <c r="P83" t="n">
-        <v>38076</v>
+        <v>38118</v>
       </c>
     </row>
     <row r="84">
@@ -18152,37 +18269,37 @@
         <v>98</v>
       </c>
       <c r="B84" t="n">
-        <v>23052</v>
+        <v>23060</v>
       </c>
       <c r="C84" t="n">
         <v>6926</v>
       </c>
       <c r="D84" t="n">
-        <v>7696</v>
+        <v>7706</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>2965</v>
+        <v>2967</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="n">
-        <v>3492</v>
+        <v>3497</v>
       </c>
       <c r="L84" t="n">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="M84"/>
       <c r="N84" t="n">
-        <v>2011</v>
+        <v>1982</v>
       </c>
       <c r="O84" t="n">
-        <v>37674</v>
+        <v>37692</v>
       </c>
       <c r="P84" t="n">
-        <v>39685</v>
+        <v>39674</v>
       </c>
     </row>
     <row r="85">
@@ -18190,37 +18307,37 @@
         <v>99</v>
       </c>
       <c r="B85" t="n">
-        <v>23217</v>
+        <v>23205</v>
       </c>
       <c r="C85" t="n">
-        <v>7145</v>
+        <v>7146</v>
       </c>
       <c r="D85" t="n">
-        <v>7013</v>
+        <v>7005</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>1984</v>
+        <v>1968</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="n">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="L85" t="n">
-        <v>1265</v>
+        <v>1274</v>
       </c>
       <c r="M85"/>
       <c r="N85" t="n">
-        <v>1436</v>
+        <v>1472</v>
       </c>
       <c r="O85" t="n">
-        <v>37375</v>
+        <v>37356</v>
       </c>
       <c r="P85" t="n">
-        <v>38811</v>
+        <v>38828</v>
       </c>
     </row>
     <row r="86">
@@ -18228,37 +18345,37 @@
         <v>100</v>
       </c>
       <c r="B86" t="n">
-        <v>24077</v>
+        <v>24072</v>
       </c>
       <c r="C86" t="n">
         <v>7236</v>
       </c>
       <c r="D86" t="n">
-        <v>7945</v>
+        <v>7921</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>3271</v>
+        <v>3267</v>
       </c>
       <c r="J86"/>
       <c r="K86" t="n">
-        <v>3608</v>
+        <v>3597</v>
       </c>
       <c r="L86" t="n">
-        <v>1066</v>
+        <v>1057</v>
       </c>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="O86" t="n">
-        <v>39258</v>
+        <v>39229</v>
       </c>
       <c r="P86" t="n">
-        <v>39616</v>
+        <v>39553</v>
       </c>
     </row>
     <row r="87">
@@ -18266,37 +18383,37 @@
         <v>101</v>
       </c>
       <c r="B87" t="n">
-        <v>23906</v>
+        <v>23917</v>
       </c>
       <c r="C87" t="n">
-        <v>7237</v>
+        <v>7235</v>
       </c>
       <c r="D87" t="n">
-        <v>8114</v>
+        <v>8137</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="n">
-        <v>2938</v>
+        <v>2958</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>4094</v>
+        <v>4096</v>
       </c>
       <c r="L87" t="n">
         <v>1083</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="O87" t="n">
-        <v>39257</v>
+        <v>39289</v>
       </c>
       <c r="P87" t="n">
-        <v>39606</v>
+        <v>39667</v>
       </c>
     </row>
     <row r="88">
@@ -18304,13 +18421,13 @@
         <v>102</v>
       </c>
       <c r="B88" t="n">
-        <v>23957</v>
+        <v>23967</v>
       </c>
       <c r="C88" t="n">
-        <v>7346</v>
+        <v>7347</v>
       </c>
       <c r="D88" t="n">
-        <v>8652</v>
+        <v>8667</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
@@ -18321,20 +18438,20 @@
       </c>
       <c r="J88"/>
       <c r="K88" t="n">
-        <v>4305</v>
+        <v>4318</v>
       </c>
       <c r="L88" t="n">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="O88" t="n">
-        <v>39955</v>
+        <v>39981</v>
       </c>
       <c r="P88" t="n">
-        <v>40115</v>
+        <v>40111</v>
       </c>
     </row>
     <row r="89">
@@ -18342,37 +18459,37 @@
         <v>103</v>
       </c>
       <c r="B89" t="n">
-        <v>24315</v>
+        <v>24298</v>
       </c>
       <c r="C89" t="n">
-        <v>7446</v>
+        <v>7450</v>
       </c>
       <c r="D89" t="n">
-        <v>8604</v>
+        <v>8590</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89" t="n">
-        <v>3130</v>
+        <v>3111</v>
       </c>
       <c r="J89"/>
       <c r="K89" t="n">
-        <v>4377</v>
+        <v>4375</v>
       </c>
       <c r="L89" t="n">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>3946</v>
+        <v>3982</v>
       </c>
       <c r="O89" t="n">
-        <v>40365</v>
+        <v>40338</v>
       </c>
       <c r="P89" t="n">
-        <v>44311</v>
+        <v>44319</v>
       </c>
     </row>
     <row r="90">
@@ -18380,37 +18497,37 @@
         <v>104</v>
       </c>
       <c r="B90" t="n">
-        <v>24600</v>
+        <v>24594</v>
       </c>
       <c r="C90" t="n">
-        <v>7539</v>
+        <v>7537</v>
       </c>
       <c r="D90" t="n">
-        <v>8598</v>
+        <v>8562</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="n">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="n">
-        <v>4551</v>
+        <v>4531</v>
       </c>
       <c r="L90" t="n">
-        <v>1650</v>
+        <v>1635</v>
       </c>
       <c r="M90"/>
       <c r="N90" t="n">
-        <v>-1086</v>
+        <v>-1126</v>
       </c>
       <c r="O90" t="n">
-        <v>40737</v>
+        <v>40693</v>
       </c>
       <c r="P90" t="n">
-        <v>39650</v>
+        <v>39567</v>
       </c>
     </row>
     <row r="91">
@@ -18418,37 +18535,37 @@
         <v>105</v>
       </c>
       <c r="B91" t="n">
-        <v>24608</v>
+        <v>24621</v>
       </c>
       <c r="C91" t="n">
-        <v>7664</v>
+        <v>7658</v>
       </c>
       <c r="D91" t="n">
-        <v>9332</v>
+        <v>9355</v>
       </c>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91" t="n">
-        <v>3170</v>
+        <v>3194</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="n">
-        <v>4593</v>
+        <v>4592</v>
       </c>
       <c r="L91" t="n">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="M91"/>
       <c r="N91" t="n">
-        <v>1873</v>
+        <v>1910</v>
       </c>
       <c r="O91" t="n">
-        <v>41605</v>
+        <v>41634</v>
       </c>
       <c r="P91" t="n">
-        <v>43478</v>
+        <v>43544</v>
       </c>
     </row>
     <row r="92">
@@ -18456,37 +18573,37 @@
         <v>106</v>
       </c>
       <c r="B92" t="n">
-        <v>24948</v>
+        <v>24962</v>
       </c>
       <c r="C92" t="n">
-        <v>7826</v>
+        <v>7828</v>
       </c>
       <c r="D92" t="n">
-        <v>8921</v>
+        <v>8953</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="n">
-        <v>2464</v>
+        <v>2461</v>
       </c>
       <c r="J92"/>
       <c r="K92" t="n">
-        <v>4850</v>
+        <v>4882</v>
       </c>
       <c r="L92" t="n">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="M92"/>
       <c r="N92" t="n">
-        <v>2638</v>
+        <v>2606</v>
       </c>
       <c r="O92" t="n">
-        <v>41696</v>
+        <v>41744</v>
       </c>
       <c r="P92" t="n">
-        <v>44334</v>
+        <v>44350</v>
       </c>
     </row>
     <row r="93">
@@ -18494,37 +18611,37 @@
         <v>107</v>
       </c>
       <c r="B93" t="n">
-        <v>25216</v>
+        <v>25201</v>
       </c>
       <c r="C93" t="n">
-        <v>7978</v>
+        <v>7987</v>
       </c>
       <c r="D93" t="n">
-        <v>9532</v>
+        <v>9509</v>
       </c>
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93" t="n">
-        <v>2581</v>
+        <v>2560</v>
       </c>
       <c r="J93"/>
       <c r="K93" t="n">
-        <v>5378</v>
+        <v>5365</v>
       </c>
       <c r="L93" t="n">
-        <v>1574</v>
+        <v>1585</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
-        <v>845</v>
+        <v>881</v>
       </c>
       <c r="O93" t="n">
-        <v>42727</v>
+        <v>42697</v>
       </c>
       <c r="P93" t="n">
-        <v>43572</v>
+        <v>43579</v>
       </c>
     </row>
     <row r="94">
@@ -18532,37 +18649,37 @@
         <v>108</v>
       </c>
       <c r="B94" t="n">
-        <v>25901</v>
+        <v>25885</v>
       </c>
       <c r="C94" t="n">
         <v>8080</v>
       </c>
       <c r="D94" t="n">
-        <v>9998</v>
+        <v>9935</v>
       </c>
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94" t="n">
-        <v>3161</v>
+        <v>3165</v>
       </c>
       <c r="J94"/>
       <c r="K94" t="n">
-        <v>5368</v>
+        <v>5314</v>
       </c>
       <c r="L94" t="n">
-        <v>1469</v>
+        <v>1456</v>
       </c>
       <c r="M94"/>
       <c r="N94" t="n">
-        <v>1781</v>
+        <v>1736</v>
       </c>
       <c r="O94" t="n">
-        <v>43979</v>
+        <v>43899</v>
       </c>
       <c r="P94" t="n">
-        <v>45760</v>
+        <v>45635</v>
       </c>
     </row>
     <row r="95">
@@ -18570,13 +18687,13 @@
         <v>109</v>
       </c>
       <c r="B95" t="n">
-        <v>26416</v>
+        <v>26427</v>
       </c>
       <c r="C95" t="n">
-        <v>8195</v>
+        <v>8178</v>
       </c>
       <c r="D95" t="n">
-        <v>10389</v>
+        <v>10433</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
@@ -18585,18 +18702,18 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" t="n">
-        <v>5735</v>
+        <v>5748</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95" t="n">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="O95" t="n">
-        <v>45001</v>
+        <v>45038</v>
       </c>
       <c r="P95" t="n">
-        <v>45086</v>
+        <v>45167</v>
       </c>
     </row>
     <row r="96">
@@ -18604,37 +18721,37 @@
         <v>110</v>
       </c>
       <c r="B96" t="n">
-        <v>26491</v>
+        <v>26519</v>
       </c>
       <c r="C96" t="n">
-        <v>8330</v>
+        <v>8335</v>
       </c>
       <c r="D96" t="n">
-        <v>9805</v>
+        <v>9879</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="n">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="n">
-        <v>5749</v>
+        <v>5820</v>
       </c>
       <c r="L96" t="n">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="M96"/>
       <c r="N96" t="n">
-        <v>-360</v>
+        <v>-395</v>
       </c>
       <c r="O96" t="n">
-        <v>44625</v>
+        <v>44733</v>
       </c>
       <c r="P96" t="n">
-        <v>44265</v>
+        <v>44338</v>
       </c>
     </row>
     <row r="97">
@@ -18642,13 +18759,13 @@
         <v>111</v>
       </c>
       <c r="B97" t="n">
-        <v>26409</v>
+        <v>26393</v>
       </c>
       <c r="C97" t="n">
-        <v>8155</v>
+        <v>8173</v>
       </c>
       <c r="D97" t="n">
-        <v>9829</v>
+        <v>9766</v>
       </c>
       <c r="E97"/>
       <c r="F97"/>
@@ -18657,18 +18774,18 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" t="n">
-        <v>5827</v>
+        <v>5799</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97" t="n">
-        <v>-490</v>
+        <v>-453</v>
       </c>
       <c r="O97" t="n">
-        <v>44393</v>
+        <v>44332</v>
       </c>
       <c r="P97" t="n">
-        <v>43903</v>
+        <v>43879</v>
       </c>
     </row>
     <row r="98">
@@ -18676,37 +18793,37 @@
         <v>112</v>
       </c>
       <c r="B98" t="n">
-        <v>27619</v>
+        <v>27598</v>
       </c>
       <c r="C98" t="n">
-        <v>8820</v>
+        <v>8821</v>
       </c>
       <c r="D98" t="n">
-        <v>9384</v>
+        <v>9304</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="n">
-        <v>2300</v>
+        <v>2320</v>
       </c>
       <c r="J98"/>
       <c r="K98" t="n">
-        <v>5980</v>
+        <v>5891</v>
       </c>
       <c r="L98" t="n">
-        <v>1104</v>
+        <v>1094</v>
       </c>
       <c r="M98"/>
       <c r="N98" t="n">
-        <v>2500</v>
+        <v>2449</v>
       </c>
       <c r="O98" t="n">
-        <v>45822</v>
+        <v>45724</v>
       </c>
       <c r="P98" t="n">
-        <v>48322</v>
+        <v>48173</v>
       </c>
     </row>
     <row r="99">
@@ -18714,13 +18831,13 @@
         <v>113</v>
       </c>
       <c r="B99" t="n">
-        <v>28024</v>
+        <v>28009</v>
       </c>
       <c r="C99" t="n">
-        <v>9007</v>
+        <v>8971</v>
       </c>
       <c r="D99" t="n">
-        <v>9347</v>
+        <v>9395</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
@@ -18729,18 +18846,18 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" t="n">
-        <v>6204</v>
+        <v>6232</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99" t="n">
-        <v>-388</v>
+        <v>-336</v>
       </c>
       <c r="O99" t="n">
-        <v>46377</v>
+        <v>46375</v>
       </c>
       <c r="P99" t="n">
-        <v>45989</v>
+        <v>46039</v>
       </c>
     </row>
     <row r="100">
@@ -18748,13 +18865,13 @@
         <v>114</v>
       </c>
       <c r="B100" t="n">
-        <v>27715</v>
+        <v>27778</v>
       </c>
       <c r="C100" t="n">
-        <v>9006</v>
+        <v>9019</v>
       </c>
       <c r="D100" t="n">
-        <v>10143</v>
+        <v>10284</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
@@ -18763,18 +18880,18 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="n">
-        <v>6629</v>
+        <v>6754</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100" t="n">
-        <v>1012</v>
+        <v>975</v>
       </c>
       <c r="O100" t="n">
-        <v>46864</v>
+        <v>47080</v>
       </c>
       <c r="P100" t="n">
-        <v>47876</v>
+        <v>48055</v>
       </c>
     </row>
     <row r="101">
@@ -18782,13 +18899,13 @@
         <v>115</v>
       </c>
       <c r="B101" t="n">
-        <v>27531</v>
+        <v>27515</v>
       </c>
       <c r="C101" t="n">
-        <v>9037</v>
+        <v>9062</v>
       </c>
       <c r="D101" t="n">
-        <v>9896</v>
+        <v>9773</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
@@ -18797,18 +18914,18 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101" t="n">
-        <v>6781</v>
+        <v>6727</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101" t="n">
-        <v>838</v>
+        <v>875</v>
       </c>
       <c r="O101" t="n">
-        <v>46464</v>
+        <v>46350</v>
       </c>
       <c r="P101" t="n">
-        <v>47302</v>
+        <v>47225</v>
       </c>
     </row>
     <row r="102">
@@ -18816,13 +18933,13 @@
         <v>116</v>
       </c>
       <c r="B102" t="n">
-        <v>26726</v>
+        <v>26694</v>
       </c>
       <c r="C102" t="n">
-        <v>9354</v>
+        <v>9360</v>
       </c>
       <c r="D102" t="n">
-        <v>10253</v>
+        <v>10122</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -18831,18 +18948,18 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102" t="n">
-        <v>6931</v>
+        <v>6777</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102" t="n">
-        <v>1545</v>
+        <v>1488</v>
       </c>
       <c r="O102" t="n">
-        <v>46334</v>
+        <v>46176</v>
       </c>
       <c r="P102" t="n">
-        <v>47879</v>
+        <v>47664</v>
       </c>
     </row>
     <row r="103">
@@ -18850,13 +18967,13 @@
         <v>117</v>
       </c>
       <c r="B103" t="n">
-        <v>22600</v>
+        <v>22565</v>
       </c>
       <c r="C103" t="n">
-        <v>10301</v>
+        <v>10242</v>
       </c>
       <c r="D103" t="n">
-        <v>7841</v>
+        <v>7912</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
@@ -18865,18 +18982,18 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="n">
-        <v>4500</v>
+        <v>4543</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103" t="n">
-        <v>1745</v>
+        <v>1804</v>
       </c>
       <c r="O103" t="n">
-        <v>40742</v>
+        <v>40718</v>
       </c>
       <c r="P103" t="n">
-        <v>42487</v>
+        <v>42522</v>
       </c>
     </row>
     <row r="104">
@@ -18884,37 +19001,37 @@
         <v>118</v>
       </c>
       <c r="B104" t="n">
-        <v>25497</v>
+        <v>25608</v>
       </c>
       <c r="C104" t="n">
-        <v>10082</v>
+        <v>10104</v>
       </c>
       <c r="D104" t="n">
-        <v>10149</v>
+        <v>10336</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="n">
-        <v>2247</v>
+        <v>2274</v>
       </c>
       <c r="J104"/>
       <c r="K104" t="n">
-        <v>6402</v>
+        <v>6560</v>
       </c>
       <c r="L104" t="n">
-        <v>1500</v>
+        <v>1502</v>
       </c>
       <c r="M104"/>
       <c r="N104" t="n">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="O104" t="n">
-        <v>45728</v>
+        <v>46048</v>
       </c>
       <c r="P104" t="n">
-        <v>45887</v>
+        <v>46168</v>
       </c>
     </row>
     <row r="105">
@@ -18922,13 +19039,13 @@
         <v>119</v>
       </c>
       <c r="B105" t="n">
-        <v>25143</v>
+        <v>25117</v>
       </c>
       <c r="C105" t="n">
-        <v>10637</v>
+        <v>10670</v>
       </c>
       <c r="D105" t="n">
-        <v>9990</v>
+        <v>9793</v>
       </c>
       <c r="E105"/>
       <c r="F105"/>
@@ -18937,18 +19054,18 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105" t="n">
-        <v>7181</v>
+        <v>7089</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105" t="n">
-        <v>1274</v>
+        <v>1312</v>
       </c>
       <c r="O105" t="n">
-        <v>45770</v>
+        <v>45579</v>
       </c>
       <c r="P105" t="n">
-        <v>47044</v>
+        <v>46891</v>
       </c>
     </row>
     <row r="106">
@@ -18956,37 +19073,37 @@
         <v>120</v>
       </c>
       <c r="B106" t="n">
-        <v>24030</v>
+        <v>24007</v>
       </c>
       <c r="C106" t="n">
-        <v>10437</v>
+        <v>10571</v>
       </c>
       <c r="D106" t="n">
-        <v>9405</v>
+        <v>9315</v>
       </c>
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="n">
-        <v>2711</v>
+        <v>2795</v>
       </c>
       <c r="J106"/>
       <c r="K106" t="n">
-        <v>5188</v>
+        <v>5021</v>
       </c>
       <c r="L106" t="n">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
-        <v>802</v>
+        <v>940</v>
       </c>
       <c r="O106" t="n">
-        <v>43871</v>
+        <v>43894</v>
       </c>
       <c r="P106" t="n">
-        <v>44673</v>
+        <v>44834</v>
       </c>
     </row>
     <row r="107">
@@ -18994,37 +19111,37 @@
         <v>121</v>
       </c>
       <c r="B107" t="n">
-        <v>27998</v>
+        <v>27882</v>
       </c>
       <c r="C107" t="n">
-        <v>10439</v>
+        <v>10718</v>
       </c>
       <c r="D107" t="n">
-        <v>10226</v>
+        <v>10424</v>
       </c>
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="n">
-        <v>2434</v>
+        <v>2485</v>
       </c>
       <c r="J107"/>
       <c r="K107" t="n">
-        <v>6290</v>
+        <v>6418</v>
       </c>
       <c r="L107" t="n">
-        <v>1502</v>
+        <v>1521</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="n">
-        <v>1180</v>
+        <v>984</v>
       </c>
       <c r="O107" t="n">
-        <v>48662</v>
+        <v>49025</v>
       </c>
       <c r="P107" t="n">
-        <v>49843</v>
+        <v>50009</v>
       </c>
     </row>
     <row r="108">
@@ -19032,13 +19149,13 @@
         <v>122</v>
       </c>
       <c r="B108" t="n">
-        <v>28306</v>
+        <v>28471</v>
       </c>
       <c r="C108" t="n">
-        <v>10778</v>
+        <v>10951</v>
       </c>
       <c r="D108" t="n">
-        <v>10757</v>
+        <v>11333</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
@@ -19047,18 +19164,52 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="n">
-        <v>6608</v>
+        <v>6894</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>1114</v>
+        <v>1086</v>
       </c>
       <c r="O108" t="n">
-        <v>49841</v>
+        <v>50754</v>
       </c>
       <c r="P108" t="n">
-        <v>50955</v>
+        <v>51841</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+      <c r="B109" t="n">
+        <v>28840</v>
+      </c>
+      <c r="C109" t="n">
+        <v>11141</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12551</v>
+      </c>
+      <c r="E109"/>
+      <c r="F109"/>
+      <c r="G109"/>
+      <c r="H109"/>
+      <c r="I109"/>
+      <c r="J109"/>
+      <c r="K109" t="n">
+        <v>7890</v>
+      </c>
+      <c r="L109"/>
+      <c r="M109"/>
+      <c r="N109" t="n">
+        <v>147</v>
+      </c>
+      <c r="O109" t="n">
+        <v>52533</v>
+      </c>
+      <c r="P109" t="n">
+        <v>52680</v>
       </c>
     </row>
   </sheetData>

--- a/NQQ_50.xlsx
+++ b/NQQ_50.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
   <si>
     <t xml:space="preserve">quarter</t>
   </si>
@@ -388,6 +388,9 @@
   <si>
     <t xml:space="preserve">2021Q4</t>
   </si>
+  <si>
+    <t xml:space="preserve">2022Q1</t>
+  </si>
 </sst>
 </file>
 
@@ -5830,6 +5833,54 @@
         <v>51853</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="n">
+        <v>25485</v>
+      </c>
+      <c r="C110" t="n">
+        <v>10317</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10344</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1320</v>
+      </c>
+      <c r="F110" t="n">
+        <v>591</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3043</v>
+      </c>
+      <c r="H110" t="n">
+        <v>334</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3670</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1505</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110" t="n">
+        <v>1386</v>
+      </c>
+      <c r="M110" t="n">
+        <v>7188</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3922</v>
+      </c>
+      <c r="O110" t="n">
+        <v>46146</v>
+      </c>
+      <c r="P110" t="n">
+        <v>50068</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -5919,7 +5970,7 @@
         <v>3102</v>
       </c>
       <c r="L2" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
@@ -5964,10 +6015,10 @@
         <v>151</v>
       </c>
       <c r="O3" t="n">
-        <v>19502</v>
+        <v>19501</v>
       </c>
       <c r="P3" t="n">
-        <v>19653</v>
+        <v>19652</v>
       </c>
     </row>
     <row r="4">
@@ -6043,7 +6094,7 @@
         <v>20238</v>
       </c>
       <c r="P5" t="n">
-        <v>20280</v>
+        <v>20281</v>
       </c>
     </row>
     <row r="6">
@@ -6057,7 +6108,7 @@
         <v>4576</v>
       </c>
       <c r="D6" t="n">
-        <v>5184</v>
+        <v>5183</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -6068,20 +6119,20 @@
       </c>
       <c r="J6"/>
       <c r="K6" t="n">
-        <v>3656</v>
+        <v>3657</v>
       </c>
       <c r="L6" t="n">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
         <v>446</v>
       </c>
       <c r="O6" t="n">
-        <v>21149</v>
+        <v>21148</v>
       </c>
       <c r="P6" t="n">
-        <v>21595</v>
+        <v>21594</v>
       </c>
     </row>
     <row r="7">
@@ -6116,7 +6167,7 @@
         <v>429</v>
       </c>
       <c r="O7" t="n">
-        <v>21405</v>
+        <v>21404</v>
       </c>
       <c r="P7" t="n">
         <v>21833</v>
@@ -6171,7 +6222,7 @@
         <v>4203</v>
       </c>
       <c r="D9" t="n">
-        <v>5622</v>
+        <v>5623</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -6185,7 +6236,7 @@
         <v>3985</v>
       </c>
       <c r="L9" t="n">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
@@ -6195,7 +6246,7 @@
         <v>21818</v>
       </c>
       <c r="P9" t="n">
-        <v>21591</v>
+        <v>21592</v>
       </c>
     </row>
     <row r="10">
@@ -6220,20 +6271,20 @@
       </c>
       <c r="J10"/>
       <c r="K10" t="n">
-        <v>4309</v>
+        <v>4310</v>
       </c>
       <c r="L10" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
         <v>555</v>
       </c>
       <c r="O10" t="n">
-        <v>22485</v>
+        <v>22486</v>
       </c>
       <c r="P10" t="n">
-        <v>23040</v>
+        <v>23041</v>
       </c>
     </row>
     <row r="11">
@@ -6247,7 +6298,7 @@
         <v>4706</v>
       </c>
       <c r="D11" t="n">
-        <v>6271</v>
+        <v>6270</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
@@ -6258,7 +6309,7 @@
       </c>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>4469</v>
+        <v>4467</v>
       </c>
       <c r="L11" t="n">
         <v>517</v>
@@ -6268,10 +6319,10 @@
         <v>523</v>
       </c>
       <c r="O11" t="n">
-        <v>23299</v>
+        <v>23297</v>
       </c>
       <c r="P11" t="n">
-        <v>23821</v>
+        <v>23820</v>
       </c>
     </row>
     <row r="12">
@@ -6323,7 +6374,7 @@
         <v>4761</v>
       </c>
       <c r="D13" t="n">
-        <v>7020</v>
+        <v>7021</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -6337,17 +6388,17 @@
         <v>4707</v>
       </c>
       <c r="L13" t="n">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
         <v>-124</v>
       </c>
       <c r="O13" t="n">
-        <v>24881</v>
+        <v>24882</v>
       </c>
       <c r="P13" t="n">
-        <v>24757</v>
+        <v>24758</v>
       </c>
     </row>
     <row r="14">
@@ -6361,7 +6412,7 @@
         <v>4813</v>
       </c>
       <c r="D14" t="n">
-        <v>6564</v>
+        <v>6563</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -6375,17 +6426,17 @@
         <v>4533</v>
       </c>
       <c r="L14" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
         <v>662</v>
       </c>
       <c r="O14" t="n">
-        <v>24557</v>
+        <v>24556</v>
       </c>
       <c r="P14" t="n">
-        <v>25219</v>
+        <v>25218</v>
       </c>
     </row>
     <row r="15">
@@ -6475,7 +6526,7 @@
         <v>5096</v>
       </c>
       <c r="D17" t="n">
-        <v>7607</v>
+        <v>7608</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
@@ -6489,17 +6540,17 @@
         <v>5302</v>
       </c>
       <c r="L17" t="n">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
         <v>-177</v>
       </c>
       <c r="O17" t="n">
-        <v>26610</v>
+        <v>26611</v>
       </c>
       <c r="P17" t="n">
-        <v>26433</v>
+        <v>26434</v>
       </c>
     </row>
     <row r="18">
@@ -6513,7 +6564,7 @@
         <v>5124</v>
       </c>
       <c r="D18" t="n">
-        <v>7512</v>
+        <v>7511</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -6527,17 +6578,17 @@
         <v>5458</v>
       </c>
       <c r="L18" t="n">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
         <v>356</v>
       </c>
       <c r="O18" t="n">
-        <v>27073</v>
+        <v>27072</v>
       </c>
       <c r="P18" t="n">
-        <v>27430</v>
+        <v>27429</v>
       </c>
     </row>
     <row r="19">
@@ -6551,7 +6602,7 @@
         <v>5171</v>
       </c>
       <c r="D19" t="n">
-        <v>7795</v>
+        <v>7794</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
@@ -6589,7 +6640,7 @@
         <v>5299</v>
       </c>
       <c r="D20" t="n">
-        <v>8454</v>
+        <v>8455</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
@@ -6613,7 +6664,7 @@
         <v>29071</v>
       </c>
       <c r="P20" t="n">
-        <v>28829</v>
+        <v>28830</v>
       </c>
     </row>
     <row r="21">
@@ -6627,7 +6678,7 @@
         <v>5304</v>
       </c>
       <c r="D21" t="n">
-        <v>8239</v>
+        <v>8240</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
@@ -6641,17 +6692,17 @@
         <v>5612</v>
       </c>
       <c r="L21" t="n">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="n">
         <v>187</v>
       </c>
       <c r="O21" t="n">
-        <v>28839</v>
+        <v>28840</v>
       </c>
       <c r="P21" t="n">
-        <v>29025</v>
+        <v>29026</v>
       </c>
     </row>
     <row r="22">
@@ -6665,7 +6716,7 @@
         <v>5376</v>
       </c>
       <c r="D22" t="n">
-        <v>8426</v>
+        <v>8425</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
@@ -6679,17 +6730,17 @@
         <v>5785</v>
       </c>
       <c r="L22" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
         <v>176</v>
       </c>
       <c r="O22" t="n">
-        <v>29860</v>
+        <v>29859</v>
       </c>
       <c r="P22" t="n">
-        <v>30037</v>
+        <v>30036</v>
       </c>
     </row>
     <row r="23">
@@ -6779,7 +6830,7 @@
         <v>5982</v>
       </c>
       <c r="D25" t="n">
-        <v>8285</v>
+        <v>8286</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
@@ -6790,20 +6841,20 @@
       </c>
       <c r="J25"/>
       <c r="K25" t="n">
-        <v>5798</v>
+        <v>5799</v>
       </c>
       <c r="L25" t="n">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
         <v>337</v>
       </c>
       <c r="O25" t="n">
-        <v>30966</v>
+        <v>30967</v>
       </c>
       <c r="P25" t="n">
-        <v>31302</v>
+        <v>31304</v>
       </c>
     </row>
     <row r="26">
@@ -6817,7 +6868,7 @@
         <v>5911</v>
       </c>
       <c r="D26" t="n">
-        <v>8870</v>
+        <v>8869</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
@@ -6831,17 +6882,17 @@
         <v>5974</v>
       </c>
       <c r="L26" t="n">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
         <v>410</v>
       </c>
       <c r="O26" t="n">
-        <v>31784</v>
+        <v>31782</v>
       </c>
       <c r="P26" t="n">
-        <v>32194</v>
+        <v>32192</v>
       </c>
     </row>
     <row r="27">
@@ -6866,7 +6917,7 @@
       </c>
       <c r="J27"/>
       <c r="K27" t="n">
-        <v>6189</v>
+        <v>6188</v>
       </c>
       <c r="L27" t="n">
         <v>950</v>
@@ -6893,7 +6944,7 @@
         <v>6226</v>
       </c>
       <c r="D28" t="n">
-        <v>8251</v>
+        <v>8252</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
@@ -6904,7 +6955,7 @@
       </c>
       <c r="J28"/>
       <c r="K28" t="n">
-        <v>6130</v>
+        <v>6131</v>
       </c>
       <c r="L28" t="n">
         <v>650</v>
@@ -6917,7 +6968,7 @@
         <v>31811</v>
       </c>
       <c r="P28" t="n">
-        <v>31918</v>
+        <v>31919</v>
       </c>
     </row>
     <row r="29">
@@ -6931,7 +6982,7 @@
         <v>6548</v>
       </c>
       <c r="D29" t="n">
-        <v>8411</v>
+        <v>8412</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -6952,10 +7003,10 @@
         <v>31</v>
       </c>
       <c r="O29" t="n">
-        <v>32651</v>
+        <v>32652</v>
       </c>
       <c r="P29" t="n">
-        <v>32682</v>
+        <v>32683</v>
       </c>
     </row>
     <row r="30">
@@ -6980,10 +7031,10 @@
       </c>
       <c r="J30"/>
       <c r="K30" t="n">
-        <v>6207</v>
+        <v>6208</v>
       </c>
       <c r="L30" t="n">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
@@ -7007,7 +7058,7 @@
         <v>6557</v>
       </c>
       <c r="D31" t="n">
-        <v>8485</v>
+        <v>8484</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -7018,7 +7069,7 @@
       </c>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>6203</v>
+        <v>6201</v>
       </c>
       <c r="L31" t="n">
         <v>550</v>
@@ -7028,10 +7079,10 @@
         <v>472</v>
       </c>
       <c r="O31" t="n">
-        <v>32974</v>
+        <v>32973</v>
       </c>
       <c r="P31" t="n">
-        <v>33446</v>
+        <v>33444</v>
       </c>
     </row>
     <row r="32">
@@ -7056,7 +7107,7 @@
       </c>
       <c r="J32"/>
       <c r="K32" t="n">
-        <v>6504</v>
+        <v>6505</v>
       </c>
       <c r="L32" t="n">
         <v>712</v>
@@ -7069,7 +7120,7 @@
         <v>33981</v>
       </c>
       <c r="P32" t="n">
-        <v>33754</v>
+        <v>33755</v>
       </c>
     </row>
     <row r="33">
@@ -7083,7 +7134,7 @@
         <v>6596</v>
       </c>
       <c r="D33" t="n">
-        <v>8736</v>
+        <v>8737</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -7097,17 +7148,17 @@
         <v>6554</v>
       </c>
       <c r="L33" t="n">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
         <v>367</v>
       </c>
       <c r="O33" t="n">
-        <v>33680</v>
+        <v>33682</v>
       </c>
       <c r="P33" t="n">
-        <v>34048</v>
+        <v>34049</v>
       </c>
     </row>
     <row r="34">
@@ -7121,7 +7172,7 @@
         <v>6780</v>
       </c>
       <c r="D34" t="n">
-        <v>8660</v>
+        <v>8658</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
@@ -7132,20 +7183,20 @@
       </c>
       <c r="J34"/>
       <c r="K34" t="n">
-        <v>6520</v>
+        <v>6519</v>
       </c>
       <c r="L34" t="n">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
         <v>265</v>
       </c>
       <c r="O34" t="n">
-        <v>33996</v>
+        <v>33995</v>
       </c>
       <c r="P34" t="n">
-        <v>34261</v>
+        <v>34260</v>
       </c>
     </row>
     <row r="35">
@@ -7159,7 +7210,7 @@
         <v>6696</v>
       </c>
       <c r="D35" t="n">
-        <v>8895</v>
+        <v>8896</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -7235,7 +7286,7 @@
         <v>6764</v>
       </c>
       <c r="D37" t="n">
-        <v>10538</v>
+        <v>10540</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
@@ -7246,20 +7297,20 @@
       </c>
       <c r="J37"/>
       <c r="K37" t="n">
-        <v>7272</v>
+        <v>7273</v>
       </c>
       <c r="L37" t="n">
-        <v>1226</v>
+        <v>1228</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
         <v>379</v>
       </c>
       <c r="O37" t="n">
-        <v>36298</v>
+        <v>36300</v>
       </c>
       <c r="P37" t="n">
-        <v>36677</v>
+        <v>36679</v>
       </c>
     </row>
     <row r="38">
@@ -7273,7 +7324,7 @@
         <v>6343</v>
       </c>
       <c r="D38" t="n">
-        <v>9650</v>
+        <v>9648</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
@@ -7284,20 +7335,20 @@
       </c>
       <c r="J38"/>
       <c r="K38" t="n">
-        <v>7261</v>
+        <v>7260</v>
       </c>
       <c r="L38" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M38"/>
       <c r="N38" t="n">
         <v>33</v>
       </c>
       <c r="O38" t="n">
-        <v>35322</v>
+        <v>35320</v>
       </c>
       <c r="P38" t="n">
-        <v>35355</v>
+        <v>35353</v>
       </c>
     </row>
     <row r="39">
@@ -7311,7 +7362,7 @@
         <v>6880</v>
       </c>
       <c r="D39" t="n">
-        <v>10243</v>
+        <v>10244</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -7332,7 +7383,7 @@
         <v>352</v>
       </c>
       <c r="O39" t="n">
-        <v>36566</v>
+        <v>36567</v>
       </c>
       <c r="P39" t="n">
         <v>36919</v>
@@ -7349,7 +7400,7 @@
         <v>6963</v>
       </c>
       <c r="D40" t="n">
-        <v>10450</v>
+        <v>10451</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -7360,7 +7411,7 @@
       </c>
       <c r="J40"/>
       <c r="K40" t="n">
-        <v>7501</v>
+        <v>7502</v>
       </c>
       <c r="L40" t="n">
         <v>901</v>
@@ -7387,7 +7438,7 @@
         <v>7057</v>
       </c>
       <c r="D41" t="n">
-        <v>10573</v>
+        <v>10574</v>
       </c>
       <c r="E41"/>
       <c r="F41"/>
@@ -7401,17 +7452,17 @@
         <v>7835</v>
       </c>
       <c r="L41" t="n">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="M41"/>
       <c r="N41" t="n">
         <v>189</v>
       </c>
       <c r="O41" t="n">
-        <v>37442</v>
+        <v>37443</v>
       </c>
       <c r="P41" t="n">
-        <v>37631</v>
+        <v>37632</v>
       </c>
     </row>
     <row r="42">
@@ -7436,10 +7487,10 @@
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
-        <v>8062</v>
+        <v>8063</v>
       </c>
       <c r="L42" t="n">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="M42"/>
       <c r="N42" t="n">
@@ -7449,7 +7500,7 @@
         <v>38353</v>
       </c>
       <c r="P42" t="n">
-        <v>38753</v>
+        <v>38752</v>
       </c>
     </row>
     <row r="43">
@@ -7463,7 +7514,7 @@
         <v>6980</v>
       </c>
       <c r="D43" t="n">
-        <v>11984</v>
+        <v>11982</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
@@ -7474,7 +7525,7 @@
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>8468</v>
+        <v>8466</v>
       </c>
       <c r="L43" t="n">
         <v>1013</v>
@@ -7484,10 +7535,10 @@
         <v>302</v>
       </c>
       <c r="O43" t="n">
-        <v>39668</v>
+        <v>39666</v>
       </c>
       <c r="P43" t="n">
-        <v>39970</v>
+        <v>39969</v>
       </c>
     </row>
     <row r="44">
@@ -7522,7 +7573,7 @@
         <v>-441</v>
       </c>
       <c r="O44" t="n">
-        <v>40221</v>
+        <v>40222</v>
       </c>
       <c r="P44" t="n">
         <v>39780</v>
@@ -7539,7 +7590,7 @@
         <v>7160</v>
       </c>
       <c r="D45" t="n">
-        <v>12268</v>
+        <v>12270</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -7553,17 +7604,17 @@
         <v>8759</v>
       </c>
       <c r="L45" t="n">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
         <v>501</v>
       </c>
       <c r="O45" t="n">
-        <v>40949</v>
+        <v>40951</v>
       </c>
       <c r="P45" t="n">
-        <v>41450</v>
+        <v>41452</v>
       </c>
     </row>
     <row r="46">
@@ -7577,7 +7628,7 @@
         <v>7223</v>
       </c>
       <c r="D46" t="n">
-        <v>12336</v>
+        <v>12333</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
@@ -7588,20 +7639,20 @@
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>8936</v>
+        <v>8935</v>
       </c>
       <c r="L46" t="n">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="M46"/>
       <c r="N46" t="n">
         <v>572</v>
       </c>
       <c r="O46" t="n">
-        <v>41195</v>
+        <v>41192</v>
       </c>
       <c r="P46" t="n">
-        <v>41767</v>
+        <v>41764</v>
       </c>
     </row>
     <row r="47">
@@ -7615,7 +7666,7 @@
         <v>7312</v>
       </c>
       <c r="D47" t="n">
-        <v>11851</v>
+        <v>11852</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -7626,7 +7677,7 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>8918</v>
+        <v>8919</v>
       </c>
       <c r="L47" t="n">
         <v>981</v>
@@ -7636,10 +7687,10 @@
         <v>1126</v>
       </c>
       <c r="O47" t="n">
-        <v>41352</v>
+        <v>41353</v>
       </c>
       <c r="P47" t="n">
-        <v>42478</v>
+        <v>42479</v>
       </c>
     </row>
     <row r="48">
@@ -7691,7 +7742,7 @@
         <v>7530</v>
       </c>
       <c r="D49" t="n">
-        <v>12756</v>
+        <v>12758</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -7705,17 +7756,17 @@
         <v>9123</v>
       </c>
       <c r="L49" t="n">
-        <v>1117</v>
+        <v>1119</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
         <v>302</v>
       </c>
       <c r="O49" t="n">
-        <v>43085</v>
+        <v>43086</v>
       </c>
       <c r="P49" t="n">
-        <v>43387</v>
+        <v>43388</v>
       </c>
     </row>
     <row r="50">
@@ -7729,7 +7780,7 @@
         <v>7750</v>
       </c>
       <c r="D50" t="n">
-        <v>13345</v>
+        <v>13342</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
@@ -7740,20 +7791,20 @@
       </c>
       <c r="J50"/>
       <c r="K50" t="n">
-        <v>9427</v>
+        <v>9425</v>
       </c>
       <c r="L50" t="n">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M50"/>
       <c r="N50" t="n">
         <v>7</v>
       </c>
       <c r="O50" t="n">
-        <v>44519</v>
+        <v>44517</v>
       </c>
       <c r="P50" t="n">
-        <v>44526</v>
+        <v>44524</v>
       </c>
     </row>
     <row r="51">
@@ -7767,7 +7818,7 @@
         <v>7782</v>
       </c>
       <c r="D51" t="n">
-        <v>12530</v>
+        <v>12531</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
@@ -7778,7 +7829,7 @@
       </c>
       <c r="J51"/>
       <c r="K51" t="n">
-        <v>9047</v>
+        <v>9048</v>
       </c>
       <c r="L51" t="n">
         <v>720</v>
@@ -7788,10 +7839,10 @@
         <v>384</v>
       </c>
       <c r="O51" t="n">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="P51" t="n">
-        <v>44307</v>
+        <v>44308</v>
       </c>
     </row>
     <row r="52">
@@ -7843,7 +7894,7 @@
         <v>7855</v>
       </c>
       <c r="D53" t="n">
-        <v>12323</v>
+        <v>12325</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
@@ -7857,17 +7908,17 @@
         <v>8720</v>
       </c>
       <c r="L53" t="n">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
         <v>1034</v>
       </c>
       <c r="O53" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="P53" t="n">
-        <v>45299</v>
+        <v>45301</v>
       </c>
     </row>
     <row r="54">
@@ -7892,10 +7943,10 @@
       </c>
       <c r="J54"/>
       <c r="K54" t="n">
-        <v>9204</v>
+        <v>9206</v>
       </c>
       <c r="L54" t="n">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M54"/>
       <c r="N54" t="n">
@@ -7919,7 +7970,7 @@
         <v>7846</v>
       </c>
       <c r="D55" t="n">
-        <v>11428</v>
+        <v>11427</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
@@ -7930,7 +7981,7 @@
       </c>
       <c r="J55"/>
       <c r="K55" t="n">
-        <v>8534</v>
+        <v>8532</v>
       </c>
       <c r="L55" t="n">
         <v>1027</v>
@@ -7940,10 +7991,10 @@
         <v>485</v>
       </c>
       <c r="O55" t="n">
-        <v>43113</v>
+        <v>43112</v>
       </c>
       <c r="P55" t="n">
-        <v>43598</v>
+        <v>43597</v>
       </c>
     </row>
     <row r="56">
@@ -7995,7 +8046,7 @@
         <v>7837</v>
       </c>
       <c r="D57" t="n">
-        <v>9702</v>
+        <v>9704</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
@@ -8009,17 +8060,17 @@
         <v>6972</v>
       </c>
       <c r="L57" t="n">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="M57"/>
       <c r="N57" t="n">
         <v>-374</v>
       </c>
       <c r="O57" t="n">
-        <v>41371</v>
+        <v>41372</v>
       </c>
       <c r="P57" t="n">
-        <v>40997</v>
+        <v>40999</v>
       </c>
     </row>
     <row r="58">
@@ -8033,7 +8084,7 @@
         <v>7989</v>
       </c>
       <c r="D58" t="n">
-        <v>8950</v>
+        <v>8948</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
@@ -8047,17 +8098,17 @@
         <v>6461</v>
       </c>
       <c r="L58" t="n">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M58"/>
       <c r="N58" t="n">
         <v>-339</v>
       </c>
       <c r="O58" t="n">
-        <v>40091</v>
+        <v>40089</v>
       </c>
       <c r="P58" t="n">
-        <v>39752</v>
+        <v>39750</v>
       </c>
     </row>
     <row r="59">
@@ -8082,7 +8133,7 @@
       </c>
       <c r="J59"/>
       <c r="K59" t="n">
-        <v>5943</v>
+        <v>5944</v>
       </c>
       <c r="L59" t="n">
         <v>976</v>
@@ -8147,7 +8198,7 @@
         <v>7354</v>
       </c>
       <c r="D61" t="n">
-        <v>7282</v>
+        <v>7284</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
@@ -8161,17 +8212,17 @@
         <v>4786</v>
       </c>
       <c r="L61" t="n">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
         <v>-293</v>
       </c>
       <c r="O61" t="n">
-        <v>37556</v>
+        <v>37557</v>
       </c>
       <c r="P61" t="n">
-        <v>37262</v>
+        <v>37264</v>
       </c>
     </row>
     <row r="62">
@@ -8185,7 +8236,7 @@
         <v>7195</v>
       </c>
       <c r="D62" t="n">
-        <v>6491</v>
+        <v>6489</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
@@ -8196,20 +8247,20 @@
       </c>
       <c r="J62"/>
       <c r="K62" t="n">
-        <v>4174</v>
+        <v>4173</v>
       </c>
       <c r="L62" t="n">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="M62"/>
       <c r="N62" t="n">
         <v>-500</v>
       </c>
       <c r="O62" t="n">
-        <v>36713</v>
+        <v>36711</v>
       </c>
       <c r="P62" t="n">
-        <v>36213</v>
+        <v>36211</v>
       </c>
     </row>
     <row r="63">
@@ -8223,7 +8274,7 @@
         <v>6951</v>
       </c>
       <c r="D63" t="n">
-        <v>7010</v>
+        <v>7011</v>
       </c>
       <c r="E63"/>
       <c r="F63"/>
@@ -8299,7 +8350,7 @@
         <v>7092</v>
       </c>
       <c r="D65" t="n">
-        <v>6031</v>
+        <v>6032</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
@@ -8313,17 +8364,17 @@
         <v>3627</v>
       </c>
       <c r="L65" t="n">
-        <v>1127</v>
+        <v>1129</v>
       </c>
       <c r="M65"/>
       <c r="N65" t="n">
         <v>30</v>
       </c>
       <c r="O65" t="n">
-        <v>36224</v>
+        <v>36226</v>
       </c>
       <c r="P65" t="n">
-        <v>36254</v>
+        <v>36256</v>
       </c>
     </row>
     <row r="66">
@@ -8337,7 +8388,7 @@
         <v>7369</v>
       </c>
       <c r="D66" t="n">
-        <v>5668</v>
+        <v>5667</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
@@ -8351,17 +8402,17 @@
         <v>3489</v>
       </c>
       <c r="L66" t="n">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="M66"/>
       <c r="N66" t="n">
         <v>232</v>
       </c>
       <c r="O66" t="n">
-        <v>36090</v>
+        <v>36089</v>
       </c>
       <c r="P66" t="n">
-        <v>36322</v>
+        <v>36320</v>
       </c>
     </row>
     <row r="67">
@@ -8389,7 +8440,7 @@
         <v>3489</v>
       </c>
       <c r="L67" t="n">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="M67"/>
       <c r="N67" t="n">
@@ -8451,7 +8502,7 @@
         <v>7141</v>
       </c>
       <c r="D69" t="n">
-        <v>5572</v>
+        <v>5574</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
@@ -8465,17 +8516,17 @@
         <v>3243</v>
       </c>
       <c r="L69" t="n">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
         <v>-417</v>
       </c>
       <c r="O69" t="n">
-        <v>35504</v>
+        <v>35506</v>
       </c>
       <c r="P69" t="n">
-        <v>35087</v>
+        <v>35088</v>
       </c>
     </row>
     <row r="70">
@@ -8489,7 +8540,7 @@
         <v>7052</v>
       </c>
       <c r="D70" t="n">
-        <v>6164</v>
+        <v>6163</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
@@ -8503,17 +8554,17 @@
         <v>3323</v>
       </c>
       <c r="L70" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="n">
         <v>320</v>
       </c>
       <c r="O70" t="n">
-        <v>35776</v>
+        <v>35774</v>
       </c>
       <c r="P70" t="n">
-        <v>36095</v>
+        <v>36094</v>
       </c>
     </row>
     <row r="71">
@@ -8551,7 +8602,7 @@
         <v>35241</v>
       </c>
       <c r="P71" t="n">
-        <v>35192</v>
+        <v>35193</v>
       </c>
     </row>
     <row r="72">
@@ -8586,7 +8637,7 @@
         <v>562</v>
       </c>
       <c r="O72" t="n">
-        <v>35798</v>
+        <v>35797</v>
       </c>
       <c r="P72" t="n">
         <v>36359</v>
@@ -8597,13 +8648,13 @@
         <v>87</v>
       </c>
       <c r="B73" t="n">
-        <v>22944</v>
+        <v>22945</v>
       </c>
       <c r="C73" t="n">
         <v>6809</v>
       </c>
       <c r="D73" t="n">
-        <v>6007</v>
+        <v>6008</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
@@ -8617,17 +8668,17 @@
         <v>3586</v>
       </c>
       <c r="L73" t="n">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="M73"/>
       <c r="N73" t="n">
         <v>-53</v>
       </c>
       <c r="O73" t="n">
-        <v>35759</v>
+        <v>35761</v>
       </c>
       <c r="P73" t="n">
-        <v>35706</v>
+        <v>35708</v>
       </c>
     </row>
     <row r="74">
@@ -8641,7 +8692,7 @@
         <v>6678</v>
       </c>
       <c r="D74" t="n">
-        <v>6308</v>
+        <v>6307</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
@@ -8652,20 +8703,20 @@
       </c>
       <c r="J74"/>
       <c r="K74" t="n">
-        <v>3500</v>
+        <v>3501</v>
       </c>
       <c r="L74" t="n">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="n">
         <v>326</v>
       </c>
       <c r="O74" t="n">
-        <v>35678</v>
+        <v>35677</v>
       </c>
       <c r="P74" t="n">
-        <v>36003</v>
+        <v>36002</v>
       </c>
     </row>
     <row r="75">
@@ -8673,13 +8724,13 @@
         <v>89</v>
       </c>
       <c r="B75" t="n">
-        <v>22729</v>
+        <v>22728</v>
       </c>
       <c r="C75" t="n">
         <v>6721</v>
       </c>
       <c r="D75" t="n">
-        <v>6423</v>
+        <v>6424</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
@@ -8703,7 +8754,7 @@
         <v>35873</v>
       </c>
       <c r="P75" t="n">
-        <v>36167</v>
+        <v>36166</v>
       </c>
     </row>
     <row r="76">
@@ -8738,7 +8789,7 @@
         <v>339</v>
       </c>
       <c r="O76" t="n">
-        <v>37293</v>
+        <v>37292</v>
       </c>
       <c r="P76" t="n">
         <v>37632</v>
@@ -8749,7 +8800,7 @@
         <v>91</v>
       </c>
       <c r="B77" t="n">
-        <v>23037</v>
+        <v>23038</v>
       </c>
       <c r="C77" t="n">
         <v>7119</v>
@@ -8762,24 +8813,24 @@
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="n">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="n">
-        <v>4089</v>
+        <v>4088</v>
       </c>
       <c r="L77" t="n">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="n">
         <v>-712</v>
       </c>
       <c r="O77" t="n">
-        <v>37718</v>
+        <v>37720</v>
       </c>
       <c r="P77" t="n">
-        <v>37007</v>
+        <v>37008</v>
       </c>
     </row>
     <row r="78">
@@ -8787,7 +8838,7 @@
         <v>92</v>
       </c>
       <c r="B78" t="n">
-        <v>23070</v>
+        <v>23069</v>
       </c>
       <c r="C78" t="n">
         <v>7177</v>
@@ -8804,10 +8855,10 @@
       </c>
       <c r="J78"/>
       <c r="K78" t="n">
-        <v>4120</v>
+        <v>4123</v>
       </c>
       <c r="L78" t="n">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="n">
@@ -8828,10 +8879,10 @@
         <v>23378</v>
       </c>
       <c r="C79" t="n">
-        <v>7375</v>
+        <v>7374</v>
       </c>
       <c r="D79" t="n">
-        <v>7494</v>
+        <v>7495</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
@@ -8842,7 +8893,7 @@
       </c>
       <c r="J79"/>
       <c r="K79" t="n">
-        <v>4239</v>
+        <v>4240</v>
       </c>
       <c r="L79" t="n">
         <v>1281</v>
@@ -8855,7 +8906,7 @@
         <v>38247</v>
       </c>
       <c r="P79" t="n">
-        <v>38370</v>
+        <v>38371</v>
       </c>
     </row>
     <row r="80">
@@ -8866,21 +8917,21 @@
         <v>23522</v>
       </c>
       <c r="C80" t="n">
-        <v>7162</v>
+        <v>7161</v>
       </c>
       <c r="D80" t="n">
-        <v>7857</v>
+        <v>7856</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="n">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="n">
-        <v>4251</v>
+        <v>4249</v>
       </c>
       <c r="L80" t="n">
         <v>1257</v>
@@ -8890,10 +8941,10 @@
         <v>436</v>
       </c>
       <c r="O80" t="n">
-        <v>38541</v>
+        <v>38539</v>
       </c>
       <c r="P80" t="n">
-        <v>38977</v>
+        <v>38975</v>
       </c>
     </row>
     <row r="81">
@@ -8901,34 +8952,34 @@
         <v>95</v>
       </c>
       <c r="B81" t="n">
-        <v>23798</v>
+        <v>23799</v>
       </c>
       <c r="C81" t="n">
-        <v>7056</v>
+        <v>7055</v>
       </c>
       <c r="D81" t="n">
-        <v>8017</v>
+        <v>8016</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81" t="n">
-        <v>2660</v>
+        <v>2661</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="n">
-        <v>4155</v>
+        <v>4153</v>
       </c>
       <c r="L81" t="n">
-        <v>1201</v>
+        <v>1203</v>
       </c>
       <c r="M81"/>
       <c r="N81" t="n">
         <v>1051</v>
       </c>
       <c r="O81" t="n">
-        <v>38870</v>
+        <v>38871</v>
       </c>
       <c r="P81" t="n">
         <v>39921</v>
@@ -8939,37 +8990,37 @@
         <v>96</v>
       </c>
       <c r="B82" t="n">
-        <v>23767</v>
+        <v>23765</v>
       </c>
       <c r="C82" t="n">
-        <v>7339</v>
+        <v>7340</v>
       </c>
       <c r="D82" t="n">
-        <v>8777</v>
+        <v>8781</v>
       </c>
       <c r="E82"/>
       <c r="F82"/>
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="n">
-        <v>2731</v>
+        <v>2730</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="n">
-        <v>4404</v>
+        <v>4411</v>
       </c>
       <c r="L82" t="n">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="n">
         <v>510</v>
       </c>
       <c r="O82" t="n">
-        <v>39883</v>
+        <v>39885</v>
       </c>
       <c r="P82" t="n">
-        <v>40393</v>
+        <v>40395</v>
       </c>
     </row>
     <row r="83">
@@ -8977,37 +9028,37 @@
         <v>97</v>
       </c>
       <c r="B83" t="n">
-        <v>23989</v>
+        <v>23990</v>
       </c>
       <c r="C83" t="n">
         <v>7335</v>
       </c>
       <c r="D83" t="n">
-        <v>8680</v>
+        <v>8683</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="n">
-        <v>4491</v>
+        <v>4494</v>
       </c>
       <c r="L83" t="n">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="n">
         <v>747</v>
       </c>
       <c r="O83" t="n">
-        <v>40005</v>
+        <v>40008</v>
       </c>
       <c r="P83" t="n">
-        <v>40751</v>
+        <v>40755</v>
       </c>
     </row>
     <row r="84">
@@ -9021,18 +9072,18 @@
         <v>7325</v>
       </c>
       <c r="D84" t="n">
-        <v>8721</v>
+        <v>8719</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>2872</v>
+        <v>2873</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="n">
-        <v>4430</v>
+        <v>4427</v>
       </c>
       <c r="L84" t="n">
         <v>1419</v>
@@ -9042,10 +9093,10 @@
         <v>1964</v>
       </c>
       <c r="O84" t="n">
-        <v>40295</v>
+        <v>40292</v>
       </c>
       <c r="P84" t="n">
-        <v>42259</v>
+        <v>42256</v>
       </c>
     </row>
     <row r="85">
@@ -9056,34 +9107,34 @@
         <v>24396</v>
       </c>
       <c r="C85" t="n">
-        <v>7459</v>
+        <v>7458</v>
       </c>
       <c r="D85" t="n">
-        <v>7966</v>
+        <v>7958</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="n">
-        <v>4658</v>
+        <v>4647</v>
       </c>
       <c r="L85" t="n">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="M85"/>
       <c r="N85" t="n">
         <v>581</v>
       </c>
       <c r="O85" t="n">
-        <v>39821</v>
+        <v>39812</v>
       </c>
       <c r="P85" t="n">
-        <v>40402</v>
+        <v>40393</v>
       </c>
     </row>
     <row r="86">
@@ -9091,37 +9142,37 @@
         <v>100</v>
       </c>
       <c r="B86" t="n">
-        <v>25375</v>
+        <v>25373</v>
       </c>
       <c r="C86" t="n">
         <v>7586</v>
       </c>
       <c r="D86" t="n">
-        <v>8744</v>
+        <v>8762</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="J86"/>
       <c r="K86" t="n">
-        <v>4365</v>
+        <v>4385</v>
       </c>
       <c r="L86" t="n">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="M86"/>
       <c r="N86" t="n">
         <v>693</v>
       </c>
       <c r="O86" t="n">
-        <v>41705</v>
+        <v>41721</v>
       </c>
       <c r="P86" t="n">
-        <v>42398</v>
+        <v>42414</v>
       </c>
     </row>
     <row r="87">
@@ -9129,37 +9180,37 @@
         <v>101</v>
       </c>
       <c r="B87" t="n">
-        <v>25113</v>
+        <v>25116</v>
       </c>
       <c r="C87" t="n">
-        <v>7613</v>
+        <v>7614</v>
       </c>
       <c r="D87" t="n">
-        <v>9040</v>
+        <v>9042</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="n">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>4941</v>
+        <v>4944</v>
       </c>
       <c r="L87" t="n">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="n">
         <v>413</v>
       </c>
       <c r="O87" t="n">
-        <v>41766</v>
+        <v>41772</v>
       </c>
       <c r="P87" t="n">
-        <v>42179</v>
+        <v>42185</v>
       </c>
     </row>
     <row r="88">
@@ -9167,24 +9218,24 @@
         <v>102</v>
       </c>
       <c r="B88" t="n">
-        <v>25128</v>
+        <v>25126</v>
       </c>
       <c r="C88" t="n">
-        <v>7706</v>
+        <v>7705</v>
       </c>
       <c r="D88" t="n">
-        <v>9694</v>
+        <v>9688</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88" t="n">
-        <v>3119</v>
+        <v>3120</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="n">
-        <v>5208</v>
+        <v>5201</v>
       </c>
       <c r="L88" t="n">
         <v>1367</v>
@@ -9194,10 +9245,10 @@
         <v>474</v>
       </c>
       <c r="O88" t="n">
-        <v>42528</v>
+        <v>42519</v>
       </c>
       <c r="P88" t="n">
-        <v>43001</v>
+        <v>42993</v>
       </c>
     </row>
     <row r="89">
@@ -9205,37 +9256,37 @@
         <v>103</v>
       </c>
       <c r="B89" t="n">
-        <v>25507</v>
+        <v>25505</v>
       </c>
       <c r="C89" t="n">
-        <v>7864</v>
+        <v>7862</v>
       </c>
       <c r="D89" t="n">
-        <v>9466</v>
+        <v>9451</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89" t="n">
-        <v>3047</v>
+        <v>3050</v>
       </c>
       <c r="J89"/>
       <c r="K89" t="n">
-        <v>5170</v>
+        <v>5150</v>
       </c>
       <c r="L89" t="n">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="M89"/>
       <c r="N89" t="n">
         <v>2605</v>
       </c>
       <c r="O89" t="n">
-        <v>42838</v>
+        <v>42818</v>
       </c>
       <c r="P89" t="n">
-        <v>45443</v>
+        <v>45423</v>
       </c>
     </row>
     <row r="90">
@@ -9243,37 +9294,37 @@
         <v>104</v>
       </c>
       <c r="B90" t="n">
-        <v>25753</v>
+        <v>25752</v>
       </c>
       <c r="C90" t="n">
-        <v>7856</v>
+        <v>7857</v>
       </c>
       <c r="D90" t="n">
-        <v>9448</v>
+        <v>9476</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="n">
-        <v>2398</v>
+        <v>2395</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="n">
-        <v>5247</v>
+        <v>5281</v>
       </c>
       <c r="L90" t="n">
-        <v>1803</v>
+        <v>1800</v>
       </c>
       <c r="M90"/>
       <c r="N90" t="n">
         <v>-527</v>
       </c>
       <c r="O90" t="n">
-        <v>43056</v>
+        <v>43085</v>
       </c>
       <c r="P90" t="n">
-        <v>42529</v>
+        <v>42558</v>
       </c>
     </row>
     <row r="91">
@@ -9281,24 +9332,24 @@
         <v>105</v>
       </c>
       <c r="B91" t="n">
-        <v>25611</v>
+        <v>25619</v>
       </c>
       <c r="C91" t="n">
-        <v>7898</v>
+        <v>7900</v>
       </c>
       <c r="D91" t="n">
-        <v>9945</v>
+        <v>9955</v>
       </c>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91" t="n">
-        <v>2956</v>
+        <v>2955</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="n">
-        <v>5277</v>
+        <v>5288</v>
       </c>
       <c r="L91" t="n">
         <v>1712</v>
@@ -9308,10 +9359,10 @@
         <v>1622</v>
       </c>
       <c r="O91" t="n">
-        <v>43453</v>
+        <v>43474</v>
       </c>
       <c r="P91" t="n">
-        <v>45075</v>
+        <v>45096</v>
       </c>
     </row>
     <row r="92">
@@ -9319,24 +9370,24 @@
         <v>106</v>
       </c>
       <c r="B92" t="n">
-        <v>25917</v>
+        <v>25916</v>
       </c>
       <c r="C92" t="n">
-        <v>8036</v>
+        <v>8035</v>
       </c>
       <c r="D92" t="n">
-        <v>9661</v>
+        <v>9657</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="n">
-        <v>2418</v>
+        <v>2420</v>
       </c>
       <c r="J92"/>
       <c r="K92" t="n">
-        <v>5501</v>
+        <v>5495</v>
       </c>
       <c r="L92" t="n">
         <v>1742</v>
@@ -9346,10 +9397,10 @@
         <v>2557</v>
       </c>
       <c r="O92" t="n">
-        <v>43614</v>
+        <v>43609</v>
       </c>
       <c r="P92" t="n">
-        <v>46171</v>
+        <v>46166</v>
       </c>
     </row>
     <row r="93">
@@ -9357,37 +9408,37 @@
         <v>107</v>
       </c>
       <c r="B93" t="n">
-        <v>26030</v>
+        <v>26013</v>
       </c>
       <c r="C93" t="n">
-        <v>8160</v>
+        <v>8157</v>
       </c>
       <c r="D93" t="n">
-        <v>10176</v>
+        <v>10134</v>
       </c>
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93" t="n">
-        <v>2554</v>
+        <v>2560</v>
       </c>
       <c r="J93"/>
       <c r="K93" t="n">
-        <v>5939</v>
+        <v>5888</v>
       </c>
       <c r="L93" t="n">
-        <v>1683</v>
+        <v>1685</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
         <v>40</v>
       </c>
       <c r="O93" t="n">
-        <v>44366</v>
+        <v>44303</v>
       </c>
       <c r="P93" t="n">
-        <v>44406</v>
+        <v>44343</v>
       </c>
     </row>
     <row r="94">
@@ -9395,37 +9446,37 @@
         <v>108</v>
       </c>
       <c r="B94" t="n">
-        <v>26679</v>
+        <v>26694</v>
       </c>
       <c r="C94" t="n">
-        <v>8145</v>
+        <v>8148</v>
       </c>
       <c r="D94" t="n">
-        <v>10522</v>
+        <v>10577</v>
       </c>
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94" t="n">
-        <v>3114</v>
+        <v>3107</v>
       </c>
       <c r="J94"/>
       <c r="K94" t="n">
-        <v>5876</v>
+        <v>5940</v>
       </c>
       <c r="L94" t="n">
-        <v>1532</v>
+        <v>1530</v>
       </c>
       <c r="M94"/>
       <c r="N94" t="n">
         <v>2053</v>
       </c>
       <c r="O94" t="n">
-        <v>45346</v>
+        <v>45418</v>
       </c>
       <c r="P94" t="n">
-        <v>47399</v>
+        <v>47471</v>
       </c>
     </row>
     <row r="95">
@@ -9433,13 +9484,13 @@
         <v>109</v>
       </c>
       <c r="B95" t="n">
-        <v>27013</v>
+        <v>27021</v>
       </c>
       <c r="C95" t="n">
-        <v>8382</v>
+        <v>8386</v>
       </c>
       <c r="D95" t="n">
-        <v>10646</v>
+        <v>10670</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
@@ -9448,7 +9499,7 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" t="n">
-        <v>6169</v>
+        <v>6196</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
@@ -9456,10 +9507,10 @@
         <v>109</v>
       </c>
       <c r="O95" t="n">
-        <v>46040</v>
+        <v>46077</v>
       </c>
       <c r="P95" t="n">
-        <v>46150</v>
+        <v>46187</v>
       </c>
     </row>
     <row r="96">
@@ -9467,24 +9518,24 @@
         <v>110</v>
       </c>
       <c r="B96" t="n">
-        <v>26901</v>
+        <v>26900</v>
       </c>
       <c r="C96" t="n">
-        <v>8573</v>
+        <v>8570</v>
       </c>
       <c r="D96" t="n">
-        <v>10271</v>
+        <v>10263</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="n">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="n">
-        <v>6190</v>
+        <v>6181</v>
       </c>
       <c r="L96" t="n">
         <v>1723</v>
@@ -9494,10 +9545,10 @@
         <v>40</v>
       </c>
       <c r="O96" t="n">
-        <v>45745</v>
+        <v>45734</v>
       </c>
       <c r="P96" t="n">
-        <v>45784</v>
+        <v>45773</v>
       </c>
     </row>
     <row r="97">
@@ -9505,13 +9556,13 @@
         <v>111</v>
       </c>
       <c r="B97" t="n">
-        <v>26752</v>
+        <v>26718</v>
       </c>
       <c r="C97" t="n">
-        <v>8415</v>
+        <v>8408</v>
       </c>
       <c r="D97" t="n">
-        <v>10102</v>
+        <v>10039</v>
       </c>
       <c r="E97"/>
       <c r="F97"/>
@@ -9520,7 +9571,7 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" t="n">
-        <v>6082</v>
+        <v>6004</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
@@ -9528,10 +9579,10 @@
         <v>-1295</v>
       </c>
       <c r="O97" t="n">
-        <v>45268</v>
+        <v>45166</v>
       </c>
       <c r="P97" t="n">
-        <v>43973</v>
+        <v>43871</v>
       </c>
     </row>
     <row r="98">
@@ -9539,37 +9590,37 @@
         <v>112</v>
       </c>
       <c r="B98" t="n">
-        <v>27839</v>
+        <v>27876</v>
       </c>
       <c r="C98" t="n">
-        <v>8891</v>
+        <v>8896</v>
       </c>
       <c r="D98" t="n">
-        <v>9601</v>
+        <v>9681</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="n">
-        <v>2374</v>
+        <v>2360</v>
       </c>
       <c r="J98"/>
       <c r="K98" t="n">
-        <v>6114</v>
+        <v>6209</v>
       </c>
       <c r="L98" t="n">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="M98"/>
       <c r="N98" t="n">
         <v>3031</v>
       </c>
       <c r="O98" t="n">
-        <v>46331</v>
+        <v>46454</v>
       </c>
       <c r="P98" t="n">
-        <v>49363</v>
+        <v>49485</v>
       </c>
     </row>
     <row r="99">
@@ -9577,13 +9628,13 @@
         <v>113</v>
       </c>
       <c r="B99" t="n">
-        <v>28087</v>
+        <v>28086</v>
       </c>
       <c r="C99" t="n">
-        <v>8927</v>
+        <v>8933</v>
       </c>
       <c r="D99" t="n">
-        <v>9385</v>
+        <v>9434</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
@@ -9592,7 +9643,7 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" t="n">
-        <v>6308</v>
+        <v>6360</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
@@ -9600,10 +9651,10 @@
         <v>-361</v>
       </c>
       <c r="O99" t="n">
-        <v>46399</v>
+        <v>46454</v>
       </c>
       <c r="P99" t="n">
-        <v>46037</v>
+        <v>46092</v>
       </c>
     </row>
     <row r="100">
@@ -9611,13 +9662,13 @@
         <v>114</v>
       </c>
       <c r="B100" t="n">
-        <v>27605</v>
+        <v>27610</v>
       </c>
       <c r="C100" t="n">
-        <v>9133</v>
+        <v>9129</v>
       </c>
       <c r="D100" t="n">
-        <v>10318</v>
+        <v>10308</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
@@ -9626,7 +9677,7 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="n">
-        <v>6795</v>
+        <v>6782</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
@@ -9634,10 +9685,10 @@
         <v>1311</v>
       </c>
       <c r="O100" t="n">
-        <v>47056</v>
+        <v>47047</v>
       </c>
       <c r="P100" t="n">
-        <v>48368</v>
+        <v>48358</v>
       </c>
     </row>
     <row r="101">
@@ -9645,13 +9696,13 @@
         <v>115</v>
       </c>
       <c r="B101" t="n">
-        <v>27399</v>
+        <v>27345</v>
       </c>
       <c r="C101" t="n">
-        <v>8947</v>
+        <v>8933</v>
       </c>
       <c r="D101" t="n">
-        <v>9549</v>
+        <v>9438</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
@@ -9660,7 +9711,7 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101" t="n">
-        <v>6455</v>
+        <v>6318</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
@@ -9668,10 +9719,10 @@
         <v>-56</v>
       </c>
       <c r="O101" t="n">
-        <v>45895</v>
+        <v>45716</v>
       </c>
       <c r="P101" t="n">
-        <v>45838</v>
+        <v>45659</v>
       </c>
     </row>
     <row r="102">
@@ -9679,13 +9730,13 @@
         <v>116</v>
       </c>
       <c r="B102" t="n">
-        <v>26451</v>
+        <v>26527</v>
       </c>
       <c r="C102" t="n">
-        <v>9055</v>
+        <v>9070</v>
       </c>
       <c r="D102" t="n">
-        <v>9833</v>
+        <v>9987</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -9694,7 +9745,7 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102" t="n">
-        <v>6479</v>
+        <v>6663</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
@@ -9702,10 +9753,10 @@
         <v>2207</v>
       </c>
       <c r="O102" t="n">
-        <v>45339</v>
+        <v>45584</v>
       </c>
       <c r="P102" t="n">
-        <v>47546</v>
+        <v>47791</v>
       </c>
     </row>
     <row r="103">
@@ -9713,13 +9764,13 @@
         <v>117</v>
       </c>
       <c r="B103" t="n">
-        <v>22688</v>
+        <v>22657</v>
       </c>
       <c r="C103" t="n">
-        <v>10142</v>
+        <v>10148</v>
       </c>
       <c r="D103" t="n">
-        <v>7863</v>
+        <v>7908</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
@@ -9728,7 +9779,7 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="n">
-        <v>4610</v>
+        <v>4658</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
@@ -9736,10 +9787,10 @@
         <v>1872</v>
       </c>
       <c r="O103" t="n">
-        <v>40693</v>
+        <v>40713</v>
       </c>
       <c r="P103" t="n">
-        <v>42564</v>
+        <v>42585</v>
       </c>
     </row>
     <row r="104">
@@ -9747,13 +9798,13 @@
         <v>118</v>
       </c>
       <c r="B104" t="n">
-        <v>25324</v>
+        <v>25330</v>
       </c>
       <c r="C104" t="n">
-        <v>10167</v>
+        <v>10161</v>
       </c>
       <c r="D104" t="n">
-        <v>10232</v>
+        <v>10208</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
@@ -9764,7 +9815,7 @@
       </c>
       <c r="J104"/>
       <c r="K104" t="n">
-        <v>6328</v>
+        <v>6302</v>
       </c>
       <c r="L104" t="n">
         <v>1490</v>
@@ -9774,10 +9825,10 @@
         <v>569</v>
       </c>
       <c r="O104" t="n">
-        <v>45723</v>
+        <v>45699</v>
       </c>
       <c r="P104" t="n">
-        <v>46292</v>
+        <v>46269</v>
       </c>
     </row>
     <row r="105">
@@ -9785,13 +9836,13 @@
         <v>119</v>
       </c>
       <c r="B105" t="n">
-        <v>24895</v>
+        <v>24841</v>
       </c>
       <c r="C105" t="n">
-        <v>10441</v>
+        <v>10419</v>
       </c>
       <c r="D105" t="n">
-        <v>9474</v>
+        <v>9331</v>
       </c>
       <c r="E105"/>
       <c r="F105"/>
@@ -9800,7 +9851,7 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105" t="n">
-        <v>6741</v>
+        <v>6558</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
@@ -9808,10 +9859,10 @@
         <v>281</v>
       </c>
       <c r="O105" t="n">
-        <v>44811</v>
+        <v>44591</v>
       </c>
       <c r="P105" t="n">
-        <v>45091</v>
+        <v>44871</v>
       </c>
     </row>
     <row r="106">
@@ -9819,37 +9870,37 @@
         <v>120</v>
       </c>
       <c r="B106" t="n">
-        <v>23481</v>
+        <v>23582</v>
       </c>
       <c r="C106" t="n">
-        <v>10409</v>
+        <v>10435</v>
       </c>
       <c r="D106" t="n">
-        <v>9091</v>
+        <v>9213</v>
       </c>
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="n">
-        <v>3001</v>
+        <v>2963</v>
       </c>
       <c r="J106"/>
       <c r="K106" t="n">
-        <v>4746</v>
+        <v>4909</v>
       </c>
       <c r="L106" t="n">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
         <v>1719</v>
       </c>
       <c r="O106" t="n">
-        <v>42981</v>
+        <v>43230</v>
       </c>
       <c r="P106" t="n">
-        <v>44700</v>
+        <v>44949</v>
       </c>
     </row>
     <row r="107">
@@ -9857,24 +9908,24 @@
         <v>121</v>
       </c>
       <c r="B107" t="n">
-        <v>27119</v>
+        <v>27044</v>
       </c>
       <c r="C107" t="n">
-        <v>10483</v>
+        <v>10487</v>
       </c>
       <c r="D107" t="n">
-        <v>9696</v>
+        <v>9771</v>
       </c>
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="n">
-        <v>2544</v>
+        <v>2539</v>
       </c>
       <c r="J107"/>
       <c r="K107" t="n">
-        <v>5727</v>
+        <v>5807</v>
       </c>
       <c r="L107" t="n">
         <v>1424</v>
@@ -9884,10 +9935,10 @@
         <v>906</v>
       </c>
       <c r="O107" t="n">
-        <v>47297</v>
+        <v>47301</v>
       </c>
       <c r="P107" t="n">
-        <v>48203</v>
+        <v>48207</v>
       </c>
     </row>
     <row r="108">
@@ -9895,13 +9946,13 @@
         <v>122</v>
       </c>
       <c r="B108" t="n">
-        <v>27212</v>
+        <v>27229</v>
       </c>
       <c r="C108" t="n">
-        <v>10474</v>
+        <v>10469</v>
       </c>
       <c r="D108" t="n">
-        <v>10715</v>
+        <v>10682</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
@@ -9910,7 +9961,7 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="n">
-        <v>6080</v>
+        <v>6050</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
@@ -9918,10 +9969,10 @@
         <v>1656</v>
       </c>
       <c r="O108" t="n">
-        <v>48401</v>
+        <v>48380</v>
       </c>
       <c r="P108" t="n">
-        <v>50057</v>
+        <v>50036</v>
       </c>
     </row>
     <row r="109">
@@ -9929,13 +9980,13 @@
         <v>123</v>
       </c>
       <c r="B109" t="n">
-        <v>27134</v>
+        <v>27082</v>
       </c>
       <c r="C109" t="n">
-        <v>10566</v>
+        <v>10533</v>
       </c>
       <c r="D109" t="n">
-        <v>11353</v>
+        <v>11190</v>
       </c>
       <c r="E109"/>
       <c r="F109"/>
@@ -9944,7 +9995,7 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109" t="n">
-        <v>6639</v>
+        <v>6413</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
@@ -9952,10 +10003,48 @@
         <v>-785</v>
       </c>
       <c r="O109" t="n">
-        <v>49054</v>
+        <v>48806</v>
       </c>
       <c r="P109" t="n">
-        <v>48269</v>
+        <v>48021</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="n">
+        <v>26890</v>
+      </c>
+      <c r="C110" t="n">
+        <v>10488</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10928</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" t="n">
+        <v>3368</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110" t="n">
+        <v>6162</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1399</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110" t="n">
+        <v>3922</v>
+      </c>
+      <c r="O110" t="n">
+        <v>48306</v>
+      </c>
+      <c r="P110" t="n">
+        <v>52227</v>
       </c>
     </row>
   </sheetData>
@@ -15084,6 +15173,54 @@
         <v>55258</v>
       </c>
     </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="n">
+        <v>27785</v>
+      </c>
+      <c r="C110" t="n">
+        <v>10642</v>
+      </c>
+      <c r="D110" t="n">
+        <v>11653</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1671</v>
+      </c>
+      <c r="F110" t="n">
+        <v>723</v>
+      </c>
+      <c r="G110" t="n">
+        <v>3730</v>
+      </c>
+      <c r="H110" t="n">
+        <v>397</v>
+      </c>
+      <c r="I110" t="n">
+        <v>3514</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1584</v>
+      </c>
+      <c r="K110"/>
+      <c r="L110" t="n">
+        <v>1618</v>
+      </c>
+      <c r="M110" t="n">
+        <v>8290</v>
+      </c>
+      <c r="N110" t="n">
+        <v>4332</v>
+      </c>
+      <c r="O110" t="n">
+        <v>50079</v>
+      </c>
+      <c r="P110" t="n">
+        <v>54411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -15159,7 +15296,7 @@
         <v>2247</v>
       </c>
       <c r="D2" t="n">
-        <v>2302</v>
+        <v>2299</v>
       </c>
       <c r="E2"/>
       <c r="F2"/>
@@ -15170,20 +15307,20 @@
       </c>
       <c r="J2"/>
       <c r="K2" t="n">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="L2" t="n">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M2"/>
       <c r="N2" t="n">
         <v>235</v>
       </c>
       <c r="O2" t="n">
-        <v>11568</v>
+        <v>11566</v>
       </c>
       <c r="P2" t="n">
-        <v>11803</v>
+        <v>11801</v>
       </c>
     </row>
     <row r="3">
@@ -15197,7 +15334,7 @@
         <v>2237</v>
       </c>
       <c r="D3" t="n">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
@@ -15208,7 +15345,7 @@
       </c>
       <c r="J3"/>
       <c r="K3" t="n">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="L3" t="n">
         <v>180</v>
@@ -15235,18 +15372,18 @@
         <v>2271</v>
       </c>
       <c r="D4" t="n">
-        <v>2572</v>
+        <v>2573</v>
       </c>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" t="n">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="J4"/>
       <c r="K4" t="n">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="L4" t="n">
         <v>216</v>
@@ -15256,10 +15393,10 @@
         <v>202</v>
       </c>
       <c r="O4" t="n">
-        <v>12202</v>
+        <v>12203</v>
       </c>
       <c r="P4" t="n">
-        <v>12404</v>
+        <v>12405</v>
       </c>
     </row>
     <row r="5">
@@ -15273,7 +15410,7 @@
         <v>2219</v>
       </c>
       <c r="D5" t="n">
-        <v>2582</v>
+        <v>2584</v>
       </c>
       <c r="E5"/>
       <c r="F5"/>
@@ -15284,7 +15421,7 @@
       </c>
       <c r="J5"/>
       <c r="K5" t="n">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="L5" t="n">
         <v>206</v>
@@ -15294,10 +15431,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>12333</v>
+        <v>12335</v>
       </c>
       <c r="P5" t="n">
-        <v>12333</v>
+        <v>12335</v>
       </c>
     </row>
     <row r="6">
@@ -15311,7 +15448,7 @@
         <v>2357</v>
       </c>
       <c r="D6" t="n">
-        <v>2722</v>
+        <v>2720</v>
       </c>
       <c r="E6"/>
       <c r="F6"/>
@@ -15322,20 +15459,20 @@
       </c>
       <c r="J6"/>
       <c r="K6" t="n">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="L6" t="n">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
         <v>174</v>
       </c>
       <c r="O6" t="n">
-        <v>12855</v>
+        <v>12853</v>
       </c>
       <c r="P6" t="n">
-        <v>13029</v>
+        <v>13027</v>
       </c>
     </row>
     <row r="7">
@@ -15349,14 +15486,14 @@
         <v>2368</v>
       </c>
       <c r="D7" t="n">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="n">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J7"/>
       <c r="K7" t="n">
@@ -15370,10 +15507,10 @@
         <v>150</v>
       </c>
       <c r="O7" t="n">
-        <v>13155</v>
+        <v>13154</v>
       </c>
       <c r="P7" t="n">
-        <v>13305</v>
+        <v>13304</v>
       </c>
     </row>
     <row r="8">
@@ -15387,31 +15524,31 @@
         <v>2399</v>
       </c>
       <c r="D8" t="n">
-        <v>2990</v>
+        <v>2991</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="n">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="J8"/>
       <c r="K8" t="n">
         <v>1692</v>
       </c>
       <c r="L8" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M8"/>
       <c r="N8" t="n">
         <v>68</v>
       </c>
       <c r="O8" t="n">
-        <v>13550</v>
+        <v>13551</v>
       </c>
       <c r="P8" t="n">
-        <v>13618</v>
+        <v>13619</v>
       </c>
     </row>
     <row r="9">
@@ -15425,7 +15562,7 @@
         <v>2318</v>
       </c>
       <c r="D9" t="n">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="E9"/>
       <c r="F9"/>
@@ -15436,20 +15573,20 @@
       </c>
       <c r="J9"/>
       <c r="K9" t="n">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="L9" t="n">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="O9" t="n">
-        <v>13758</v>
+        <v>13760</v>
       </c>
       <c r="P9" t="n">
-        <v>13880</v>
+        <v>13882</v>
       </c>
     </row>
     <row r="10">
@@ -15477,7 +15614,7 @@
         <v>1911</v>
       </c>
       <c r="L10" t="n">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
@@ -15487,7 +15624,7 @@
         <v>14131</v>
       </c>
       <c r="P10" t="n">
-        <v>14383</v>
+        <v>14382</v>
       </c>
     </row>
     <row r="11">
@@ -15501,18 +15638,18 @@
         <v>2660</v>
       </c>
       <c r="D11" t="n">
-        <v>3484</v>
+        <v>3481</v>
       </c>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
       <c r="I11" t="n">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="J11"/>
       <c r="K11" t="n">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="L11" t="n">
         <v>276</v>
@@ -15522,10 +15659,10 @@
         <v>193</v>
       </c>
       <c r="O11" t="n">
-        <v>14828</v>
+        <v>14826</v>
       </c>
       <c r="P11" t="n">
-        <v>15022</v>
+        <v>15019</v>
       </c>
     </row>
     <row r="12">
@@ -15546,7 +15683,7 @@
       <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="n">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="J12"/>
       <c r="K12" t="n">
@@ -15560,10 +15697,10 @@
         <v>212</v>
       </c>
       <c r="O12" t="n">
-        <v>14981</v>
+        <v>14982</v>
       </c>
       <c r="P12" t="n">
-        <v>15193</v>
+        <v>15194</v>
       </c>
     </row>
     <row r="13">
@@ -15577,31 +15714,31 @@
         <v>2724</v>
       </c>
       <c r="D13" t="n">
-        <v>4216</v>
+        <v>4218</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="n">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="J13"/>
       <c r="K13" t="n">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="L13" t="n">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
         <v>229</v>
       </c>
       <c r="O13" t="n">
-        <v>16333</v>
+        <v>16335</v>
       </c>
       <c r="P13" t="n">
-        <v>16562</v>
+        <v>16565</v>
       </c>
     </row>
     <row r="14">
@@ -15615,7 +15752,7 @@
         <v>2762</v>
       </c>
       <c r="D14" t="n">
-        <v>4073</v>
+        <v>4071</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -15626,20 +15763,20 @@
       </c>
       <c r="J14"/>
       <c r="K14" t="n">
-        <v>2357</v>
+        <v>2356</v>
       </c>
       <c r="L14" t="n">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="M14"/>
       <c r="N14" t="n">
         <v>237</v>
       </c>
       <c r="O14" t="n">
-        <v>16411</v>
+        <v>16408</v>
       </c>
       <c r="P14" t="n">
-        <v>16647</v>
+        <v>16645</v>
       </c>
     </row>
     <row r="15">
@@ -15664,17 +15801,17 @@
       </c>
       <c r="J15"/>
       <c r="K15" t="n">
-        <v>2516</v>
+        <v>2515</v>
       </c>
       <c r="L15" t="n">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M15"/>
       <c r="N15" t="n">
         <v>248</v>
       </c>
       <c r="O15" t="n">
-        <v>17052</v>
+        <v>17051</v>
       </c>
       <c r="P15" t="n">
         <v>17299</v>
@@ -15691,14 +15828,14 @@
         <v>2940</v>
       </c>
       <c r="D16" t="n">
-        <v>4418</v>
+        <v>4419</v>
       </c>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="n">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="J16"/>
       <c r="K16" t="n">
@@ -15709,13 +15846,13 @@
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="O16" t="n">
-        <v>17526</v>
+        <v>17527</v>
       </c>
       <c r="P16" t="n">
-        <v>18114</v>
+        <v>18115</v>
       </c>
     </row>
     <row r="17">
@@ -15729,31 +15866,31 @@
         <v>3037</v>
       </c>
       <c r="D17" t="n">
-        <v>4926</v>
+        <v>4928</v>
       </c>
       <c r="E17"/>
       <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
       <c r="I17" t="n">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="J17"/>
       <c r="K17" t="n">
-        <v>2941</v>
+        <v>2942</v>
       </c>
       <c r="L17" t="n">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M17"/>
       <c r="N17" t="n">
         <v>188</v>
       </c>
       <c r="O17" t="n">
-        <v>18317</v>
+        <v>18319</v>
       </c>
       <c r="P17" t="n">
-        <v>18505</v>
+        <v>18507</v>
       </c>
     </row>
     <row r="18">
@@ -15767,7 +15904,7 @@
         <v>3101</v>
       </c>
       <c r="D18" t="n">
-        <v>4836</v>
+        <v>4835</v>
       </c>
       <c r="E18"/>
       <c r="F18"/>
@@ -15778,20 +15915,20 @@
       </c>
       <c r="J18"/>
       <c r="K18" t="n">
-        <v>3110</v>
+        <v>3109</v>
       </c>
       <c r="L18" t="n">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="M18"/>
       <c r="N18" t="n">
         <v>240</v>
       </c>
       <c r="O18" t="n">
-        <v>18748</v>
+        <v>18747</v>
       </c>
       <c r="P18" t="n">
-        <v>18989</v>
+        <v>18987</v>
       </c>
     </row>
     <row r="19">
@@ -15805,18 +15942,18 @@
         <v>3172</v>
       </c>
       <c r="D19" t="n">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="E19"/>
       <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="n">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="J19"/>
       <c r="K19" t="n">
-        <v>3156</v>
+        <v>3155</v>
       </c>
       <c r="L19" t="n">
         <v>362</v>
@@ -15826,10 +15963,10 @@
         <v>-148</v>
       </c>
       <c r="O19" t="n">
-        <v>19221</v>
+        <v>19219</v>
       </c>
       <c r="P19" t="n">
-        <v>19073</v>
+        <v>19071</v>
       </c>
     </row>
     <row r="20">
@@ -15843,14 +15980,14 @@
         <v>3283</v>
       </c>
       <c r="D20" t="n">
-        <v>5965</v>
+        <v>5966</v>
       </c>
       <c r="E20"/>
       <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
       <c r="I20" t="n">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="J20"/>
       <c r="K20" t="n">
@@ -15861,13 +15998,13 @@
       </c>
       <c r="M20"/>
       <c r="N20" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="O20" t="n">
-        <v>20954</v>
+        <v>20955</v>
       </c>
       <c r="P20" t="n">
-        <v>21024</v>
+        <v>21025</v>
       </c>
     </row>
     <row r="21">
@@ -15881,31 +16018,31 @@
         <v>3354</v>
       </c>
       <c r="D21" t="n">
-        <v>5864</v>
+        <v>5866</v>
       </c>
       <c r="E21"/>
       <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
       <c r="I21" t="n">
-        <v>1928</v>
+        <v>1927</v>
       </c>
       <c r="J21"/>
       <c r="K21" t="n">
-        <v>3561</v>
+        <v>3562</v>
       </c>
       <c r="L21" t="n">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M21"/>
       <c r="N21" t="n">
         <v>226</v>
       </c>
       <c r="O21" t="n">
-        <v>20956</v>
+        <v>20958</v>
       </c>
       <c r="P21" t="n">
-        <v>21182</v>
+        <v>21184</v>
       </c>
     </row>
     <row r="22">
@@ -15919,31 +16056,31 @@
         <v>3433</v>
       </c>
       <c r="D22" t="n">
-        <v>6082</v>
+        <v>6079</v>
       </c>
       <c r="E22"/>
       <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
       <c r="I22" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="J22"/>
       <c r="K22" t="n">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="L22" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O22" t="n">
-        <v>22040</v>
+        <v>22037</v>
       </c>
       <c r="P22" t="n">
-        <v>22137</v>
+        <v>22133</v>
       </c>
     </row>
     <row r="23">
@@ -15957,18 +16094,18 @@
         <v>3590</v>
       </c>
       <c r="D23" t="n">
-        <v>6293</v>
+        <v>6294</v>
       </c>
       <c r="E23"/>
       <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
       <c r="I23" t="n">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="J23"/>
       <c r="K23" t="n">
-        <v>3997</v>
+        <v>3996</v>
       </c>
       <c r="L23" t="n">
         <v>381</v>
@@ -15995,18 +16132,18 @@
         <v>3697</v>
       </c>
       <c r="D24" t="n">
-        <v>6338</v>
+        <v>6340</v>
       </c>
       <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
       <c r="I24" t="n">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="J24"/>
       <c r="K24" t="n">
-        <v>4037</v>
+        <v>4038</v>
       </c>
       <c r="L24" t="n">
         <v>356</v>
@@ -16016,10 +16153,10 @@
         <v>325</v>
       </c>
       <c r="O24" t="n">
-        <v>23253</v>
+        <v>23255</v>
       </c>
       <c r="P24" t="n">
-        <v>23578</v>
+        <v>23580</v>
       </c>
     </row>
     <row r="25">
@@ -16030,34 +16167,34 @@
         <v>13524</v>
       </c>
       <c r="C25" t="n">
-        <v>3995</v>
+        <v>3994</v>
       </c>
       <c r="D25" t="n">
-        <v>6470</v>
+        <v>6471</v>
       </c>
       <c r="E25"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
       <c r="I25" t="n">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J25"/>
       <c r="K25" t="n">
-        <v>4140</v>
+        <v>4141</v>
       </c>
       <c r="L25" t="n">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="O25" t="n">
-        <v>23988</v>
+        <v>23990</v>
       </c>
       <c r="P25" t="n">
-        <v>24361</v>
+        <v>24362</v>
       </c>
     </row>
     <row r="26">
@@ -16071,31 +16208,31 @@
         <v>4040</v>
       </c>
       <c r="D26" t="n">
-        <v>7039</v>
+        <v>7035</v>
       </c>
       <c r="E26"/>
       <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26" t="n">
-        <v>2049</v>
+        <v>2048</v>
       </c>
       <c r="J26"/>
       <c r="K26" t="n">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="L26" t="n">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O26" t="n">
-        <v>24860</v>
+        <v>24856</v>
       </c>
       <c r="P26" t="n">
-        <v>25158</v>
+        <v>25154</v>
       </c>
     </row>
     <row r="27">
@@ -16109,7 +16246,7 @@
         <v>4215</v>
       </c>
       <c r="D27" t="n">
-        <v>7109</v>
+        <v>7108</v>
       </c>
       <c r="E27"/>
       <c r="F27"/>
@@ -16120,7 +16257,7 @@
       </c>
       <c r="J27"/>
       <c r="K27" t="n">
-        <v>4628</v>
+        <v>4627</v>
       </c>
       <c r="L27" t="n">
         <v>643</v>
@@ -16130,10 +16267,10 @@
         <v>-366</v>
       </c>
       <c r="O27" t="n">
-        <v>25452</v>
+        <v>25451</v>
       </c>
       <c r="P27" t="n">
-        <v>25086</v>
+        <v>25085</v>
       </c>
     </row>
     <row r="28">
@@ -16147,31 +16284,31 @@
         <v>4372</v>
       </c>
       <c r="D28" t="n">
-        <v>6533</v>
+        <v>6535</v>
       </c>
       <c r="E28"/>
       <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28" t="n">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="J28"/>
       <c r="K28" t="n">
-        <v>4510</v>
+        <v>4512</v>
       </c>
       <c r="L28" t="n">
         <v>446</v>
       </c>
       <c r="M28"/>
       <c r="N28" t="n">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="O28" t="n">
-        <v>25272</v>
+        <v>25274</v>
       </c>
       <c r="P28" t="n">
-        <v>25734</v>
+        <v>25737</v>
       </c>
     </row>
     <row r="29">
@@ -16185,7 +16322,7 @@
         <v>4667</v>
       </c>
       <c r="D29" t="n">
-        <v>6634</v>
+        <v>6635</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -16199,17 +16336,17 @@
         <v>4621</v>
       </c>
       <c r="L29" t="n">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="M29"/>
       <c r="N29" t="n">
         <v>-21</v>
       </c>
       <c r="O29" t="n">
-        <v>26130</v>
+        <v>26131</v>
       </c>
       <c r="P29" t="n">
-        <v>26110</v>
+        <v>26111</v>
       </c>
     </row>
     <row r="30">
@@ -16223,31 +16360,31 @@
         <v>4764</v>
       </c>
       <c r="D30" t="n">
-        <v>7159</v>
+        <v>7161</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30" t="n">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="J30"/>
       <c r="K30" t="n">
-        <v>4767</v>
+        <v>4769</v>
       </c>
       <c r="L30" t="n">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M30"/>
       <c r="N30" t="n">
-        <v>-106</v>
+        <v>-108</v>
       </c>
       <c r="O30" t="n">
-        <v>27027</v>
+        <v>27029</v>
       </c>
       <c r="P30" t="n">
-        <v>26920</v>
+        <v>26921</v>
       </c>
     </row>
     <row r="31">
@@ -16261,31 +16398,31 @@
         <v>4880</v>
       </c>
       <c r="D31" t="n">
-        <v>7040</v>
+        <v>7034</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31" t="n">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="J31"/>
       <c r="K31" t="n">
-        <v>4871</v>
+        <v>4867</v>
       </c>
       <c r="L31" t="n">
         <v>374</v>
       </c>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O31" t="n">
-        <v>27293</v>
+        <v>27286</v>
       </c>
       <c r="P31" t="n">
-        <v>27578</v>
+        <v>27572</v>
       </c>
     </row>
     <row r="32">
@@ -16299,31 +16436,31 @@
         <v>4954</v>
       </c>
       <c r="D32" t="n">
-        <v>7526</v>
+        <v>7530</v>
       </c>
       <c r="E32"/>
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32" t="n">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="J32"/>
       <c r="K32" t="n">
-        <v>5194</v>
+        <v>5197</v>
       </c>
       <c r="L32" t="n">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M32"/>
       <c r="N32" t="n">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="O32" t="n">
-        <v>28359</v>
+        <v>28362</v>
       </c>
       <c r="P32" t="n">
-        <v>28687</v>
+        <v>28691</v>
       </c>
     </row>
     <row r="33">
@@ -16337,7 +16474,7 @@
         <v>5036</v>
       </c>
       <c r="D33" t="n">
-        <v>7254</v>
+        <v>7255</v>
       </c>
       <c r="E33"/>
       <c r="F33"/>
@@ -16351,17 +16488,17 @@
         <v>5260</v>
       </c>
       <c r="L33" t="n">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M33"/>
       <c r="N33" t="n">
         <v>134</v>
       </c>
       <c r="O33" t="n">
-        <v>28383</v>
+        <v>28384</v>
       </c>
       <c r="P33" t="n">
-        <v>28518</v>
+        <v>28519</v>
       </c>
     </row>
     <row r="34">
@@ -16375,31 +16512,31 @@
         <v>5243</v>
       </c>
       <c r="D34" t="n">
-        <v>7328</v>
+        <v>7323</v>
       </c>
       <c r="E34"/>
       <c r="F34"/>
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34" t="n">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="J34"/>
       <c r="K34" t="n">
-        <v>5422</v>
+        <v>5420</v>
       </c>
       <c r="L34" t="n">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M34"/>
       <c r="N34" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="O34" t="n">
-        <v>29020</v>
+        <v>29016</v>
       </c>
       <c r="P34" t="n">
-        <v>29289</v>
+        <v>29283</v>
       </c>
     </row>
     <row r="35">
@@ -16413,7 +16550,7 @@
         <v>5247</v>
       </c>
       <c r="D35" t="n">
-        <v>7739</v>
+        <v>7738</v>
       </c>
       <c r="E35"/>
       <c r="F35"/>
@@ -16424,20 +16561,20 @@
       </c>
       <c r="J35"/>
       <c r="K35" t="n">
-        <v>5585</v>
+        <v>5584</v>
       </c>
       <c r="L35" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="M35"/>
       <c r="N35" t="n">
         <v>421</v>
       </c>
       <c r="O35" t="n">
-        <v>29647</v>
+        <v>29646</v>
       </c>
       <c r="P35" t="n">
-        <v>30068</v>
+        <v>30067</v>
       </c>
     </row>
     <row r="36">
@@ -16451,31 +16588,31 @@
         <v>5376</v>
       </c>
       <c r="D36" t="n">
-        <v>8237</v>
+        <v>8243</v>
       </c>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36"/>
       <c r="H36"/>
       <c r="I36" t="n">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="J36"/>
       <c r="K36" t="n">
-        <v>6052</v>
+        <v>6058</v>
       </c>
       <c r="L36" t="n">
         <v>339</v>
       </c>
       <c r="M36"/>
       <c r="N36" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O36" t="n">
-        <v>30311</v>
+        <v>30316</v>
       </c>
       <c r="P36" t="n">
-        <v>30348</v>
+        <v>30355</v>
       </c>
     </row>
     <row r="37">
@@ -16489,31 +16626,31 @@
         <v>5443</v>
       </c>
       <c r="D37" t="n">
-        <v>9337</v>
+        <v>9339</v>
       </c>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37"/>
       <c r="H37"/>
       <c r="I37" t="n">
-        <v>1975</v>
+        <v>1974</v>
       </c>
       <c r="J37"/>
       <c r="K37" t="n">
-        <v>6494</v>
+        <v>6492</v>
       </c>
       <c r="L37" t="n">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="M37"/>
       <c r="N37" t="n">
         <v>495</v>
       </c>
       <c r="O37" t="n">
-        <v>31757</v>
+        <v>31759</v>
       </c>
       <c r="P37" t="n">
-        <v>32252</v>
+        <v>32254</v>
       </c>
     </row>
     <row r="38">
@@ -16527,31 +16664,31 @@
         <v>5196</v>
       </c>
       <c r="D38" t="n">
-        <v>8693</v>
+        <v>8688</v>
       </c>
       <c r="E38"/>
       <c r="F38"/>
       <c r="G38"/>
       <c r="H38"/>
       <c r="I38" t="n">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="J38"/>
       <c r="K38" t="n">
-        <v>6586</v>
+        <v>6583</v>
       </c>
       <c r="L38" t="n">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M38"/>
       <c r="N38" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O38" t="n">
-        <v>31292</v>
+        <v>31287</v>
       </c>
       <c r="P38" t="n">
-        <v>31343</v>
+        <v>31336</v>
       </c>
     </row>
     <row r="39">
@@ -16562,10 +16699,10 @@
         <v>17546</v>
       </c>
       <c r="C39" t="n">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="D39" t="n">
-        <v>9453</v>
+        <v>9451</v>
       </c>
       <c r="E39"/>
       <c r="F39"/>
@@ -16576,7 +16713,7 @@
       </c>
       <c r="J39"/>
       <c r="K39" t="n">
-        <v>7093</v>
+        <v>7092</v>
       </c>
       <c r="L39" t="n">
         <v>544</v>
@@ -16586,10 +16723,10 @@
         <v>194</v>
       </c>
       <c r="O39" t="n">
-        <v>32755</v>
+        <v>32754</v>
       </c>
       <c r="P39" t="n">
-        <v>32949</v>
+        <v>32948</v>
       </c>
     </row>
     <row r="40">
@@ -16603,7 +16740,7 @@
         <v>5917</v>
       </c>
       <c r="D40" t="n">
-        <v>9709</v>
+        <v>9715</v>
       </c>
       <c r="E40"/>
       <c r="F40"/>
@@ -16614,20 +16751,20 @@
       </c>
       <c r="J40"/>
       <c r="K40" t="n">
-        <v>7043</v>
+        <v>7049</v>
       </c>
       <c r="L40" t="n">
         <v>670</v>
       </c>
       <c r="M40"/>
       <c r="N40" t="n">
-        <v>-19</v>
+        <v>-16</v>
       </c>
       <c r="O40" t="n">
-        <v>33356</v>
+        <v>33362</v>
       </c>
       <c r="P40" t="n">
-        <v>33337</v>
+        <v>33346</v>
       </c>
     </row>
     <row r="41">
@@ -16652,10 +16789,10 @@
       </c>
       <c r="J41"/>
       <c r="K41" t="n">
-        <v>7567</v>
+        <v>7565</v>
       </c>
       <c r="L41" t="n">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M41"/>
       <c r="N41" t="n">
@@ -16676,34 +16813,34 @@
         <v>18383</v>
       </c>
       <c r="C42" t="n">
-        <v>5959</v>
+        <v>5960</v>
       </c>
       <c r="D42" t="n">
-        <v>10545</v>
+        <v>10546</v>
       </c>
       <c r="E42"/>
       <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
       <c r="I42" t="n">
-        <v>1967</v>
+        <v>1969</v>
       </c>
       <c r="J42"/>
       <c r="K42" t="n">
-        <v>7778</v>
+        <v>7780</v>
       </c>
       <c r="L42" t="n">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="M42"/>
       <c r="N42" t="n">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="O42" t="n">
-        <v>34887</v>
+        <v>34889</v>
       </c>
       <c r="P42" t="n">
-        <v>35199</v>
+        <v>35197</v>
       </c>
     </row>
     <row r="43">
@@ -16717,18 +16854,18 @@
         <v>6057</v>
       </c>
       <c r="D43" t="n">
-        <v>11380</v>
+        <v>11371</v>
       </c>
       <c r="E43"/>
       <c r="F43"/>
       <c r="G43"/>
       <c r="H43"/>
       <c r="I43" t="n">
-        <v>2322</v>
+        <v>2320</v>
       </c>
       <c r="J43"/>
       <c r="K43" t="n">
-        <v>8281</v>
+        <v>8273</v>
       </c>
       <c r="L43" t="n">
         <v>777</v>
@@ -16738,10 +16875,10 @@
         <v>110</v>
       </c>
       <c r="O43" t="n">
-        <v>36406</v>
+        <v>36396</v>
       </c>
       <c r="P43" t="n">
-        <v>36515</v>
+        <v>36505</v>
       </c>
     </row>
     <row r="44">
@@ -16755,7 +16892,7 @@
         <v>6253</v>
       </c>
       <c r="D44" t="n">
-        <v>11231</v>
+        <v>11238</v>
       </c>
       <c r="E44"/>
       <c r="F44"/>
@@ -16766,20 +16903,20 @@
       </c>
       <c r="J44"/>
       <c r="K44" t="n">
-        <v>8575</v>
+        <v>8582</v>
       </c>
       <c r="L44" t="n">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="M44"/>
       <c r="N44" t="n">
-        <v>-363</v>
+        <v>-358</v>
       </c>
       <c r="O44" t="n">
-        <v>37191</v>
+        <v>37198</v>
       </c>
       <c r="P44" t="n">
-        <v>36828</v>
+        <v>36840</v>
       </c>
     </row>
     <row r="45">
@@ -16793,7 +16930,7 @@
         <v>6346</v>
       </c>
       <c r="D45" t="n">
-        <v>11965</v>
+        <v>11966</v>
       </c>
       <c r="E45"/>
       <c r="F45"/>
@@ -16804,20 +16941,20 @@
       </c>
       <c r="J45"/>
       <c r="K45" t="n">
-        <v>8879</v>
+        <v>8876</v>
       </c>
       <c r="L45" t="n">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="M45"/>
       <c r="N45" t="n">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="O45" t="n">
-        <v>38254</v>
+        <v>38255</v>
       </c>
       <c r="P45" t="n">
-        <v>39006</v>
+        <v>39007</v>
       </c>
     </row>
     <row r="46">
@@ -16831,31 +16968,31 @@
         <v>6480</v>
       </c>
       <c r="D46" t="n">
-        <v>12283</v>
+        <v>12274</v>
       </c>
       <c r="E46"/>
       <c r="F46"/>
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46" t="n">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="J46"/>
       <c r="K46" t="n">
-        <v>9274</v>
+        <v>9269</v>
       </c>
       <c r="L46" t="n">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="M46"/>
       <c r="N46" t="n">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="O46" t="n">
-        <v>38922</v>
+        <v>38914</v>
       </c>
       <c r="P46" t="n">
-        <v>39515</v>
+        <v>39500</v>
       </c>
     </row>
     <row r="47">
@@ -16869,7 +17006,7 @@
         <v>6675</v>
       </c>
       <c r="D47" t="n">
-        <v>12035</v>
+        <v>12037</v>
       </c>
       <c r="E47"/>
       <c r="F47"/>
@@ -16880,20 +17017,20 @@
       </c>
       <c r="J47"/>
       <c r="K47" t="n">
-        <v>9378</v>
+        <v>9379</v>
       </c>
       <c r="L47" t="n">
         <v>759</v>
       </c>
       <c r="M47"/>
       <c r="N47" t="n">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="O47" t="n">
-        <v>39643</v>
+        <v>39644</v>
       </c>
       <c r="P47" t="n">
-        <v>40623</v>
+        <v>40625</v>
       </c>
     </row>
     <row r="48">
@@ -16907,31 +17044,31 @@
         <v>6824</v>
       </c>
       <c r="D48" t="n">
-        <v>12853</v>
+        <v>12858</v>
       </c>
       <c r="E48"/>
       <c r="F48"/>
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48" t="n">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="J48"/>
       <c r="K48" t="n">
-        <v>9786</v>
+        <v>9791</v>
       </c>
       <c r="L48" t="n">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="M48"/>
       <c r="N48" t="n">
-        <v>-342</v>
+        <v>-337</v>
       </c>
       <c r="O48" t="n">
-        <v>40947</v>
+        <v>40951</v>
       </c>
       <c r="P48" t="n">
-        <v>40604</v>
+        <v>40615</v>
       </c>
     </row>
     <row r="49">
@@ -16945,7 +17082,7 @@
         <v>6978</v>
       </c>
       <c r="D49" t="n">
-        <v>12939</v>
+        <v>12942</v>
       </c>
       <c r="E49"/>
       <c r="F49"/>
@@ -16956,20 +17093,20 @@
       </c>
       <c r="J49"/>
       <c r="K49" t="n">
-        <v>9679</v>
+        <v>9677</v>
       </c>
       <c r="L49" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="M49"/>
       <c r="N49" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="O49" t="n">
-        <v>41604</v>
+        <v>41606</v>
       </c>
       <c r="P49" t="n">
-        <v>42008</v>
+        <v>42012</v>
       </c>
     </row>
     <row r="50">
@@ -16983,31 +17120,31 @@
         <v>7272</v>
       </c>
       <c r="D50" t="n">
-        <v>13477</v>
+        <v>13470</v>
       </c>
       <c r="E50"/>
       <c r="F50"/>
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50" t="n">
-        <v>2922</v>
+        <v>2923</v>
       </c>
       <c r="J50"/>
       <c r="K50" t="n">
-        <v>9962</v>
+        <v>9958</v>
       </c>
       <c r="L50" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="M50"/>
       <c r="N50" t="n">
-        <v>-14</v>
+        <v>-24</v>
       </c>
       <c r="O50" t="n">
-        <v>43282</v>
+        <v>43276</v>
       </c>
       <c r="P50" t="n">
-        <v>43268</v>
+        <v>43252</v>
       </c>
     </row>
     <row r="51">
@@ -17021,31 +17158,31 @@
         <v>7405</v>
       </c>
       <c r="D51" t="n">
-        <v>12568</v>
+        <v>12569</v>
       </c>
       <c r="E51"/>
       <c r="F51"/>
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51" t="n">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="J51"/>
       <c r="K51" t="n">
-        <v>9403</v>
+        <v>9404</v>
       </c>
       <c r="L51" t="n">
         <v>581</v>
       </c>
       <c r="M51"/>
       <c r="N51" t="n">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O51" t="n">
-        <v>42978</v>
+        <v>42979</v>
       </c>
       <c r="P51" t="n">
-        <v>43160</v>
+        <v>43162</v>
       </c>
     </row>
     <row r="52">
@@ -17059,7 +17196,7 @@
         <v>7523</v>
       </c>
       <c r="D52" t="n">
-        <v>11609</v>
+        <v>11611</v>
       </c>
       <c r="E52"/>
       <c r="F52"/>
@@ -17070,20 +17207,20 @@
       </c>
       <c r="J52"/>
       <c r="K52" t="n">
-        <v>8797</v>
+        <v>8800</v>
       </c>
       <c r="L52" t="n">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="M52"/>
       <c r="N52" t="n">
-        <v>-396</v>
+        <v>-389</v>
       </c>
       <c r="O52" t="n">
-        <v>42482</v>
+        <v>42483</v>
       </c>
       <c r="P52" t="n">
-        <v>42085</v>
+        <v>42094</v>
       </c>
     </row>
     <row r="53">
@@ -17094,34 +17231,34 @@
         <v>23594</v>
       </c>
       <c r="C53" t="n">
-        <v>7565</v>
+        <v>7564</v>
       </c>
       <c r="D53" t="n">
-        <v>11740</v>
+        <v>11744</v>
       </c>
       <c r="E53"/>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53" t="n">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="J53"/>
       <c r="K53" t="n">
-        <v>8503</v>
+        <v>8502</v>
       </c>
       <c r="L53" t="n">
-        <v>955</v>
+        <v>959</v>
       </c>
       <c r="M53"/>
       <c r="N53" t="n">
-        <v>1270</v>
+        <v>1273</v>
       </c>
       <c r="O53" t="n">
-        <v>42898</v>
+        <v>42902</v>
       </c>
       <c r="P53" t="n">
-        <v>44168</v>
+        <v>44175</v>
       </c>
     </row>
     <row r="54">
@@ -17135,31 +17272,31 @@
         <v>7665</v>
       </c>
       <c r="D54" t="n">
-        <v>12127</v>
+        <v>12129</v>
       </c>
       <c r="E54"/>
       <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54" t="n">
-        <v>2689</v>
+        <v>2690</v>
       </c>
       <c r="J54"/>
       <c r="K54" t="n">
-        <v>8616</v>
+        <v>8619</v>
       </c>
       <c r="L54" t="n">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="M54"/>
       <c r="N54" t="n">
-        <v>-445</v>
+        <v>-458</v>
       </c>
       <c r="O54" t="n">
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="P54" t="n">
-        <v>43328</v>
+        <v>43317</v>
       </c>
     </row>
     <row r="55">
@@ -17173,31 +17310,31 @@
         <v>7825</v>
       </c>
       <c r="D55" t="n">
-        <v>10323</v>
+        <v>10318</v>
       </c>
       <c r="E55"/>
       <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55" t="n">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="J55"/>
       <c r="K55" t="n">
-        <v>7722</v>
+        <v>7719</v>
       </c>
       <c r="L55" t="n">
         <v>878</v>
       </c>
       <c r="M55"/>
       <c r="N55" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O55" t="n">
-        <v>41706</v>
+        <v>41700</v>
       </c>
       <c r="P55" t="n">
-        <v>42048</v>
+        <v>42044</v>
       </c>
     </row>
     <row r="56">
@@ -17222,20 +17359,20 @@
       </c>
       <c r="J56"/>
       <c r="K56" t="n">
-        <v>7064</v>
+        <v>7065</v>
       </c>
       <c r="L56" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="M56"/>
       <c r="N56" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="O56" t="n">
-        <v>41570</v>
+        <v>41569</v>
       </c>
       <c r="P56" t="n">
-        <v>41587</v>
+        <v>41597</v>
       </c>
     </row>
     <row r="57">
@@ -17249,31 +17386,31 @@
         <v>7899</v>
       </c>
       <c r="D57" t="n">
-        <v>8240</v>
+        <v>8245</v>
       </c>
       <c r="E57"/>
       <c r="F57"/>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57" t="n">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="J57"/>
       <c r="K57" t="n">
         <v>5801</v>
       </c>
       <c r="L57" t="n">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="M57"/>
       <c r="N57" t="n">
-        <v>-240</v>
+        <v>-232</v>
       </c>
       <c r="O57" t="n">
-        <v>39429</v>
+        <v>39433</v>
       </c>
       <c r="P57" t="n">
-        <v>39189</v>
+        <v>39201</v>
       </c>
     </row>
     <row r="58">
@@ -17287,31 +17424,31 @@
         <v>7858</v>
       </c>
       <c r="D58" t="n">
-        <v>7464</v>
+        <v>7460</v>
       </c>
       <c r="E58"/>
       <c r="F58"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58" t="n">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="J58"/>
       <c r="K58" t="n">
-        <v>5225</v>
+        <v>5224</v>
       </c>
       <c r="L58" t="n">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M58"/>
       <c r="N58" t="n">
-        <v>-614</v>
+        <v>-638</v>
       </c>
       <c r="O58" t="n">
-        <v>36852</v>
+        <v>36847</v>
       </c>
       <c r="P58" t="n">
-        <v>36238</v>
+        <v>36209</v>
       </c>
     </row>
     <row r="59">
@@ -17325,7 +17462,7 @@
         <v>7359</v>
       </c>
       <c r="D59" t="n">
-        <v>6987</v>
+        <v>6988</v>
       </c>
       <c r="E59"/>
       <c r="F59"/>
@@ -17343,13 +17480,13 @@
       </c>
       <c r="M59"/>
       <c r="N59" t="n">
-        <v>-167</v>
+        <v>-161</v>
       </c>
       <c r="O59" t="n">
         <v>35491</v>
       </c>
       <c r="P59" t="n">
-        <v>35324</v>
+        <v>35330</v>
       </c>
     </row>
     <row r="60">
@@ -17377,17 +17514,17 @@
         <v>3943</v>
       </c>
       <c r="L60" t="n">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="M60"/>
       <c r="N60" t="n">
-        <v>-452</v>
+        <v>-438</v>
       </c>
       <c r="O60" t="n">
         <v>34528</v>
       </c>
       <c r="P60" t="n">
-        <v>34076</v>
+        <v>34090</v>
       </c>
     </row>
     <row r="61">
@@ -17401,31 +17538,31 @@
         <v>7402</v>
       </c>
       <c r="D61" t="n">
-        <v>5662</v>
+        <v>5666</v>
       </c>
       <c r="E61"/>
       <c r="F61"/>
       <c r="G61"/>
       <c r="H61"/>
       <c r="I61" t="n">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="J61"/>
       <c r="K61" t="n">
         <v>3441</v>
       </c>
       <c r="L61" t="n">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="M61"/>
       <c r="N61" t="n">
-        <v>-236</v>
+        <v>-225</v>
       </c>
       <c r="O61" t="n">
-        <v>33754</v>
+        <v>33758</v>
       </c>
       <c r="P61" t="n">
-        <v>33518</v>
+        <v>33533</v>
       </c>
     </row>
     <row r="62">
@@ -17439,31 +17576,31 @@
         <v>6806</v>
       </c>
       <c r="D62" t="n">
-        <v>5188</v>
+        <v>5184</v>
       </c>
       <c r="E62"/>
       <c r="F62"/>
       <c r="G62"/>
       <c r="H62"/>
       <c r="I62" t="n">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="J62"/>
       <c r="K62" t="n">
         <v>3091</v>
       </c>
       <c r="L62" t="n">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="M62"/>
       <c r="N62" t="n">
-        <v>-822</v>
+        <v>-857</v>
       </c>
       <c r="O62" t="n">
-        <v>32818</v>
+        <v>32814</v>
       </c>
       <c r="P62" t="n">
-        <v>31996</v>
+        <v>31956</v>
       </c>
     </row>
     <row r="63">
@@ -17477,14 +17614,14 @@
         <v>6642</v>
       </c>
       <c r="D63" t="n">
-        <v>5567</v>
+        <v>5566</v>
       </c>
       <c r="E63"/>
       <c r="F63"/>
       <c r="G63"/>
       <c r="H63"/>
       <c r="I63" t="n">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="J63"/>
       <c r="K63" t="n">
@@ -17495,13 +17632,13 @@
       </c>
       <c r="M63"/>
       <c r="N63" t="n">
-        <v>-369</v>
+        <v>-361</v>
       </c>
       <c r="O63" t="n">
-        <v>33134</v>
+        <v>33133</v>
       </c>
       <c r="P63" t="n">
-        <v>32765</v>
+        <v>32773</v>
       </c>
     </row>
     <row r="64">
@@ -17522,24 +17659,24 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64" t="n">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="J64"/>
       <c r="K64" t="n">
         <v>2691</v>
       </c>
       <c r="L64" t="n">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="M64"/>
       <c r="N64" t="n">
-        <v>253</v>
+        <v>272</v>
       </c>
       <c r="O64" t="n">
-        <v>32424</v>
+        <v>32423</v>
       </c>
       <c r="P64" t="n">
-        <v>32677</v>
+        <v>32695</v>
       </c>
     </row>
     <row r="65">
@@ -17553,31 +17690,31 @@
         <v>6836</v>
       </c>
       <c r="D65" t="n">
-        <v>4791</v>
+        <v>4796</v>
       </c>
       <c r="E65"/>
       <c r="F65"/>
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65" t="n">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="J65"/>
       <c r="K65" t="n">
         <v>2573</v>
       </c>
       <c r="L65" t="n">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="M65"/>
       <c r="N65" t="n">
-        <v>414</v>
+        <v>432</v>
       </c>
       <c r="O65" t="n">
-        <v>32487</v>
+        <v>32492</v>
       </c>
       <c r="P65" t="n">
-        <v>32901</v>
+        <v>32925</v>
       </c>
     </row>
     <row r="66">
@@ -17591,31 +17728,31 @@
         <v>7056</v>
       </c>
       <c r="D66" t="n">
-        <v>4429</v>
+        <v>4424</v>
       </c>
       <c r="E66"/>
       <c r="F66"/>
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66" t="n">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="J66"/>
       <c r="K66" t="n">
         <v>2445</v>
       </c>
       <c r="L66" t="n">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="M66"/>
       <c r="N66" t="n">
-        <v>245</v>
+        <v>189</v>
       </c>
       <c r="O66" t="n">
-        <v>32402</v>
+        <v>32397</v>
       </c>
       <c r="P66" t="n">
-        <v>32647</v>
+        <v>32586</v>
       </c>
     </row>
     <row r="67">
@@ -17636,24 +17773,24 @@
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67" t="n">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="J67"/>
       <c r="K67" t="n">
         <v>2406</v>
       </c>
       <c r="L67" t="n">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M67"/>
       <c r="N67" t="n">
-        <v>-72</v>
+        <v>-55</v>
       </c>
       <c r="O67" t="n">
         <v>32601</v>
       </c>
       <c r="P67" t="n">
-        <v>32528</v>
+        <v>32546</v>
       </c>
     </row>
     <row r="68">
@@ -17674,24 +17811,24 @@
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="J68"/>
       <c r="K68" t="n">
         <v>2301</v>
       </c>
       <c r="L68" t="n">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="M68"/>
       <c r="N68" t="n">
-        <v>929</v>
+        <v>953</v>
       </c>
       <c r="O68" t="n">
         <v>31737</v>
       </c>
       <c r="P68" t="n">
-        <v>32666</v>
+        <v>32690</v>
       </c>
     </row>
     <row r="69">
@@ -17705,31 +17842,31 @@
         <v>6916</v>
       </c>
       <c r="D69" t="n">
-        <v>4283</v>
+        <v>4288</v>
       </c>
       <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69" t="n">
-        <v>1268</v>
+        <v>1270</v>
       </c>
       <c r="J69"/>
       <c r="K69" t="n">
         <v>2153</v>
       </c>
       <c r="L69" t="n">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="M69"/>
       <c r="N69" t="n">
-        <v>-228</v>
+        <v>-208</v>
       </c>
       <c r="O69" t="n">
-        <v>32005</v>
+        <v>32010</v>
       </c>
       <c r="P69" t="n">
-        <v>31776</v>
+        <v>31802</v>
       </c>
     </row>
     <row r="70">
@@ -17743,31 +17880,31 @@
         <v>6856</v>
       </c>
       <c r="D70" t="n">
-        <v>5013</v>
+        <v>5009</v>
       </c>
       <c r="E70"/>
       <c r="F70"/>
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70" t="n">
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="J70"/>
       <c r="K70" t="n">
         <v>2276</v>
       </c>
       <c r="L70" t="n">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="M70"/>
       <c r="N70" t="n">
-        <v>284</v>
+        <v>217</v>
       </c>
       <c r="O70" t="n">
-        <v>32605</v>
+        <v>32601</v>
       </c>
       <c r="P70" t="n">
-        <v>32889</v>
+        <v>32818</v>
       </c>
     </row>
     <row r="71">
@@ -17775,37 +17912,37 @@
         <v>85</v>
       </c>
       <c r="B71" t="n">
-        <v>20945</v>
+        <v>20946</v>
       </c>
       <c r="C71" t="n">
         <v>6801</v>
       </c>
       <c r="D71" t="n">
-        <v>4374</v>
+        <v>4373</v>
       </c>
       <c r="E71"/>
       <c r="F71"/>
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71" t="n">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="J71"/>
       <c r="K71" t="n">
         <v>2188</v>
       </c>
       <c r="L71" t="n">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="M71"/>
       <c r="N71" t="n">
-        <v>-150</v>
+        <v>-129</v>
       </c>
       <c r="O71" t="n">
-        <v>32121</v>
+        <v>32120</v>
       </c>
       <c r="P71" t="n">
-        <v>31971</v>
+        <v>31991</v>
       </c>
     </row>
     <row r="72">
@@ -17813,37 +17950,37 @@
         <v>86</v>
       </c>
       <c r="B72" t="n">
-        <v>21255</v>
+        <v>21254</v>
       </c>
       <c r="C72" t="n">
         <v>6796</v>
       </c>
       <c r="D72" t="n">
-        <v>4762</v>
+        <v>4759</v>
       </c>
       <c r="E72"/>
       <c r="F72"/>
       <c r="G72"/>
       <c r="H72"/>
       <c r="I72" t="n">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="J72"/>
       <c r="K72" t="n">
         <v>2357</v>
       </c>
       <c r="L72" t="n">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M72"/>
       <c r="N72" t="n">
-        <v>656</v>
+        <v>685</v>
       </c>
       <c r="O72" t="n">
-        <v>32813</v>
+        <v>32810</v>
       </c>
       <c r="P72" t="n">
-        <v>33469</v>
+        <v>33495</v>
       </c>
     </row>
     <row r="73">
@@ -17857,31 +17994,31 @@
         <v>6672</v>
       </c>
       <c r="D73" t="n">
-        <v>4734</v>
+        <v>4744</v>
       </c>
       <c r="E73"/>
       <c r="F73"/>
       <c r="G73"/>
       <c r="H73"/>
       <c r="I73" t="n">
-        <v>1446</v>
+        <v>1451</v>
       </c>
       <c r="J73"/>
       <c r="K73" t="n">
         <v>2472</v>
       </c>
       <c r="L73" t="n">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="O73" t="n">
-        <v>32517</v>
+        <v>32526</v>
       </c>
       <c r="P73" t="n">
-        <v>32929</v>
+        <v>32961</v>
       </c>
     </row>
     <row r="74">
@@ -17895,31 +18032,31 @@
         <v>6314</v>
       </c>
       <c r="D74" t="n">
-        <v>5093</v>
+        <v>5089</v>
       </c>
       <c r="E74"/>
       <c r="F74"/>
       <c r="G74"/>
       <c r="H74"/>
       <c r="I74" t="n">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="J74"/>
       <c r="K74" t="n">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="L74" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="M74"/>
       <c r="N74" t="n">
-        <v>112</v>
+        <v>33</v>
       </c>
       <c r="O74" t="n">
-        <v>32542</v>
+        <v>32538</v>
       </c>
       <c r="P74" t="n">
-        <v>32654</v>
+        <v>32571</v>
       </c>
     </row>
     <row r="75">
@@ -17930,34 +18067,34 @@
         <v>21126</v>
       </c>
       <c r="C75" t="n">
-        <v>6545</v>
+        <v>6546</v>
       </c>
       <c r="D75" t="n">
-        <v>5174</v>
+        <v>5170</v>
       </c>
       <c r="E75"/>
       <c r="F75"/>
       <c r="G75"/>
       <c r="H75"/>
       <c r="I75" t="n">
-        <v>1652</v>
+        <v>1649</v>
       </c>
       <c r="J75"/>
       <c r="K75" t="n">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="L75" t="n">
         <v>948</v>
       </c>
       <c r="M75"/>
       <c r="N75" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="O75" t="n">
-        <v>32845</v>
+        <v>32841</v>
       </c>
       <c r="P75" t="n">
-        <v>33138</v>
+        <v>33159</v>
       </c>
     </row>
     <row r="76">
@@ -17971,31 +18108,31 @@
         <v>6671</v>
       </c>
       <c r="D76" t="n">
-        <v>5951</v>
+        <v>5946</v>
       </c>
       <c r="E76"/>
       <c r="F76"/>
       <c r="G76"/>
       <c r="H76"/>
       <c r="I76" t="n">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="J76"/>
       <c r="K76" t="n">
-        <v>2762</v>
+        <v>2761</v>
       </c>
       <c r="L76" t="n">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="M76"/>
       <c r="N76" t="n">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="O76" t="n">
-        <v>34022</v>
+        <v>34016</v>
       </c>
       <c r="P76" t="n">
-        <v>34301</v>
+        <v>34330</v>
       </c>
     </row>
     <row r="77">
@@ -18006,34 +18143,34 @@
         <v>21451</v>
       </c>
       <c r="C77" t="n">
-        <v>6651</v>
+        <v>6650</v>
       </c>
       <c r="D77" t="n">
-        <v>6227</v>
+        <v>6242</v>
       </c>
       <c r="E77"/>
       <c r="F77"/>
       <c r="G77"/>
       <c r="H77"/>
       <c r="I77" t="n">
-        <v>2304</v>
+        <v>2315</v>
       </c>
       <c r="J77"/>
       <c r="K77" t="n">
         <v>2965</v>
       </c>
       <c r="L77" t="n">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="M77"/>
       <c r="N77" t="n">
-        <v>-337</v>
+        <v>-312</v>
       </c>
       <c r="O77" t="n">
-        <v>34329</v>
+        <v>34343</v>
       </c>
       <c r="P77" t="n">
-        <v>33992</v>
+        <v>34032</v>
       </c>
     </row>
     <row r="78">
@@ -18041,37 +18178,37 @@
         <v>92</v>
       </c>
       <c r="B78" t="n">
-        <v>21549</v>
+        <v>21550</v>
       </c>
       <c r="C78" t="n">
         <v>6722</v>
       </c>
       <c r="D78" t="n">
-        <v>6071</v>
+        <v>6066</v>
       </c>
       <c r="E78"/>
       <c r="F78"/>
       <c r="G78"/>
       <c r="H78"/>
       <c r="I78" t="n">
-        <v>1986</v>
+        <v>1983</v>
       </c>
       <c r="J78"/>
       <c r="K78" t="n">
-        <v>3021</v>
+        <v>3023</v>
       </c>
       <c r="L78" t="n">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="M78"/>
       <c r="N78" t="n">
-        <v>856</v>
+        <v>764</v>
       </c>
       <c r="O78" t="n">
-        <v>34342</v>
+        <v>34338</v>
       </c>
       <c r="P78" t="n">
-        <v>35198</v>
+        <v>35102</v>
       </c>
     </row>
     <row r="79">
@@ -18085,14 +18222,14 @@
         <v>6919</v>
       </c>
       <c r="D79" t="n">
-        <v>6284</v>
+        <v>6279</v>
       </c>
       <c r="E79"/>
       <c r="F79"/>
       <c r="G79"/>
       <c r="H79"/>
       <c r="I79" t="n">
-        <v>2052</v>
+        <v>2046</v>
       </c>
       <c r="J79"/>
       <c r="K79" t="n">
@@ -18103,13 +18240,13 @@
       </c>
       <c r="M79"/>
       <c r="N79" t="n">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="O79" t="n">
-        <v>35124</v>
+        <v>35119</v>
       </c>
       <c r="P79" t="n">
-        <v>35177</v>
+        <v>35199</v>
       </c>
     </row>
     <row r="80">
@@ -18120,34 +18257,34 @@
         <v>22106</v>
       </c>
       <c r="C80" t="n">
-        <v>6860</v>
+        <v>6859</v>
       </c>
       <c r="D80" t="n">
-        <v>6590</v>
+        <v>6582</v>
       </c>
       <c r="E80"/>
       <c r="F80"/>
       <c r="G80"/>
       <c r="H80"/>
       <c r="I80" t="n">
-        <v>2391</v>
+        <v>2386</v>
       </c>
       <c r="J80"/>
       <c r="K80" t="n">
-        <v>3149</v>
+        <v>3147</v>
       </c>
       <c r="L80" t="n">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="M80"/>
       <c r="N80" t="n">
-        <v>261</v>
+        <v>302</v>
       </c>
       <c r="O80" t="n">
-        <v>35556</v>
+        <v>35547</v>
       </c>
       <c r="P80" t="n">
-        <v>35817</v>
+        <v>35849</v>
       </c>
     </row>
     <row r="81">
@@ -18155,37 +18292,37 @@
         <v>95</v>
       </c>
       <c r="B81" t="n">
-        <v>22389</v>
+        <v>22388</v>
       </c>
       <c r="C81" t="n">
         <v>6831</v>
       </c>
       <c r="D81" t="n">
-        <v>6912</v>
+        <v>6931</v>
       </c>
       <c r="E81"/>
       <c r="F81"/>
       <c r="G81"/>
       <c r="H81"/>
       <c r="I81" t="n">
-        <v>2699</v>
+        <v>2714</v>
       </c>
       <c r="J81"/>
       <c r="K81" t="n">
-        <v>3194</v>
+        <v>3193</v>
       </c>
       <c r="L81" t="n">
-        <v>1018</v>
+        <v>1023</v>
       </c>
       <c r="M81"/>
       <c r="N81" t="n">
-        <v>1968</v>
+        <v>2004</v>
       </c>
       <c r="O81" t="n">
-        <v>36132</v>
+        <v>36150</v>
       </c>
       <c r="P81" t="n">
-        <v>38100</v>
+        <v>38153</v>
       </c>
     </row>
     <row r="82">
@@ -18193,7 +18330,7 @@
         <v>96</v>
       </c>
       <c r="B82" t="n">
-        <v>22388</v>
+        <v>22389</v>
       </c>
       <c r="C82" t="n">
         <v>6947</v>
@@ -18206,24 +18343,24 @@
       <c r="G82"/>
       <c r="H82"/>
       <c r="I82" t="n">
-        <v>2821</v>
+        <v>2822</v>
       </c>
       <c r="J82"/>
       <c r="K82" t="n">
-        <v>3394</v>
+        <v>3399</v>
       </c>
       <c r="L82" t="n">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="M82"/>
       <c r="N82" t="n">
-        <v>264</v>
+        <v>151</v>
       </c>
       <c r="O82" t="n">
-        <v>36983</v>
+        <v>36985</v>
       </c>
       <c r="P82" t="n">
-        <v>37247</v>
+        <v>37135</v>
       </c>
     </row>
     <row r="83">
@@ -18231,37 +18368,37 @@
         <v>97</v>
       </c>
       <c r="B83" t="n">
-        <v>22695</v>
+        <v>22694</v>
       </c>
       <c r="C83" t="n">
-        <v>6946</v>
+        <v>6947</v>
       </c>
       <c r="D83" t="n">
-        <v>7593</v>
+        <v>7583</v>
       </c>
       <c r="E83"/>
       <c r="F83"/>
       <c r="G83"/>
       <c r="H83"/>
       <c r="I83" t="n">
-        <v>2691</v>
+        <v>2679</v>
       </c>
       <c r="J83"/>
       <c r="K83" t="n">
-        <v>3471</v>
+        <v>3473</v>
       </c>
       <c r="L83" t="n">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="M83"/>
       <c r="N83" t="n">
-        <v>884</v>
+        <v>914</v>
       </c>
       <c r="O83" t="n">
-        <v>37234</v>
+        <v>37224</v>
       </c>
       <c r="P83" t="n">
-        <v>38118</v>
+        <v>38138</v>
       </c>
     </row>
     <row r="84">
@@ -18269,37 +18406,37 @@
         <v>98</v>
       </c>
       <c r="B84" t="n">
-        <v>23060</v>
+        <v>23059</v>
       </c>
       <c r="C84" t="n">
         <v>6926</v>
       </c>
       <c r="D84" t="n">
-        <v>7706</v>
+        <v>7698</v>
       </c>
       <c r="E84"/>
       <c r="F84"/>
       <c r="G84"/>
       <c r="H84"/>
       <c r="I84" t="n">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="J84"/>
       <c r="K84" t="n">
-        <v>3497</v>
+        <v>3494</v>
       </c>
       <c r="L84" t="n">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="M84"/>
       <c r="N84" t="n">
-        <v>1982</v>
+        <v>2031</v>
       </c>
       <c r="O84" t="n">
-        <v>37692</v>
+        <v>37683</v>
       </c>
       <c r="P84" t="n">
-        <v>39674</v>
+        <v>39714</v>
       </c>
     </row>
     <row r="85">
@@ -18310,34 +18447,34 @@
         <v>23205</v>
       </c>
       <c r="C85" t="n">
-        <v>7146</v>
+        <v>7144</v>
       </c>
       <c r="D85" t="n">
-        <v>7005</v>
+        <v>7019</v>
       </c>
       <c r="E85"/>
       <c r="F85"/>
       <c r="G85"/>
       <c r="H85"/>
       <c r="I85" t="n">
-        <v>1968</v>
+        <v>1983</v>
       </c>
       <c r="J85"/>
       <c r="K85" t="n">
-        <v>3763</v>
+        <v>3756</v>
       </c>
       <c r="L85" t="n">
-        <v>1274</v>
+        <v>1280</v>
       </c>
       <c r="M85"/>
       <c r="N85" t="n">
-        <v>1472</v>
+        <v>1521</v>
       </c>
       <c r="O85" t="n">
-        <v>37356</v>
+        <v>37367</v>
       </c>
       <c r="P85" t="n">
-        <v>38828</v>
+        <v>38888</v>
       </c>
     </row>
     <row r="86">
@@ -18345,37 +18482,37 @@
         <v>100</v>
       </c>
       <c r="B86" t="n">
-        <v>24072</v>
+        <v>24075</v>
       </c>
       <c r="C86" t="n">
-        <v>7236</v>
+        <v>7238</v>
       </c>
       <c r="D86" t="n">
-        <v>7921</v>
+        <v>7940</v>
       </c>
       <c r="E86"/>
       <c r="F86"/>
       <c r="G86"/>
       <c r="H86"/>
       <c r="I86" t="n">
-        <v>3267</v>
+        <v>3271</v>
       </c>
       <c r="J86"/>
       <c r="K86" t="n">
-        <v>3597</v>
+        <v>3616</v>
       </c>
       <c r="L86" t="n">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="M86"/>
       <c r="N86" t="n">
-        <v>324</v>
+        <v>185</v>
       </c>
       <c r="O86" t="n">
-        <v>39229</v>
+        <v>39253</v>
       </c>
       <c r="P86" t="n">
-        <v>39553</v>
+        <v>39437</v>
       </c>
     </row>
     <row r="87">
@@ -18389,31 +18526,31 @@
         <v>7235</v>
       </c>
       <c r="D87" t="n">
-        <v>8137</v>
+        <v>8117</v>
       </c>
       <c r="E87"/>
       <c r="F87"/>
       <c r="G87"/>
       <c r="H87"/>
       <c r="I87" t="n">
-        <v>2958</v>
+        <v>2941</v>
       </c>
       <c r="J87"/>
       <c r="K87" t="n">
-        <v>4096</v>
+        <v>4093</v>
       </c>
       <c r="L87" t="n">
         <v>1083</v>
       </c>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>378</v>
+        <v>414</v>
       </c>
       <c r="O87" t="n">
-        <v>39289</v>
+        <v>39270</v>
       </c>
       <c r="P87" t="n">
-        <v>39667</v>
+        <v>39684</v>
       </c>
     </row>
     <row r="88">
@@ -18421,37 +18558,37 @@
         <v>102</v>
       </c>
       <c r="B88" t="n">
-        <v>23967</v>
+        <v>23965</v>
       </c>
       <c r="C88" t="n">
         <v>7347</v>
       </c>
       <c r="D88" t="n">
-        <v>8667</v>
+        <v>8656</v>
       </c>
       <c r="E88"/>
       <c r="F88"/>
       <c r="G88"/>
       <c r="H88"/>
       <c r="I88" t="n">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="J88"/>
       <c r="K88" t="n">
-        <v>4318</v>
+        <v>4312</v>
       </c>
       <c r="L88" t="n">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="M88"/>
       <c r="N88" t="n">
-        <v>130</v>
+        <v>186</v>
       </c>
       <c r="O88" t="n">
-        <v>39981</v>
+        <v>39968</v>
       </c>
       <c r="P88" t="n">
-        <v>40111</v>
+        <v>40154</v>
       </c>
     </row>
     <row r="89">
@@ -18462,34 +18599,34 @@
         <v>24298</v>
       </c>
       <c r="C89" t="n">
-        <v>7450</v>
+        <v>7446</v>
       </c>
       <c r="D89" t="n">
-        <v>8590</v>
+        <v>8597</v>
       </c>
       <c r="E89"/>
       <c r="F89"/>
       <c r="G89"/>
       <c r="H89"/>
       <c r="I89" t="n">
-        <v>3111</v>
+        <v>3127</v>
       </c>
       <c r="J89"/>
       <c r="K89" t="n">
-        <v>4375</v>
+        <v>4361</v>
       </c>
       <c r="L89" t="n">
-        <v>1104</v>
+        <v>1109</v>
       </c>
       <c r="M89"/>
       <c r="N89" t="n">
-        <v>3982</v>
+        <v>4042</v>
       </c>
       <c r="O89" t="n">
-        <v>40338</v>
+        <v>40341</v>
       </c>
       <c r="P89" t="n">
-        <v>44319</v>
+        <v>44383</v>
       </c>
     </row>
     <row r="90">
@@ -18497,37 +18634,37 @@
         <v>104</v>
       </c>
       <c r="B90" t="n">
-        <v>24594</v>
+        <v>24596</v>
       </c>
       <c r="C90" t="n">
-        <v>7537</v>
+        <v>7543</v>
       </c>
       <c r="D90" t="n">
-        <v>8562</v>
+        <v>8593</v>
       </c>
       <c r="E90"/>
       <c r="F90"/>
       <c r="G90"/>
       <c r="H90"/>
       <c r="I90" t="n">
-        <v>2396</v>
+        <v>2394</v>
       </c>
       <c r="J90"/>
       <c r="K90" t="n">
-        <v>4531</v>
+        <v>4570</v>
       </c>
       <c r="L90" t="n">
-        <v>1635</v>
+        <v>1629</v>
       </c>
       <c r="M90"/>
       <c r="N90" t="n">
-        <v>-1126</v>
+        <v>-1287</v>
       </c>
       <c r="O90" t="n">
-        <v>40693</v>
+        <v>40731</v>
       </c>
       <c r="P90" t="n">
-        <v>39567</v>
+        <v>39445</v>
       </c>
     </row>
     <row r="91">
@@ -18535,37 +18672,37 @@
         <v>105</v>
       </c>
       <c r="B91" t="n">
-        <v>24621</v>
+        <v>24622</v>
       </c>
       <c r="C91" t="n">
-        <v>7658</v>
+        <v>7657</v>
       </c>
       <c r="D91" t="n">
-        <v>9355</v>
+        <v>9339</v>
       </c>
       <c r="E91"/>
       <c r="F91"/>
       <c r="G91"/>
       <c r="H91"/>
       <c r="I91" t="n">
-        <v>3194</v>
+        <v>3181</v>
       </c>
       <c r="J91"/>
       <c r="K91" t="n">
-        <v>4592</v>
+        <v>4589</v>
       </c>
       <c r="L91" t="n">
-        <v>1570</v>
+        <v>1569</v>
       </c>
       <c r="M91"/>
       <c r="N91" t="n">
-        <v>1910</v>
+        <v>1950</v>
       </c>
       <c r="O91" t="n">
-        <v>41634</v>
+        <v>41618</v>
       </c>
       <c r="P91" t="n">
-        <v>43544</v>
+        <v>43568</v>
       </c>
     </row>
     <row r="92">
@@ -18579,31 +18716,31 @@
         <v>7828</v>
       </c>
       <c r="D92" t="n">
-        <v>8953</v>
+        <v>8943</v>
       </c>
       <c r="E92"/>
       <c r="F92"/>
       <c r="G92"/>
       <c r="H92"/>
       <c r="I92" t="n">
-        <v>2461</v>
+        <v>2463</v>
       </c>
       <c r="J92"/>
       <c r="K92" t="n">
-        <v>4882</v>
+        <v>4872</v>
       </c>
       <c r="L92" t="n">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="M92"/>
       <c r="N92" t="n">
-        <v>2606</v>
+        <v>2668</v>
       </c>
       <c r="O92" t="n">
-        <v>41744</v>
+        <v>41733</v>
       </c>
       <c r="P92" t="n">
-        <v>44350</v>
+        <v>44401</v>
       </c>
     </row>
     <row r="93">
@@ -18611,37 +18748,37 @@
         <v>107</v>
       </c>
       <c r="B93" t="n">
-        <v>25201</v>
+        <v>25200</v>
       </c>
       <c r="C93" t="n">
-        <v>7987</v>
+        <v>7979</v>
       </c>
       <c r="D93" t="n">
-        <v>9509</v>
+        <v>9501</v>
       </c>
       <c r="E93"/>
       <c r="F93"/>
       <c r="G93"/>
       <c r="H93"/>
       <c r="I93" t="n">
-        <v>2560</v>
+        <v>2575</v>
       </c>
       <c r="J93"/>
       <c r="K93" t="n">
-        <v>5365</v>
+        <v>5334</v>
       </c>
       <c r="L93" t="n">
-        <v>1585</v>
+        <v>1592</v>
       </c>
       <c r="M93"/>
       <c r="N93" t="n">
-        <v>881</v>
+        <v>949</v>
       </c>
       <c r="O93" t="n">
-        <v>42697</v>
+        <v>42679</v>
       </c>
       <c r="P93" t="n">
-        <v>43579</v>
+        <v>43628</v>
       </c>
     </row>
     <row r="94">
@@ -18649,37 +18786,37 @@
         <v>108</v>
       </c>
       <c r="B94" t="n">
-        <v>25885</v>
+        <v>25884</v>
       </c>
       <c r="C94" t="n">
-        <v>8080</v>
+        <v>8090</v>
       </c>
       <c r="D94" t="n">
-        <v>9935</v>
+        <v>10009</v>
       </c>
       <c r="E94"/>
       <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
       <c r="I94" t="n">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="J94"/>
       <c r="K94" t="n">
-        <v>5314</v>
+        <v>5398</v>
       </c>
       <c r="L94" t="n">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="M94"/>
       <c r="N94" t="n">
-        <v>1736</v>
+        <v>1559</v>
       </c>
       <c r="O94" t="n">
-        <v>43899</v>
+        <v>43983</v>
       </c>
       <c r="P94" t="n">
-        <v>45635</v>
+        <v>45542</v>
       </c>
     </row>
     <row r="95">
@@ -18687,13 +18824,13 @@
         <v>109</v>
       </c>
       <c r="B95" t="n">
-        <v>26427</v>
+        <v>26426</v>
       </c>
       <c r="C95" t="n">
         <v>8178</v>
       </c>
       <c r="D95" t="n">
-        <v>10433</v>
+        <v>10403</v>
       </c>
       <c r="E95"/>
       <c r="F95"/>
@@ -18702,18 +18839,18 @@
       <c r="I95"/>
       <c r="J95"/>
       <c r="K95" t="n">
-        <v>5748</v>
+        <v>5729</v>
       </c>
       <c r="L95"/>
       <c r="M95"/>
       <c r="N95" t="n">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="O95" t="n">
-        <v>45038</v>
+        <v>45007</v>
       </c>
       <c r="P95" t="n">
-        <v>45167</v>
+        <v>45179</v>
       </c>
     </row>
     <row r="96">
@@ -18721,37 +18858,37 @@
         <v>110</v>
       </c>
       <c r="B96" t="n">
-        <v>26519</v>
+        <v>26526</v>
       </c>
       <c r="C96" t="n">
-        <v>8335</v>
+        <v>8334</v>
       </c>
       <c r="D96" t="n">
-        <v>9879</v>
+        <v>9864</v>
       </c>
       <c r="E96"/>
       <c r="F96"/>
       <c r="G96"/>
       <c r="H96"/>
       <c r="I96" t="n">
-        <v>2390</v>
+        <v>2398</v>
       </c>
       <c r="J96"/>
       <c r="K96" t="n">
-        <v>5820</v>
+        <v>5799</v>
       </c>
       <c r="L96" t="n">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="M96"/>
       <c r="N96" t="n">
-        <v>-395</v>
+        <v>-328</v>
       </c>
       <c r="O96" t="n">
-        <v>44733</v>
+        <v>44725</v>
       </c>
       <c r="P96" t="n">
-        <v>44338</v>
+        <v>44397</v>
       </c>
     </row>
     <row r="97">
@@ -18759,13 +18896,13 @@
         <v>111</v>
       </c>
       <c r="B97" t="n">
-        <v>26393</v>
+        <v>26396</v>
       </c>
       <c r="C97" t="n">
-        <v>8173</v>
+        <v>8157</v>
       </c>
       <c r="D97" t="n">
-        <v>9766</v>
+        <v>9743</v>
       </c>
       <c r="E97"/>
       <c r="F97"/>
@@ -18774,18 +18911,18 @@
       <c r="I97"/>
       <c r="J97"/>
       <c r="K97" t="n">
-        <v>5799</v>
+        <v>5751</v>
       </c>
       <c r="L97"/>
       <c r="M97"/>
       <c r="N97" t="n">
-        <v>-453</v>
+        <v>-378</v>
       </c>
       <c r="O97" t="n">
-        <v>44332</v>
+        <v>44296</v>
       </c>
       <c r="P97" t="n">
-        <v>43879</v>
+        <v>43917</v>
       </c>
     </row>
     <row r="98">
@@ -18793,37 +18930,37 @@
         <v>112</v>
       </c>
       <c r="B98" t="n">
-        <v>27598</v>
+        <v>27582</v>
       </c>
       <c r="C98" t="n">
-        <v>8821</v>
+        <v>8840</v>
       </c>
       <c r="D98" t="n">
-        <v>9304</v>
+        <v>9411</v>
       </c>
       <c r="E98"/>
       <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
       <c r="I98" t="n">
-        <v>2320</v>
+        <v>2300</v>
       </c>
       <c r="J98"/>
       <c r="K98" t="n">
-        <v>5891</v>
+        <v>6020</v>
       </c>
       <c r="L98" t="n">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="M98"/>
       <c r="N98" t="n">
-        <v>2449</v>
+        <v>2257</v>
       </c>
       <c r="O98" t="n">
-        <v>45724</v>
+        <v>45833</v>
       </c>
       <c r="P98" t="n">
-        <v>48173</v>
+        <v>48090</v>
       </c>
     </row>
     <row r="99">
@@ -18831,13 +18968,13 @@
         <v>113</v>
       </c>
       <c r="B99" t="n">
-        <v>28009</v>
+        <v>28001</v>
       </c>
       <c r="C99" t="n">
-        <v>8971</v>
+        <v>8973</v>
       </c>
       <c r="D99" t="n">
-        <v>9395</v>
+        <v>9368</v>
       </c>
       <c r="E99"/>
       <c r="F99"/>
@@ -18846,18 +18983,18 @@
       <c r="I99"/>
       <c r="J99"/>
       <c r="K99" t="n">
-        <v>6232</v>
+        <v>6213</v>
       </c>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99" t="n">
-        <v>-336</v>
+        <v>-290</v>
       </c>
       <c r="O99" t="n">
-        <v>46375</v>
+        <v>46342</v>
       </c>
       <c r="P99" t="n">
-        <v>46039</v>
+        <v>46053</v>
       </c>
     </row>
     <row r="100">
@@ -18865,13 +19002,13 @@
         <v>114</v>
       </c>
       <c r="B100" t="n">
-        <v>27778</v>
+        <v>27812</v>
       </c>
       <c r="C100" t="n">
-        <v>9019</v>
+        <v>9017</v>
       </c>
       <c r="D100" t="n">
-        <v>10284</v>
+        <v>10268</v>
       </c>
       <c r="E100"/>
       <c r="F100"/>
@@ -18880,18 +19017,18 @@
       <c r="I100"/>
       <c r="J100"/>
       <c r="K100" t="n">
-        <v>6754</v>
+        <v>6724</v>
       </c>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100" t="n">
-        <v>975</v>
+        <v>1047</v>
       </c>
       <c r="O100" t="n">
-        <v>47080</v>
+        <v>47096</v>
       </c>
       <c r="P100" t="n">
-        <v>48055</v>
+        <v>48143</v>
       </c>
     </row>
     <row r="101">
@@ -18902,10 +19039,10 @@
         <v>27515</v>
       </c>
       <c r="C101" t="n">
-        <v>9062</v>
+        <v>9035</v>
       </c>
       <c r="D101" t="n">
-        <v>9773</v>
+        <v>9693</v>
       </c>
       <c r="E101"/>
       <c r="F101"/>
@@ -18914,18 +19051,18 @@
       <c r="I101"/>
       <c r="J101"/>
       <c r="K101" t="n">
-        <v>6727</v>
+        <v>6625</v>
       </c>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101" t="n">
-        <v>875</v>
+        <v>958</v>
       </c>
       <c r="O101" t="n">
-        <v>46350</v>
+        <v>46243</v>
       </c>
       <c r="P101" t="n">
-        <v>47225</v>
+        <v>47201</v>
       </c>
     </row>
     <row r="102">
@@ -18933,13 +19070,13 @@
         <v>116</v>
       </c>
       <c r="B102" t="n">
-        <v>26694</v>
+        <v>26660</v>
       </c>
       <c r="C102" t="n">
-        <v>9360</v>
+        <v>9391</v>
       </c>
       <c r="D102" t="n">
-        <v>10122</v>
+        <v>10322</v>
       </c>
       <c r="E102"/>
       <c r="F102"/>
@@ -18948,18 +19085,18 @@
       <c r="I102"/>
       <c r="J102"/>
       <c r="K102" t="n">
-        <v>6777</v>
+        <v>7019</v>
       </c>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102" t="n">
-        <v>1488</v>
+        <v>1280</v>
       </c>
       <c r="O102" t="n">
-        <v>46176</v>
+        <v>46374</v>
       </c>
       <c r="P102" t="n">
-        <v>47664</v>
+        <v>47654</v>
       </c>
     </row>
     <row r="103">
@@ -18967,13 +19104,13 @@
         <v>117</v>
       </c>
       <c r="B103" t="n">
-        <v>22565</v>
+        <v>22548</v>
       </c>
       <c r="C103" t="n">
-        <v>10242</v>
+        <v>10245</v>
       </c>
       <c r="D103" t="n">
-        <v>7912</v>
+        <v>7889</v>
       </c>
       <c r="E103"/>
       <c r="F103"/>
@@ -18982,18 +19119,18 @@
       <c r="I103"/>
       <c r="J103"/>
       <c r="K103" t="n">
-        <v>4543</v>
+        <v>4521</v>
       </c>
       <c r="L103"/>
       <c r="M103"/>
       <c r="N103" t="n">
-        <v>1804</v>
+        <v>1854</v>
       </c>
       <c r="O103" t="n">
-        <v>40718</v>
+        <v>40682</v>
       </c>
       <c r="P103" t="n">
-        <v>42522</v>
+        <v>42537</v>
       </c>
     </row>
     <row r="104">
@@ -19001,37 +19138,37 @@
         <v>118</v>
       </c>
       <c r="B104" t="n">
-        <v>25608</v>
+        <v>25674</v>
       </c>
       <c r="C104" t="n">
-        <v>10104</v>
+        <v>10099</v>
       </c>
       <c r="D104" t="n">
-        <v>10336</v>
+        <v>10321</v>
       </c>
       <c r="E104"/>
       <c r="F104"/>
       <c r="G104"/>
       <c r="H104"/>
       <c r="I104" t="n">
-        <v>2274</v>
+        <v>2293</v>
       </c>
       <c r="J104"/>
       <c r="K104" t="n">
-        <v>6560</v>
+        <v>6528</v>
       </c>
       <c r="L104" t="n">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="M104"/>
       <c r="N104" t="n">
-        <v>120</v>
+        <v>196</v>
       </c>
       <c r="O104" t="n">
-        <v>46048</v>
+        <v>46094</v>
       </c>
       <c r="P104" t="n">
-        <v>46168</v>
+        <v>46291</v>
       </c>
     </row>
     <row r="105">
@@ -19042,10 +19179,10 @@
         <v>25117</v>
       </c>
       <c r="C105" t="n">
-        <v>10670</v>
+        <v>10627</v>
       </c>
       <c r="D105" t="n">
-        <v>9793</v>
+        <v>9659</v>
       </c>
       <c r="E105"/>
       <c r="F105"/>
@@ -19054,18 +19191,18 @@
       <c r="I105"/>
       <c r="J105"/>
       <c r="K105" t="n">
-        <v>7089</v>
+        <v>6925</v>
       </c>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105" t="n">
-        <v>1312</v>
+        <v>1401</v>
       </c>
       <c r="O105" t="n">
-        <v>45579</v>
+        <v>45403</v>
       </c>
       <c r="P105" t="n">
-        <v>46891</v>
+        <v>46804</v>
       </c>
     </row>
     <row r="106">
@@ -19073,37 +19210,37 @@
         <v>120</v>
       </c>
       <c r="B106" t="n">
-        <v>24007</v>
+        <v>23955</v>
       </c>
       <c r="C106" t="n">
-        <v>10571</v>
+        <v>10622</v>
       </c>
       <c r="D106" t="n">
-        <v>9315</v>
+        <v>9510</v>
       </c>
       <c r="E106"/>
       <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106" t="n">
-        <v>2795</v>
+        <v>2752</v>
       </c>
       <c r="J106"/>
       <c r="K106" t="n">
-        <v>5021</v>
+        <v>5265</v>
       </c>
       <c r="L106" t="n">
-        <v>1499</v>
+        <v>1493</v>
       </c>
       <c r="M106"/>
       <c r="N106" t="n">
-        <v>940</v>
+        <v>719</v>
       </c>
       <c r="O106" t="n">
-        <v>43894</v>
+        <v>44086</v>
       </c>
       <c r="P106" t="n">
-        <v>44834</v>
+        <v>44805</v>
       </c>
     </row>
     <row r="107">
@@ -19111,37 +19248,37 @@
         <v>121</v>
       </c>
       <c r="B107" t="n">
-        <v>27882</v>
+        <v>27846</v>
       </c>
       <c r="C107" t="n">
-        <v>10718</v>
+        <v>10722</v>
       </c>
       <c r="D107" t="n">
-        <v>10424</v>
+        <v>10385</v>
       </c>
       <c r="E107"/>
       <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107" t="n">
-        <v>2485</v>
+        <v>2487</v>
       </c>
       <c r="J107"/>
       <c r="K107" t="n">
-        <v>6418</v>
+        <v>6378</v>
       </c>
       <c r="L107" t="n">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="M107"/>
       <c r="N107" t="n">
-        <v>984</v>
+        <v>1037</v>
       </c>
       <c r="O107" t="n">
-        <v>49025</v>
+        <v>48953</v>
       </c>
       <c r="P107" t="n">
-        <v>50009</v>
+        <v>49990</v>
       </c>
     </row>
     <row r="108">
@@ -19149,13 +19286,13 @@
         <v>122</v>
       </c>
       <c r="B108" t="n">
-        <v>28471</v>
+        <v>28586</v>
       </c>
       <c r="C108" t="n">
-        <v>10951</v>
+        <v>10940</v>
       </c>
       <c r="D108" t="n">
-        <v>11333</v>
+        <v>11323</v>
       </c>
       <c r="E108"/>
       <c r="F108"/>
@@ -19164,18 +19301,18 @@
       <c r="I108"/>
       <c r="J108"/>
       <c r="K108" t="n">
-        <v>6894</v>
+        <v>6866</v>
       </c>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108" t="n">
-        <v>1086</v>
+        <v>1167</v>
       </c>
       <c r="O108" t="n">
-        <v>50754</v>
+        <v>50849</v>
       </c>
       <c r="P108" t="n">
-        <v>51841</v>
+        <v>52017</v>
       </c>
     </row>
     <row r="109">
@@ -19183,13 +19320,13 @@
         <v>123</v>
       </c>
       <c r="B109" t="n">
-        <v>28840</v>
+        <v>28829</v>
       </c>
       <c r="C109" t="n">
-        <v>11141</v>
+        <v>11092</v>
       </c>
       <c r="D109" t="n">
-        <v>12551</v>
+        <v>12330</v>
       </c>
       <c r="E109"/>
       <c r="F109"/>
@@ -19198,18 +19335,56 @@
       <c r="I109"/>
       <c r="J109"/>
       <c r="K109" t="n">
-        <v>7890</v>
+        <v>7632</v>
       </c>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109" t="n">
-        <v>147</v>
+        <v>242</v>
       </c>
       <c r="O109" t="n">
-        <v>52533</v>
+        <v>52251</v>
       </c>
       <c r="P109" t="n">
-        <v>52680</v>
+        <v>52493</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>124</v>
+      </c>
+      <c r="B110" t="n">
+        <v>29084</v>
+      </c>
+      <c r="C110" t="n">
+        <v>10959</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12337</v>
+      </c>
+      <c r="E110"/>
+      <c r="F110"/>
+      <c r="G110"/>
+      <c r="H110"/>
+      <c r="I110" t="n">
+        <v>3137</v>
+      </c>
+      <c r="J110"/>
+      <c r="K110" t="n">
+        <v>7612</v>
+      </c>
+      <c r="L110" t="n">
+        <v>1589</v>
+      </c>
+      <c r="M110"/>
+      <c r="N110" t="n">
+        <v>3330</v>
+      </c>
+      <c r="O110" t="n">
+        <v>52381</v>
+      </c>
+      <c r="P110" t="n">
+        <v>55711</v>
       </c>
     </row>
   </sheetData>
